--- a/data/teams/leagues_total/all_leagues_combined.xlsx
+++ b/data/teams/leagues_total/all_leagues_combined.xlsx
@@ -486,65 +486,65 @@
     <col width="25.2" customWidth="1" min="51" max="51"/>
     <col width="25.2" customWidth="1" min="52" max="52"/>
     <col width="25.2" customWidth="1" min="53" max="53"/>
-    <col width="24" customWidth="1" min="54" max="54"/>
-    <col width="24" customWidth="1" min="55" max="55"/>
-    <col width="24" customWidth="1" min="56" max="56"/>
-    <col width="28.8" customWidth="1" min="57" max="57"/>
-    <col width="28.8" customWidth="1" min="58" max="58"/>
-    <col width="28.8" customWidth="1" min="59" max="59"/>
-    <col width="27.6" customWidth="1" min="60" max="60"/>
-    <col width="26.4" customWidth="1" min="61" max="61"/>
-    <col width="37.2" customWidth="1" min="62" max="62"/>
-    <col width="37.2" customWidth="1" min="63" max="63"/>
+    <col width="28.8" customWidth="1" min="54" max="54"/>
+    <col width="28.8" customWidth="1" min="55" max="55"/>
+    <col width="28.8" customWidth="1" min="56" max="56"/>
+    <col width="27.6" customWidth="1" min="57" max="57"/>
+    <col width="26.4" customWidth="1" min="58" max="58"/>
+    <col width="37.2" customWidth="1" min="59" max="59"/>
+    <col width="37.2" customWidth="1" min="60" max="60"/>
+    <col width="36" customWidth="1" min="61" max="61"/>
+    <col width="36" customWidth="1" min="62" max="62"/>
+    <col width="36" customWidth="1" min="63" max="63"/>
     <col width="36" customWidth="1" min="64" max="64"/>
-    <col width="36" customWidth="1" min="65" max="65"/>
-    <col width="36" customWidth="1" min="66" max="66"/>
-    <col width="36" customWidth="1" min="67" max="67"/>
-    <col width="37.2" customWidth="1" min="68" max="68"/>
-    <col width="37.2" customWidth="1" min="69" max="69"/>
-    <col width="24" customWidth="1" min="70" max="70"/>
-    <col width="24" customWidth="1" min="71" max="71"/>
-    <col width="24" customWidth="1" min="72" max="72"/>
-    <col width="28.8" customWidth="1" min="73" max="73"/>
-    <col width="28.8" customWidth="1" min="74" max="74"/>
-    <col width="28.8" customWidth="1" min="75" max="75"/>
-    <col width="27.6" customWidth="1" min="76" max="76"/>
-    <col width="26.4" customWidth="1" min="77" max="77"/>
+    <col width="37.2" customWidth="1" min="65" max="65"/>
+    <col width="37.2" customWidth="1" min="66" max="66"/>
+    <col width="28.8" customWidth="1" min="67" max="67"/>
+    <col width="28.8" customWidth="1" min="68" max="68"/>
+    <col width="28.8" customWidth="1" min="69" max="69"/>
+    <col width="27.6" customWidth="1" min="70" max="70"/>
+    <col width="26.4" customWidth="1" min="71" max="71"/>
+    <col width="37.2" customWidth="1" min="72" max="72"/>
+    <col width="37.2" customWidth="1" min="73" max="73"/>
+    <col width="36" customWidth="1" min="74" max="74"/>
+    <col width="36" customWidth="1" min="75" max="75"/>
+    <col width="36" customWidth="1" min="76" max="76"/>
+    <col width="36" customWidth="1" min="77" max="77"/>
     <col width="37.2" customWidth="1" min="78" max="78"/>
     <col width="37.2" customWidth="1" min="79" max="79"/>
-    <col width="36" customWidth="1" min="80" max="80"/>
-    <col width="36" customWidth="1" min="81" max="81"/>
-    <col width="36" customWidth="1" min="82" max="82"/>
-    <col width="36" customWidth="1" min="83" max="83"/>
-    <col width="37.2" customWidth="1" min="84" max="84"/>
-    <col width="37.2" customWidth="1" min="85" max="85"/>
-    <col width="30" customWidth="1" min="86" max="86"/>
-    <col width="27.6" customWidth="1" min="87" max="87"/>
-    <col width="21.6" customWidth="1" min="88" max="88"/>
-    <col width="27.6" customWidth="1" min="89" max="89"/>
-    <col width="24" customWidth="1" min="90" max="90"/>
-    <col width="28.8" customWidth="1" min="91" max="91"/>
-    <col width="30" customWidth="1" min="92" max="92"/>
-    <col width="19.2" customWidth="1" min="93" max="93"/>
-    <col width="19.2" customWidth="1" min="94" max="94"/>
-    <col width="25.2" customWidth="1" min="95" max="95"/>
-    <col width="24" customWidth="1" min="96" max="96"/>
-    <col width="25.2" customWidth="1" min="97" max="97"/>
-    <col width="25.2" customWidth="1" min="98" max="98"/>
-    <col width="22.8" customWidth="1" min="99" max="99"/>
-    <col width="22.8" customWidth="1" min="100" max="100"/>
-    <col width="33.6" customWidth="1" min="101" max="101"/>
-    <col width="21.6" customWidth="1" min="102" max="102"/>
-    <col width="15.6" customWidth="1" min="103" max="103"/>
-    <col width="28.8" customWidth="1" min="104" max="104"/>
-    <col width="28.8" customWidth="1" min="105" max="105"/>
-    <col width="30" customWidth="1" min="106" max="106"/>
-    <col width="30" customWidth="1" min="107" max="107"/>
-    <col width="32.4" customWidth="1" min="108" max="108"/>
-    <col width="30" customWidth="1" min="109" max="109"/>
+    <col width="22.8" customWidth="1" min="80" max="80"/>
+    <col width="22.8" customWidth="1" min="81" max="81"/>
+    <col width="30" customWidth="1" min="82" max="82"/>
+    <col width="27.6" customWidth="1" min="83" max="83"/>
+    <col width="21.6" customWidth="1" min="84" max="84"/>
+    <col width="27.6" customWidth="1" min="85" max="85"/>
+    <col width="24" customWidth="1" min="86" max="86"/>
+    <col width="28.8" customWidth="1" min="87" max="87"/>
+    <col width="30" customWidth="1" min="88" max="88"/>
+    <col width="19.2" customWidth="1" min="89" max="89"/>
+    <col width="19.2" customWidth="1" min="90" max="90"/>
+    <col width="25.2" customWidth="1" min="91" max="91"/>
+    <col width="24" customWidth="1" min="92" max="92"/>
+    <col width="25.2" customWidth="1" min="93" max="93"/>
+    <col width="25.2" customWidth="1" min="94" max="94"/>
+    <col width="22.8" customWidth="1" min="95" max="95"/>
+    <col width="22.8" customWidth="1" min="96" max="96"/>
+    <col width="33.6" customWidth="1" min="97" max="97"/>
+    <col width="21.6" customWidth="1" min="98" max="98"/>
+    <col width="15.6" customWidth="1" min="99" max="99"/>
+    <col width="28.8" customWidth="1" min="100" max="100"/>
+    <col width="28.8" customWidth="1" min="101" max="101"/>
+    <col width="30" customWidth="1" min="102" max="102"/>
+    <col width="30" customWidth="1" min="103" max="103"/>
+    <col width="32.4" customWidth="1" min="104" max="104"/>
+    <col width="30" customWidth="1" min="105" max="105"/>
+    <col width="22.8" customWidth="1" min="106" max="106"/>
+    <col width="24" customWidth="1" min="107" max="107"/>
+    <col width="24" customWidth="1" min="108" max="108"/>
+    <col width="22.8" customWidth="1" min="109" max="109"/>
     <col width="22.8" customWidth="1" min="110" max="110"/>
-    <col width="24" customWidth="1" min="111" max="111"/>
-    <col width="24" customWidth="1" min="112" max="112"/>
+    <col width="22.8" customWidth="1" min="111" max="111"/>
+    <col width="22.8" customWidth="1" min="112" max="112"/>
     <col width="22.8" customWidth="1" min="113" max="113"/>
     <col width="28.8" customWidth="1" min="114" max="114"/>
     <col width="25.2" customWidth="1" min="115" max="115"/>
@@ -840,297 +840,297 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>avg_avg_odds_ft_over15</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_ft_over25</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_ft_over35</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_btts_yes</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_btts_no</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_corners_under_85</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_corners_under_95</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_corners_over_85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_corners_over_95</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_1st_half_over05</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_1st_half_over15</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_1st_half_under05</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_1st_half_under15</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_over15</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_over25</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_over35</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_btts_yes</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_btts_no</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_corners_under_85</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_corners_under_95</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_corners_over_85</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_corners_over_95</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_1st_half_over05</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_1st_half_over15</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_1st_half_under05</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_1st_half_under15</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
           <t>avg_avg_odds_ft_1</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_1</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_goals_conceded</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_goals_scored</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_corners</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_yellow_cards</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_red_cards</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_shotsOnTarget</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_shotsOffTarget</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_shots</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_fouls</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_possession</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_cards_num</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_fh_corners</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_2h_corners</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_fh_cards</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_2h_cards</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_dangerous_attacks</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_attacks</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_xg</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_penalties_won</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_penalty_goals</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_penalty_missed</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_0_10_min_goals</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_corners_0_10_min</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_cards_0_10_min</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_throwins</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_freekicks</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>away_avg_goalkicks</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_ft_2</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_2</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_ft_x</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_2</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_over15</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_over25</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_over35</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_btts_yes</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_btts_no</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_corners_under_85</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_corners_under_95</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_corners_over_85</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_corners_over_95</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_1st_half_over05</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_1st_half_over15</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_1st_half_under05</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_1st_half_under15</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_ft_x</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_2</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_over15</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_over25</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_over35</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_btts_yes</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_btts_no</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_corners_under_85</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_corners_under_95</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_corners_over_85</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_corners_over_95</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_1st_half_over05</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_1st_half_over15</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_1st_half_under05</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_1st_half_under15</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_goals_conceded</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_goals_scored</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_corners</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_yellow_cards</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_red_cards</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_shotsOnTarget</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_shotsOffTarget</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_shots</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_fouls</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_possession</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_cards_num</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_fh_corners</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_2h_corners</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_fh_cards</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_2h_cards</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_dangerous_attacks</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_attacks</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_xg</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_penalties_won</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_penalty_goals</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_penalty_missed</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_0_10_min_goals</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_corners_0_10_min</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_cards_0_10_min</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_throwins</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_freekicks</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>away_avg_goalkicks</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
@@ -1424,179 +1424,179 @@
         <v>0.4175</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.121666666666667</v>
+        <v>1.393333333333333</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.570833333333333</v>
+        <v>2.265</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.936666666666667</v>
+        <v>4.119166666666668</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.393333333333333</v>
+        <v>2.105</v>
       </c>
       <c r="BF2" t="n">
+        <v>1.735</v>
+      </c>
+      <c r="BG2" t="n">
         <v>2.265</v>
       </c>
-      <c r="BG2" t="n">
-        <v>4.119166666666668</v>
-      </c>
       <c r="BH2" t="n">
-        <v>2.105</v>
+        <v>1.781666666666667</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.735</v>
+        <v>1.564166666666667</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.265</v>
+        <v>2.070833333333333</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.781666666666667</v>
+        <v>1.446666666666667</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.564166666666667</v>
+        <v>3.119166666666667</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.070833333333333</v>
+        <v>2.631666666666667</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.446666666666667</v>
+        <v>1.330833333333334</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.119166666666667</v>
+        <v>1.42625</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.631666666666667</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1.330833333333334</v>
-      </c>
+        <v>2.345416666666667</v>
+      </c>
+      <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="n">
-        <v>2.284166666666667</v>
+        <v>2.1775</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.556666666666667</v>
+        <v>1.765833333333333</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.048333333333334</v>
+        <v>2.266666666666666</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.42625</v>
+        <v>1.775416666666667</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.345416666666667</v>
-      </c>
-      <c r="BW2" t="inlineStr"/>
+        <v>1.643541666666667</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2.0725</v>
+      </c>
       <c r="BX2" t="n">
-        <v>2.1775</v>
+        <v>1.48625</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.765833333333333</v>
+        <v>3.269166666666667</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.266666666666666</v>
+        <v>2.689166666666666</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.775416666666667</v>
+        <v>1.348611111111111</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.643541666666667</v>
+        <v>1.58</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.0725</v>
+        <v>1.62</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.48625</v>
+        <v>1.4</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.269166666666667</v>
+        <v>0.8</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.689166666666666</v>
+        <v>5</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.348611111111111</v>
+        <v>2.2</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="CJ2" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="CK2" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CR2" t="n">
         <v>2.2</v>
       </c>
-      <c r="CL2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>3</v>
-      </c>
       <c r="CS2" t="n">
-        <v>2</v>
+        <v>46.6</v>
       </c>
       <c r="CT2" t="n">
-        <v>3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.4</v>
+        <v>1.34</v>
       </c>
       <c r="CV2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>99.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DA2" t="n">
         <v>0</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2</v>
+        <v>6.8</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="DF2" t="n">
-        <v>21</v>
+        <v>2.75</v>
       </c>
       <c r="DG2" t="n">
-        <v>13.8</v>
+        <v>3.57</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.8</v>
+        <v>3.55</v>
       </c>
       <c r="DI2" t="n">
         <v>5.58</v>
@@ -1839,181 +1839,181 @@
         <v>0.6658333333333334</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.041666666666667</v>
+        <v>1.26</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.408333333333333</v>
+        <v>1.874166666666667</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.408333333333334</v>
+        <v>3.105833333333333</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.26</v>
+        <v>1.916666666666667</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.874166666666667</v>
+        <v>1.895833333333333</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.105833333333333</v>
+        <v>2.341666666666667</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.916666666666667</v>
+        <v>1.829166666666666</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.895833333333333</v>
+        <v>1.5525</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.341666666666667</v>
+        <v>1.978333333333333</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.829166666666666</v>
+        <v>1.358333333333333</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.5525</v>
+        <v>2.676666666666667</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.978333333333333</v>
+        <v>3.098333333333333</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.358333333333333</v>
+        <v>1.464166666666667</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.676666666666667</v>
+        <v>1.308333333333333</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.098333333333333</v>
+        <v>1.908333333333333</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.464166666666667</v>
+        <v>3.094166666666667</v>
       </c>
       <c r="BR3" t="n">
-        <v>3.056666666666667</v>
+        <v>2.0025</v>
       </c>
       <c r="BS3" t="n">
-        <v>4.498333333333332</v>
+        <v>1.914166666666667</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.614999999999999</v>
+        <v>2.34125</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.308333333333333</v>
+        <v>1.852708333333333</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.908333333333333</v>
+        <v>1.603333333333333</v>
       </c>
       <c r="BW3" t="n">
-        <v>3.094166666666667</v>
+        <v>1.993125</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.0025</v>
+        <v>1.380625</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.914166666666667</v>
+        <v>2.755208333333333</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.34125</v>
+        <v>3.120625</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.852708333333333</v>
+        <v>1.474791666666667</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.603333333333333</v>
+        <v>1.62</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.993125</v>
+        <v>1.68</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.380625</v>
+        <v>1</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.755208333333333</v>
+        <v>1.2</v>
       </c>
       <c r="CF3" t="n">
-        <v>3.120625</v>
+        <v>4.6</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.474791666666667</v>
+        <v>1.8</v>
       </c>
       <c r="CH3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>52.2</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>2</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="CQ3" t="n">
         <v>1</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CR3" t="n">
         <v>1.2</v>
       </c>
-      <c r="CJ3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>2.4</v>
-      </c>
       <c r="CS3" t="n">
-        <v>2</v>
+        <v>48.4</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.6</v>
+        <v>101.6</v>
       </c>
       <c r="CU3" t="n">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="CW3" t="n">
-        <v>48.4</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>101.6</v>
+        <v>0</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.38</v>
+        <v>0.6</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="DA3" t="n">
         <v>0</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.6</v>
+        <v>10.2</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.6</v>
+        <v>9.4</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="DF3" t="n">
-        <v>16</v>
+        <v>1.83</v>
       </c>
       <c r="DG3" t="n">
-        <v>10.2</v>
+        <v>4.41</v>
       </c>
       <c r="DH3" t="n">
-        <v>9.4</v>
+        <v>4.5</v>
       </c>
       <c r="DI3" t="n">
         <v>7.5</v>
@@ -2256,179 +2256,179 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.060833333333333</v>
+        <v>1.391666666666667</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.645</v>
+        <v>2.195833333333333</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.860833333333333</v>
+        <v>3.9575</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.391666666666667</v>
+        <v>1.999166666666667</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.195833333333333</v>
+        <v>1.784166666666667</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.9575</v>
+        <v>2.2575</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.999166666666667</v>
+        <v>1.785</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.784166666666667</v>
+        <v>1.589166666666667</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.2575</v>
+        <v>1.991666666666667</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.785</v>
+        <v>1.454166666666667</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.589166666666667</v>
+        <v>3.063333333333333</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.991666666666667</v>
+        <v>2.7575</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.454166666666667</v>
+        <v>1.355</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.063333333333333</v>
+        <v>1.432222222222222</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.7575</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>1.355</v>
-      </c>
+        <v>2.313333333333333</v>
+      </c>
+      <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
-        <v>2.1575</v>
+        <v>2.083333333333333</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.743333333333334</v>
+        <v>1.825833333333333</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.0925</v>
+        <v>2.26625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.432222222222222</v>
+        <v>1.8275</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.313333333333333</v>
-      </c>
-      <c r="BW4" t="inlineStr"/>
+        <v>1.666805555555555</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2.0525</v>
+      </c>
       <c r="BX4" t="n">
-        <v>2.083333333333333</v>
+        <v>1.487</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.825833333333333</v>
+        <v>3.045</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.26625</v>
+        <v>2.723</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.8275</v>
+        <v>1.418166666666667</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.666805555555555</v>
+        <v>2.26</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.0525</v>
+        <v>2.34</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.487</v>
+        <v>1.14</v>
       </c>
       <c r="CE4" t="n">
-        <v>3.045</v>
+        <v>0.14</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.723</v>
+        <v>2.57</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.418166666666667</v>
+        <v>1.86</v>
       </c>
       <c r="CH4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>6</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>44</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="CP4" t="n">
         <v>1.14</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CQ4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CV4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CJ4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>12.14</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>44</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>1.43</v>
-      </c>
       <c r="CW4" t="n">
-        <v>35.57</v>
+        <v>0.14</v>
       </c>
       <c r="CX4" t="n">
-        <v>80.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.14</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>16.71</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>12.29</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.14</v>
+        <v>10</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>5.81</v>
       </c>
       <c r="DF4" t="n">
-        <v>16.71</v>
+        <v>6.02</v>
       </c>
       <c r="DG4" t="n">
-        <v>12.29</v>
+        <v>3.64</v>
       </c>
       <c r="DH4" t="n">
-        <v>10</v>
+        <v>3.74</v>
       </c>
       <c r="DI4" t="n">
         <v>2.67</v>
@@ -2671,181 +2671,181 @@
         <v>0.9072727272727273</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.659090909090909</v>
+        <v>1.316363636363636</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.413636363636364</v>
+        <v>2.04</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.246363636363637</v>
+        <v>3.47090909090909</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.316363636363636</v>
+        <v>1.830909090909091</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.04</v>
+        <v>1.983636363636364</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.47090909090909</v>
+        <v>2.139090909090909</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.830909090909091</v>
+        <v>1.734545454545454</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.983636363636364</v>
+        <v>1.641818181818182</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.139090909090909</v>
+        <v>2.180909090909091</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.734545454545454</v>
+        <v>1.419090909090909</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.641818181818182</v>
+        <v>2.947272727272727</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.180909090909091</v>
+        <v>2.810909090909091</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.419090909090909</v>
+        <v>1.390909090909091</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.947272727272727</v>
+        <v>1.331818181818182</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.810909090909091</v>
+        <v>2.045454545454545</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.390909090909091</v>
+        <v>3.223030303030303</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.718181818181818</v>
+        <v>1.832727272727273</v>
       </c>
       <c r="BS5" t="n">
-        <v>3.49</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.376363636363636</v>
+        <v>2.225681818181819</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.331818181818182</v>
+        <v>1.750227272727273</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.045454545454545</v>
+        <v>1.686590909090909</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.223030303030303</v>
+        <v>2.129772727272727</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.832727272727273</v>
+        <v>1.4</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.090909090909091</v>
+        <v>2.974545454545455</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.225681818181819</v>
+        <v>3.005454545454546</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.750227272727273</v>
+        <v>1.409090909090909</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.686590909090909</v>
+        <v>2.59</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.129772727272727</v>
+        <v>2.64</v>
       </c>
       <c r="CD5" t="n">
         <v>1.4</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.974545454545455</v>
+        <v>1.6</v>
       </c>
       <c r="CF5" t="n">
-        <v>3.005454545454546</v>
+        <v>3.8</v>
       </c>
       <c r="CG5" t="n">
-        <v>1.409090909090909</v>
+        <v>2.8</v>
       </c>
       <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="CO5" t="n">
         <v>1.4</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CP5" t="n">
         <v>1.6</v>
       </c>
-      <c r="CJ5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>13.4</v>
-      </c>
       <c r="CQ5" t="n">
-        <v>46.4</v>
+        <v>0.8</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.4</v>
+        <v>37.8</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.6</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="CV5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>37.8</v>
+        <v>0</v>
       </c>
       <c r="CX5" t="n">
-        <v>83.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.2</v>
+        <v>9.4</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="DF5" t="n">
-        <v>19.2</v>
+        <v>2.9</v>
       </c>
       <c r="DG5" t="n">
-        <v>10.4</v>
+        <v>3.41</v>
       </c>
       <c r="DH5" t="n">
-        <v>9.4</v>
+        <v>3.49</v>
       </c>
       <c r="DI5" t="n">
         <v>5.09</v>
@@ -3088,179 +3088,179 @@
         <v>0.4983333333333333</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.4425</v>
+        <v>1.506666666666667</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.1225</v>
+        <v>2.548333333333333</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.69</v>
+        <v>5.168333333333333</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.506666666666667</v>
+        <v>2.15</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.548333333333333</v>
+        <v>1.67</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.168333333333333</v>
+        <v>2.245833333333333</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.15</v>
+        <v>1.770833333333333</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.67</v>
+        <v>1.593333333333333</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.245833333333333</v>
+        <v>2.2</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.770833333333333</v>
+        <v>1.565</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.593333333333333</v>
+        <v>3.4675</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.2</v>
+        <v>2.4025</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.565</v>
+        <v>1.275833333333333</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.4675</v>
+        <v>1.521666666666667</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.4025</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>1.275833333333333</v>
-      </c>
+        <v>2.633333333333333</v>
+      </c>
+      <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="n">
-        <v>2.49</v>
+        <v>2.235</v>
       </c>
       <c r="BS6" t="n">
-        <v>3.216666666666667</v>
+        <v>1.726666666666667</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.974166666666667</v>
+        <v>2.254166666666667</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.521666666666667</v>
+        <v>1.7775</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.633333333333333</v>
-      </c>
-      <c r="BW6" t="inlineStr"/>
+        <v>1.665833333333333</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>2.091666666666666</v>
+      </c>
       <c r="BX6" t="n">
-        <v>2.235</v>
+        <v>1.52</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.726666666666667</v>
+        <v>3.313333333333333</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.254166666666667</v>
+        <v>2.61</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.7775</v>
+        <v>1.341666666666667</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.665833333333333</v>
+        <v>2.79</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.091666666666666</v>
+        <v>2.88</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.52</v>
+        <v>0.83</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.313333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.61</v>
+        <v>4.83</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.341666666666667</v>
+        <v>3</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="CI6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>98.67</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
         <v>0.33</v>
       </c>
-      <c r="CJ6" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>2</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>41.83</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>98.67</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>0</v>
-      </c>
       <c r="DA6" t="n">
         <v>0</v>
       </c>
       <c r="DB6" t="n">
-        <v>0</v>
+        <v>19.83</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>12.83</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.33</v>
+        <v>8.83</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
+        <v>4.23</v>
       </c>
       <c r="DF6" t="n">
-        <v>19.83</v>
+        <v>4.54</v>
       </c>
       <c r="DG6" t="n">
-        <v>12.83</v>
+        <v>3.12</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.83</v>
+        <v>3.21</v>
       </c>
       <c r="DI6" t="n">
         <v>5.5</v>
@@ -3503,181 +3503,181 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.233333333333333</v>
+        <v>1.383333333333334</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.6825</v>
+        <v>2.173333333333333</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.774999999999999</v>
+        <v>3.903333333333334</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.383333333333334</v>
+        <v>1.9725</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.173333333333333</v>
+        <v>1.796666666666667</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.903333333333334</v>
+        <v>2.191666666666667</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.9725</v>
+        <v>1.734166666666667</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.796666666666667</v>
+        <v>1.630833333333333</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.191666666666667</v>
+        <v>2.064166666666666</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.734166666666667</v>
+        <v>1.446666666666667</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.630833333333333</v>
+        <v>3.0425</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.064166666666666</v>
+        <v>2.734166666666667</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.446666666666667</v>
+        <v>1.38</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.0425</v>
+        <v>1.409</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.734166666666667</v>
+        <v>2.208333333333333</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.38</v>
+        <v>2.82</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.384166666666667</v>
+        <v>2.054</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.888333333333333</v>
+        <v>1.841</v>
       </c>
       <c r="BT7" t="n">
-        <v>5.119166666666666</v>
+        <v>2.168333333333333</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.409</v>
+        <v>1.7775</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.208333333333333</v>
+        <v>1.693333333333333</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.82</v>
+        <v>2.08625</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.054</v>
+        <v>1.482</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.841</v>
+        <v>3.12</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.168333333333333</v>
+        <v>2.723</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.7775</v>
+        <v>1.417</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.693333333333333</v>
+        <v>2.74</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.08625</v>
+        <v>3.01</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.482</v>
+        <v>1.83</v>
       </c>
       <c r="CE7" t="n">
-        <v>3.12</v>
+        <v>1</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.723</v>
+        <v>2.67</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.417</v>
+        <v>2</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.83</v>
+        <v>0.17</v>
       </c>
       <c r="CI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CR7" t="n">
         <v>1</v>
       </c>
-      <c r="CJ7" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL7" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>2.33</v>
-      </c>
       <c r="CS7" t="n">
-        <v>1.17</v>
+        <v>34.5</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.5</v>
+        <v>88.83</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="CV7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>34.5</v>
+        <v>0</v>
       </c>
       <c r="CX7" t="n">
-        <v>88.83</v>
+        <v>0</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>16.67</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>15.83</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.33</v>
+        <v>7.17</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="DF7" t="n">
-        <v>16.67</v>
+        <v>7.31</v>
       </c>
       <c r="DG7" t="n">
-        <v>15.83</v>
+        <v>3.68</v>
       </c>
       <c r="DH7" t="n">
-        <v>7.17</v>
+        <v>3.89</v>
       </c>
       <c r="DI7" t="n">
         <v>3.17</v>
@@ -3920,171 +3920,171 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="BB8" t="n">
-        <v>4.480909090909091</v>
+        <v>1.102727272727273</v>
       </c>
       <c r="BC8" t="n">
-        <v>5.800000000000001</v>
+        <v>1.394545454545455</v>
       </c>
       <c r="BD8" t="n">
-        <v>5.61</v>
+        <v>2.057272727272727</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.102727272727273</v>
+        <v>1.712727272727273</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.394545454545455</v>
+        <v>2.17090909090909</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.057272727272727</v>
+        <v>2.780909090909091</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.712727272727273</v>
+        <v>2.102727272727273</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.17090909090909</v>
+        <v>1.41</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.780909090909091</v>
+        <v>1.674545454545455</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.102727272727273</v>
+        <v>1.211818181818182</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.41</v>
+        <v>2.033636363636363</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.674545454545455</v>
+        <v>4.147272727272727</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.211818181818182</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>2.033636363636363</v>
-      </c>
+        <v>1.818181818181818</v>
+      </c>
+      <c r="BO8" t="inlineStr"/>
       <c r="BP8" t="n">
-        <v>4.147272727272727</v>
+        <v>1.418181818181818</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.818181818181818</v>
+        <v>2.029090909090909</v>
       </c>
       <c r="BR8" t="n">
-        <v>4.909090909090909</v>
+        <v>1.730909090909091</v>
       </c>
       <c r="BS8" t="n">
-        <v>6.169090909090909</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>6.041818181818183</v>
-      </c>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="n">
-        <v>1.418181818181818</v>
-      </c>
+        <v>2.280909090909091</v>
+      </c>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BV8" t="inlineStr"/>
       <c r="BW8" t="n">
-        <v>2.029090909090909</v>
-      </c>
-      <c r="BX8" t="n">
-        <v>1.730909090909091</v>
-      </c>
+        <v>1.686363636363636</v>
+      </c>
+      <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="n">
-        <v>2.280909090909091</v>
+        <v>2.036818181818182</v>
       </c>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
+        <v>1.811818181818182</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>2</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>69.67</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>115.33</v>
+      </c>
+      <c r="CU8" t="n">
         <v>2.19</v>
       </c>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="n">
-        <v>1.686363636363636</v>
-      </c>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="n">
-        <v>2.036818181818182</v>
-      </c>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="n">
-        <v>1.811818181818182</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL8" t="n">
+      <c r="CV8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>69.67</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>1.17</v>
-      </c>
       <c r="CW8" t="n">
-        <v>62.17</v>
+        <v>0.17</v>
       </c>
       <c r="CX8" t="n">
-        <v>115.33</v>
+        <v>0</v>
       </c>
       <c r="CY8" t="n">
-        <v>2.19</v>
+        <v>0.17</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.17</v>
+        <v>0.83</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>18.33</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.17</v>
+        <v>12.67</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.83</v>
+        <v>4.5</v>
       </c>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="DF8" t="n">
-        <v>18.33</v>
+        <v>1.74</v>
       </c>
       <c r="DG8" t="n">
-        <v>12.67</v>
+        <v>5.8</v>
       </c>
       <c r="DH8" t="n">
-        <v>4.5</v>
+        <v>6.17</v>
       </c>
       <c r="DI8" t="n">
         <v>7</v>
@@ -4327,177 +4327,177 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.427272727272727</v>
+        <v>1.522727272727273</v>
       </c>
       <c r="BC9" t="n">
+        <v>2.634545454545455</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>5.125454545454546</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.314545454545454</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1.602727272727273</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.925454545454546</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1.553636363636364</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.827272727272727</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>2.567272727272727</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.566363636363636</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>3.536363636363637</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>2.440909090909091</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>1.643454545454546</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>2.832727272727273</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2.445454545454545</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.617272727272727</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>1.872545454545455</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>1.577272727272727</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>1.970727272727273</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>2.421818181818182</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>1.606818181818182</v>
+      </c>
+      <c r="BY9" t="inlineStr"/>
+      <c r="BZ9" t="n">
+        <v>2.404090909090909</v>
+      </c>
+      <c r="CA9" t="inlineStr"/>
+      <c r="CB9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>5</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>15.33</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>36</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>89.83</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="DD9" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="DG9" t="n">
         <v>3.41</v>
       </c>
-      <c r="BD9" t="n">
-        <v>4.708181818181818</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>1.522727272727273</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>2.634545454545455</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>5.125454545454546</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>2.314545454545454</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1.602727272727273</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1.925454545454546</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>1.553636363636364</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>1.827272727272727</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>2.567272727272727</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>1.566363636363636</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>3.536363636363637</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>2.440909090909091</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>2.481818181818182</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>3.579090909090909</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>5.154545454545455</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>1.643454545454546</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>2.832727272727273</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>2.445454545454545</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>1.617272727272727</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>1.872545454545455</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>1.577272727272727</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>1.970727272727273</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>2.421818181818182</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>1.606818181818182</v>
-      </c>
-      <c r="CE9" t="inlineStr"/>
-      <c r="CF9" t="n">
-        <v>2.404090909090909</v>
-      </c>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>36</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>37.67</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>89.83</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD9" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>23.83</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>13</v>
-      </c>
       <c r="DH9" t="n">
-        <v>7.67</v>
+        <v>3.58</v>
       </c>
       <c r="DI9" t="n">
         <v>4.18</v>
@@ -4740,181 +4740,181 @@
         <v>0.5841666666666666</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.9425</v>
+        <v>1.294166666666667</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.809166666666667</v>
+        <v>1.973333333333333</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.938333333333333</v>
+        <v>3.464166666666667</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.294166666666667</v>
+        <v>1.811666666666667</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.973333333333333</v>
+        <v>1.94</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.464166666666667</v>
+        <v>2.299166666666666</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.811666666666667</v>
+        <v>1.803333333333333</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.94</v>
+        <v>1.568333333333333</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.299166666666666</v>
+        <v>2.010833333333334</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.803333333333333</v>
+        <v>1.385</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.568333333333333</v>
+        <v>2.805</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.010833333333334</v>
+        <v>2.976666666666667</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.385</v>
+        <v>1.440833333333333</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.805</v>
+        <v>1.322916666666667</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.976666666666667</v>
+        <v>1.9275</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.440833333333333</v>
+        <v>3.076111111111111</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.009166666666667</v>
+        <v>1.870833333333334</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.8875</v>
+        <v>2.024166666666666</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.115833333333334</v>
+        <v>2.260277777777778</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.322916666666667</v>
+        <v>1.855833333333334</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.9275</v>
+        <v>1.659166666666667</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.076111111111111</v>
+        <v>2.013333333333333</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.870833333333334</v>
+        <v>1.434166666666667</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.024166666666666</v>
+        <v>2.945833333333333</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.260277777777778</v>
+        <v>2.911666666666667</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.855833333333334</v>
+        <v>1.423333333333333</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.659166666666667</v>
+        <v>2.21</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.013333333333333</v>
+        <v>2.28</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.434166666666667</v>
+        <v>2.2</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.945833333333333</v>
+        <v>0.8</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.911666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.423333333333333</v>
+        <v>2</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="CK10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="CN10" t="n">
         <v>2</v>
       </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>4.4</v>
-      </c>
       <c r="CO10" t="n">
-        <v>8.6</v>
+        <v>1.4</v>
       </c>
       <c r="CP10" t="n">
-        <v>11</v>
+        <v>1.2</v>
       </c>
       <c r="CQ10" t="n">
-        <v>42.4</v>
+        <v>0.2</v>
       </c>
       <c r="CR10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.4</v>
+        <v>28.2</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.2</v>
+        <v>70.8</v>
       </c>
       <c r="CU10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CV10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CV10" t="n">
-        <v>1.8</v>
-      </c>
       <c r="CW10" t="n">
-        <v>28.2</v>
+        <v>0.2</v>
       </c>
       <c r="CX10" t="n">
-        <v>70.8</v>
+        <v>0</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.05</v>
+        <v>0.2</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>14.4</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>6.91</v>
       </c>
       <c r="DF10" t="n">
-        <v>14.4</v>
+        <v>7.17</v>
       </c>
       <c r="DG10" t="n">
-        <v>12</v>
+        <v>3.81</v>
       </c>
       <c r="DH10" t="n">
-        <v>13.4</v>
+        <v>3.88</v>
       </c>
       <c r="DI10" t="n">
         <v>4.66</v>
@@ -5157,181 +5157,181 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.3675</v>
+        <v>1.2725</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.055833333333333</v>
+        <v>1.936666666666667</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.615833333333333</v>
+        <v>3.370833333333334</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.2725</v>
+        <v>1.835833333333333</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.936666666666667</v>
+        <v>1.96</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.370833333333334</v>
+        <v>2.48</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.835833333333333</v>
+        <v>1.910833333333333</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.96</v>
+        <v>1.495833333333333</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2.48</v>
+        <v>1.930833333333333</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.910833333333333</v>
+        <v>1.364166666666667</v>
       </c>
       <c r="BL11" t="n">
-        <v>1.495833333333333</v>
+        <v>2.685833333333333</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.930833333333333</v>
+        <v>3.0575</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.364166666666667</v>
+        <v>1.473333333333333</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.685833333333333</v>
+        <v>1.340166666666667</v>
       </c>
       <c r="BP11" t="n">
-        <v>3.0575</v>
+        <v>1.894166666666667</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.473333333333333</v>
+        <v>2.941333333333333</v>
       </c>
       <c r="BR11" t="n">
-        <v>3.574166666666667</v>
+        <v>1.85</v>
       </c>
       <c r="BS11" t="n">
-        <v>4.2475</v>
+        <v>2.0625</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.783333333333334</v>
+        <v>2.375138888888889</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.340166666666667</v>
+        <v>1.9025</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.894166666666667</v>
+        <v>1.591666666666667</v>
       </c>
       <c r="BW11" t="n">
-        <v>2.941333333333333</v>
+        <v>1.962083333333333</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.85</v>
+        <v>1.413666666666667</v>
       </c>
       <c r="BY11" t="n">
-        <v>2.0625</v>
+        <v>2.662</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.375138888888889</v>
+        <v>3.007166666666667</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.9025</v>
+        <v>1.552333333333333</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.591666666666667</v>
+        <v>5.37</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.962083333333333</v>
+        <v>5.78</v>
       </c>
       <c r="CD11" t="n">
-        <v>1.413666666666667</v>
+        <v>1.29</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.662</v>
+        <v>1.43</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.007166666666667</v>
+        <v>2.86</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.552333333333333</v>
+        <v>1.86</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.43</v>
+        <v>3.86</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2.86</v>
+        <v>7</v>
       </c>
       <c r="CK11" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>41.14</v>
+      </c>
+      <c r="CN11" t="n">
         <v>1.86</v>
       </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>7</v>
-      </c>
       <c r="CO11" t="n">
-        <v>10.86</v>
+        <v>1.14</v>
       </c>
       <c r="CP11" t="n">
-        <v>13.14</v>
+        <v>1.71</v>
       </c>
       <c r="CQ11" t="n">
-        <v>41.14</v>
+        <v>0.86</v>
       </c>
       <c r="CR11" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="CS11" t="n">
-        <v>1.14</v>
+        <v>39</v>
       </c>
       <c r="CT11" t="n">
-        <v>1.71</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="CV11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW11" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="CX11" t="n">
-        <v>85.56999999999999</v>
+        <v>0</v>
       </c>
       <c r="CY11" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.29</v>
+        <v>11.14</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.14</v>
+        <v>4.81</v>
       </c>
       <c r="DF11" t="n">
-        <v>18</v>
+        <v>5.1</v>
       </c>
       <c r="DG11" t="n">
-        <v>11</v>
+        <v>4.06</v>
       </c>
       <c r="DH11" t="n">
-        <v>11.14</v>
+        <v>4.25</v>
       </c>
       <c r="DI11" t="n">
         <v>3.33</v>
@@ -5574,181 +5574,181 @@
         <v>0.4991666666666667</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.655833333333333</v>
+        <v>1.336666666666667</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.6425</v>
+        <v>2.101666666666667</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.949166666666667</v>
+        <v>3.713333333333333</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.336666666666667</v>
+        <v>1.8725</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.101666666666667</v>
+        <v>1.9025</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.713333333333333</v>
+        <v>2.410833333333333</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.8725</v>
+        <v>1.86</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.9025</v>
+        <v>1.52</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.410833333333333</v>
+        <v>1.920833333333333</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.86</v>
+        <v>1.4175</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.52</v>
+        <v>2.901666666666667</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.920833333333333</v>
+        <v>2.8425</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.4175</v>
+        <v>1.395833333333333</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.901666666666667</v>
+        <v>1.385833333333333</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.8425</v>
+        <v>2.1625</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.395833333333333</v>
+        <v>3.236944444444445</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.6675</v>
+        <v>1.925833333333333</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.646666666666667</v>
+        <v>1.961666666666667</v>
       </c>
       <c r="BT12" t="n">
-        <v>4.179166666666666</v>
+        <v>2.30375</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.385833333333333</v>
+        <v>1.846666666666667</v>
       </c>
       <c r="BV12" t="n">
-        <v>2.1625</v>
+        <v>1.603541666666667</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.236944444444445</v>
+        <v>1.994166666666667</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.925833333333333</v>
+        <v>1.460416666666666</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.961666666666667</v>
+        <v>3.125</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.30375</v>
+        <v>2.797291666666666</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.846666666666667</v>
+        <v>1.380277777777778</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.603541666666667</v>
+        <v>3.01</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.994166666666667</v>
+        <v>2.98</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.460416666666666</v>
+        <v>1.2</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.125</v>
+        <v>1</v>
       </c>
       <c r="CF12" t="n">
-        <v>2.797291666666666</v>
+        <v>4</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.380277777777778</v>
+        <v>1.2</v>
       </c>
       <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="CN12" t="n">
         <v>1.2</v>
       </c>
-      <c r="CI12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>11.6</v>
-      </c>
       <c r="CO12" t="n">
-        <v>15.8</v>
+        <v>2</v>
       </c>
       <c r="CP12" t="n">
-        <v>13.8</v>
+        <v>2</v>
       </c>
       <c r="CQ12" t="n">
-        <v>38.2</v>
+        <v>0.6</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="CS12" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="CT12" t="n">
-        <v>2</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.6</v>
+        <v>1.62</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="CW12" t="n">
-        <v>46</v>
+        <v>0.2</v>
       </c>
       <c r="CX12" t="n">
-        <v>90.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.62</v>
+        <v>0.2</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.2</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.2</v>
+        <v>11.4</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.2</v>
+        <v>7.2</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="DF12" t="n">
-        <v>20.8</v>
+        <v>5.73</v>
       </c>
       <c r="DG12" t="n">
-        <v>11.4</v>
+        <v>3.64</v>
       </c>
       <c r="DH12" t="n">
-        <v>7.2</v>
+        <v>3.65</v>
       </c>
       <c r="DI12" t="n">
         <v>4.33</v>
@@ -5991,181 +5991,181 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.844545454545454</v>
+        <v>1.345454545454545</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.94090909090909</v>
+        <v>2.114545454545454</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.626363636363636</v>
+        <v>3.823636363636364</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.345454545454545</v>
+        <v>1.995454545454545</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.114545454545454</v>
+        <v>1.785454545454545</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.823636363636364</v>
+        <v>2.407272727272727</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.995454545454545</v>
+        <v>1.873636363636364</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.785454545454545</v>
+        <v>1.524545454545454</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.407272727272727</v>
+        <v>1.864545454545454</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.873636363636364</v>
+        <v>1.411818181818182</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.524545454545454</v>
+        <v>2.965454545454545</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.864545454545454</v>
+        <v>2.829090909090909</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.411818181818182</v>
+        <v>1.402727272727273</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.965454545454545</v>
+        <v>1.413818181818182</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.829090909090909</v>
+        <v>2.130909090909091</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.402727272727273</v>
+        <v>2.700909090909091</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.937272727272727</v>
+        <v>2.062727272727273</v>
       </c>
       <c r="BS13" t="n">
-        <v>4.100909090909092</v>
+        <v>1.848181818181818</v>
       </c>
       <c r="BT13" t="n">
-        <v>5.022727272727272</v>
+        <v>2.260909090909091</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.413818181818182</v>
+        <v>1.895454545454546</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.130909090909091</v>
+        <v>1.665454545454546</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.700909090909091</v>
+        <v>1.986363636363637</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.062727272727273</v>
+        <v>1.444363636363636</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.848181818181818</v>
+        <v>2.904363636363636</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2.260909090909091</v>
+        <v>2.831090909090909</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.895454545454546</v>
+        <v>1.451090909090909</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.665454545454546</v>
+        <v>4.26</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.986363636363637</v>
+        <v>4.4</v>
       </c>
       <c r="CD13" t="n">
-        <v>1.444363636363636</v>
+        <v>2</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.904363636363636</v>
+        <v>1.17</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.831090909090909</v>
+        <v>4.17</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.451090909090909</v>
+        <v>2</v>
       </c>
       <c r="CH13" t="n">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="CJ13" t="n">
-        <v>4.17</v>
+        <v>6.67</v>
       </c>
       <c r="CK13" t="n">
-        <v>2</v>
+        <v>11.17</v>
       </c>
       <c r="CL13" t="n">
+        <v>12</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>46.33</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="CV13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="CO13" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="CP13" t="n">
-        <v>12</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>46.33</v>
-      </c>
-      <c r="CR13" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CS13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CT13" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>1.33</v>
-      </c>
       <c r="CW13" t="n">
-        <v>35.67</v>
+        <v>0.17</v>
       </c>
       <c r="CX13" t="n">
-        <v>91.5</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0</v>
+        <v>17.33</v>
       </c>
       <c r="DC13" t="n">
-        <v>0</v>
+        <v>12.33</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.33</v>
+        <v>7.67</v>
       </c>
       <c r="DE13" t="n">
-        <v>0</v>
+        <v>6.46</v>
       </c>
       <c r="DF13" t="n">
-        <v>17.33</v>
+        <v>7.02</v>
       </c>
       <c r="DG13" t="n">
-        <v>12.33</v>
+        <v>3.94</v>
       </c>
       <c r="DH13" t="n">
-        <v>7.67</v>
+        <v>4.1</v>
       </c>
       <c r="DI13" t="n">
         <v>3.91</v>
@@ -6408,181 +6408,181 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.726666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.576666666666667</v>
+        <v>1.988333333333333</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.576666666666667</v>
+        <v>3.468333333333334</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.3</v>
+        <v>1.84</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.988333333333333</v>
+        <v>1.945</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.468333333333334</v>
+        <v>2.525833333333333</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.84</v>
+        <v>1.954166666666667</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.945</v>
+        <v>1.4525</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.525833333333333</v>
+        <v>1.8625</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.954166666666667</v>
+        <v>1.395833333333333</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.4525</v>
+        <v>2.835833333333333</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.8625</v>
+        <v>2.924166666666666</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.395833333333333</v>
+        <v>1.4125</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.835833333333333</v>
+        <v>1.390277777777778</v>
       </c>
       <c r="BP14" t="n">
-        <v>2.924166666666666</v>
+        <v>2.076666666666667</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.4125</v>
+        <v>3.194166666666667</v>
       </c>
       <c r="BR14" t="n">
-        <v>2.910833333333333</v>
+        <v>1.9025</v>
       </c>
       <c r="BS14" t="n">
-        <v>3.745833333333334</v>
+        <v>2.008333333333333</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.785833333333333</v>
+        <v>2.447833333333334</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.390277777777778</v>
+        <v>1.970833333333333</v>
       </c>
       <c r="BV14" t="n">
-        <v>2.076666666666667</v>
+        <v>1.537833333333333</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.194166666666667</v>
+        <v>1.87</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.9025</v>
+        <v>1.421388888888889</v>
       </c>
       <c r="BY14" t="n">
-        <v>2.008333333333333</v>
+        <v>3.032777777777778</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.447833333333334</v>
+        <v>2.955555555555555</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.970833333333333</v>
+        <v>1.405138888888889</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.537833333333333</v>
+        <v>3.65</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.87</v>
+        <v>3.91</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.421388888888889</v>
+        <v>1.57</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.032777777777778</v>
+        <v>1.29</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.955555555555555</v>
+        <v>5.14</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.405138888888889</v>
+        <v>2.29</v>
       </c>
       <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>11.43</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>14</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>52.29</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CR14" t="n">
         <v>1.57</v>
       </c>
-      <c r="CI14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="CK14" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="CL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM14" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="CN14" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="CO14" t="n">
-        <v>11.43</v>
-      </c>
-      <c r="CP14" t="n">
-        <v>14</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>52.29</v>
-      </c>
-      <c r="CR14" t="n">
-        <v>2.29</v>
-      </c>
       <c r="CS14" t="n">
-        <v>3.14</v>
+        <v>38.57</v>
       </c>
       <c r="CT14" t="n">
-        <v>2</v>
+        <v>90.86</v>
       </c>
       <c r="CU14" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>0.71</v>
       </c>
-      <c r="CV14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>38.57</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>90.86</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>0.14</v>
-      </c>
       <c r="DA14" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>18.14</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.71</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="DF14" t="n">
-        <v>18.14</v>
+        <v>4.35</v>
       </c>
       <c r="DG14" t="n">
-        <v>9.289999999999999</v>
+        <v>3.58</v>
       </c>
       <c r="DH14" t="n">
-        <v>8.859999999999999</v>
+        <v>3.74</v>
       </c>
       <c r="DI14" t="n">
         <v>6.16</v>
@@ -6825,181 +6825,181 @@
         <v>0.6345454545454546</v>
       </c>
       <c r="BB15" t="n">
-        <v>2.420909090909091</v>
+        <v>1.287272727272727</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.447272727272727</v>
+        <v>1.920909090909091</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.442727272727272</v>
+        <v>3.282727272727273</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.287272727272727</v>
+        <v>1.777272727272727</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.920909090909091</v>
+        <v>2.050909090909091</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.282727272727273</v>
+        <v>2.384545454545454</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.777272727272727</v>
+        <v>1.859090909090909</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.050909090909091</v>
+        <v>1.511818181818182</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.384545454545454</v>
+        <v>2.005454545454546</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.859090909090909</v>
+        <v>1.376363636363636</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.511818181818182</v>
+        <v>2.716363636363637</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.005454545454546</v>
+        <v>2.898181818181818</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.376363636363636</v>
+        <v>1.41</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.716363636363637</v>
+        <v>1.31</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.898181818181818</v>
+        <v>1.930909090909091</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.41</v>
+        <v>2.993181818181818</v>
       </c>
       <c r="BR15" t="n">
-        <v>2.568181818181818</v>
+        <v>1.760909090909091</v>
       </c>
       <c r="BS15" t="n">
-        <v>3.562727272727273</v>
+        <v>2.193636363636363</v>
       </c>
       <c r="BT15" t="n">
-        <v>3.423636363636364</v>
+        <v>2.397727272727273</v>
       </c>
       <c r="BU15" t="n">
-        <v>1.31</v>
+        <v>1.889545454545455</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.930909090909091</v>
+        <v>1.574545454545454</v>
       </c>
       <c r="BW15" t="n">
-        <v>2.993181818181818</v>
+        <v>1.960454545454545</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.760909090909091</v>
+        <v>1.415454545454546</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.193636363636363</v>
+        <v>3.026363636363636</v>
       </c>
       <c r="BZ15" t="n">
-        <v>2.397727272727273</v>
+        <v>2.988787878787879</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.889545454545455</v>
+        <v>1.411515151515151</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.574545454545454</v>
+        <v>2.24</v>
       </c>
       <c r="CC15" t="n">
-        <v>1.960454545454545</v>
+        <v>2.34</v>
       </c>
       <c r="CD15" t="n">
-        <v>1.415454545454546</v>
+        <v>1.4</v>
       </c>
       <c r="CE15" t="n">
-        <v>3.026363636363636</v>
+        <v>1.6</v>
       </c>
       <c r="CF15" t="n">
-        <v>2.988787878787879</v>
+        <v>6</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.411515151515151</v>
+        <v>2.4</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="CI15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>15</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>50</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>92</v>
+      </c>
+      <c r="CU15" t="n">
         <v>1.6</v>
       </c>
-      <c r="CJ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="CO15" t="n">
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
         <v>15</v>
       </c>
-      <c r="CP15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="CT15" t="n">
+      <c r="DC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="DD15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="DE15" t="n">
         <v>2.8</v>
       </c>
-      <c r="CU15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>50</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>92</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>0</v>
-      </c>
       <c r="DF15" t="n">
-        <v>15</v>
+        <v>2.8</v>
       </c>
       <c r="DG15" t="n">
-        <v>15</v>
+        <v>3.45</v>
       </c>
       <c r="DH15" t="n">
-        <v>8.6</v>
+        <v>3.56</v>
       </c>
       <c r="DI15" t="n">
         <v>4.82</v>
@@ -7242,171 +7242,171 @@
         <v>0.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.860833333333334</v>
+        <v>1.145</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.404166666666666</v>
+        <v>1.5275</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.079166666666667</v>
+        <v>2.3575</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.145</v>
+        <v>1.7975</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.5275</v>
+        <v>2.039166666666667</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.3575</v>
+        <v>2.814166666666666</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.7975</v>
+        <v>2.159166666666667</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.039166666666667</v>
+        <v>1.4175</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.814166666666666</v>
+        <v>1.7025</v>
       </c>
       <c r="BK16" t="n">
-        <v>2.159166666666667</v>
+        <v>1.253333333333333</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.4175</v>
+        <v>2.196666666666667</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.7025</v>
+        <v>3.704166666666667</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.253333333333333</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>2.196666666666667</v>
-      </c>
+        <v>1.663333333333333</v>
+      </c>
+      <c r="BO16" t="inlineStr"/>
       <c r="BP16" t="n">
-        <v>3.704166666666667</v>
+        <v>1.563333333333333</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.663333333333333</v>
+        <v>2.410833333333333</v>
       </c>
       <c r="BR16" t="n">
-        <v>4.1125</v>
+        <v>1.883333333333333</v>
       </c>
       <c r="BS16" t="n">
-        <v>5.843333333333334</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>6.960833333333333</v>
-      </c>
-      <c r="BU16" t="inlineStr"/>
-      <c r="BV16" t="n">
-        <v>1.563333333333333</v>
-      </c>
+        <v>2.126666666666666</v>
+      </c>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>2.13875</v>
+      </c>
+      <c r="BV16" t="inlineStr"/>
       <c r="BW16" t="n">
-        <v>2.410833333333333</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>1.883333333333333</v>
-      </c>
+        <v>1.73625</v>
+      </c>
+      <c r="BX16" t="inlineStr"/>
       <c r="BY16" t="n">
-        <v>2.126666666666666</v>
+        <v>2.285</v>
       </c>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
-        <v>2.13875</v>
-      </c>
-      <c r="CB16" t="inlineStr"/>
+        <v>1.683</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>1.28</v>
+      </c>
       <c r="CC16" t="n">
-        <v>1.73625</v>
-      </c>
-      <c r="CD16" t="inlineStr"/>
+        <v>1.34</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>1.17</v>
+      </c>
       <c r="CE16" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="CF16" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>5.67</v>
+      </c>
       <c r="CG16" t="n">
-        <v>1.683</v>
+        <v>1.67</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="CI16" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>59.5</v>
+      </c>
+      <c r="CN16" t="n">
         <v>2</v>
       </c>
-      <c r="CJ16" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CL16" t="n">
+      <c r="CO16" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="CV16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM16" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>59.5</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>1.33</v>
-      </c>
       <c r="CW16" t="n">
-        <v>56.5</v>
+        <v>0.17</v>
       </c>
       <c r="CX16" t="n">
-        <v>120.5</v>
+        <v>0</v>
       </c>
       <c r="CY16" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="DB16" t="n">
-        <v>0</v>
+        <v>17.17</v>
       </c>
       <c r="DC16" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.33</v>
+        <v>8.83</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="DF16" t="n">
-        <v>17.17</v>
+        <v>1.57</v>
       </c>
       <c r="DG16" t="n">
-        <v>17</v>
+        <v>5.4</v>
       </c>
       <c r="DH16" t="n">
-        <v>8.83</v>
+        <v>5.84</v>
       </c>
       <c r="DI16" t="n">
         <v>6.08</v>
@@ -7649,181 +7649,181 @@
         <v>0.2516666666666666</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.5225</v>
+        <v>1.38</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.785</v>
+        <v>2.191666666666666</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.086666666666667</v>
+        <v>4.013333333333333</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.38</v>
+        <v>2.0875</v>
       </c>
       <c r="BF17" t="n">
-        <v>2.191666666666666</v>
+        <v>1.7375</v>
       </c>
       <c r="BG17" t="n">
-        <v>4.013333333333333</v>
+        <v>2.351666666666667</v>
       </c>
       <c r="BH17" t="n">
-        <v>2.0875</v>
+        <v>1.853333333333333</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.7375</v>
+        <v>1.5425</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2.351666666666667</v>
+        <v>2.023333333333333</v>
       </c>
       <c r="BK17" t="n">
-        <v>1.853333333333333</v>
+        <v>1.45</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.5425</v>
+        <v>3.038333333333334</v>
       </c>
       <c r="BM17" t="n">
-        <v>2.023333333333333</v>
+        <v>2.753333333333333</v>
       </c>
       <c r="BN17" t="n">
-        <v>1.45</v>
+        <v>1.358333333333333</v>
       </c>
       <c r="BO17" t="n">
-        <v>3.038333333333334</v>
+        <v>1.415</v>
       </c>
       <c r="BP17" t="n">
-        <v>2.753333333333333</v>
+        <v>2.243333333333333</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.358333333333333</v>
+        <v>3.215</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.799166666666667</v>
+        <v>2.164166666666667</v>
       </c>
       <c r="BS17" t="n">
-        <v>3.955833333333333</v>
+        <v>1.77</v>
       </c>
       <c r="BT17" t="n">
-        <v>4.149166666666667</v>
+        <v>2.243</v>
       </c>
       <c r="BU17" t="n">
-        <v>1.415</v>
+        <v>1.814166666666667</v>
       </c>
       <c r="BV17" t="n">
-        <v>2.243333333333333</v>
+        <v>1.652</v>
       </c>
       <c r="BW17" t="n">
-        <v>3.215</v>
+        <v>2.035</v>
       </c>
       <c r="BX17" t="n">
-        <v>2.164166666666667</v>
+        <v>1.48</v>
       </c>
       <c r="BY17" t="n">
-        <v>1.77</v>
+        <v>2.9575</v>
       </c>
       <c r="BZ17" t="n">
-        <v>2.243</v>
+        <v>2.765833333333333</v>
       </c>
       <c r="CA17" t="n">
-        <v>1.814166666666667</v>
+        <v>1.4375</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.652</v>
+        <v>5.37</v>
       </c>
       <c r="CC17" t="n">
-        <v>2.035</v>
+        <v>5.84</v>
       </c>
       <c r="CD17" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="CE17" t="n">
-        <v>2.9575</v>
+        <v>0.83</v>
       </c>
       <c r="CF17" t="n">
-        <v>2.765833333333333</v>
+        <v>3.17</v>
       </c>
       <c r="CG17" t="n">
-        <v>1.4375</v>
+        <v>2.5</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.67</v>
+        <v>0.5</v>
       </c>
       <c r="CI17" t="n">
-        <v>0.83</v>
+        <v>3.33</v>
       </c>
       <c r="CJ17" t="n">
-        <v>3.17</v>
+        <v>4.33</v>
       </c>
       <c r="CK17" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CR17" t="n">
         <v>2.5</v>
       </c>
-      <c r="CL17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>3</v>
-      </c>
       <c r="CS17" t="n">
-        <v>1.33</v>
+        <v>27.33</v>
       </c>
       <c r="CT17" t="n">
-        <v>1</v>
+        <v>68.5</v>
       </c>
       <c r="CU17" t="n">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="CV17" t="n">
-        <v>2.5</v>
+        <v>0.17</v>
       </c>
       <c r="CW17" t="n">
-        <v>27.33</v>
+        <v>0.17</v>
       </c>
       <c r="CX17" t="n">
-        <v>68.5</v>
+        <v>0</v>
       </c>
       <c r="CY17" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="DA17" t="n">
         <v>0.17</v>
       </c>
       <c r="DB17" t="n">
-        <v>0</v>
+        <v>20.33</v>
       </c>
       <c r="DC17" t="n">
-        <v>0</v>
+        <v>11.33</v>
       </c>
       <c r="DD17" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="DE17" t="n">
-        <v>0.17</v>
+        <v>6.06</v>
       </c>
       <c r="DF17" t="n">
-        <v>20.33</v>
+        <v>6.06</v>
       </c>
       <c r="DG17" t="n">
-        <v>11.33</v>
+        <v>3.78</v>
       </c>
       <c r="DH17" t="n">
-        <v>9.5</v>
+        <v>3.96</v>
       </c>
       <c r="DI17" t="n">
         <v>3.58</v>
@@ -8066,181 +8066,181 @@
         <v>0.7516666666666666</v>
       </c>
       <c r="BB18" t="n">
-        <v>2.41</v>
+        <v>1.326666666666667</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.509166666666667</v>
+        <v>2.121666666666667</v>
       </c>
       <c r="BD18" t="n">
-        <v>3.9275</v>
+        <v>3.706666666666667</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.326666666666667</v>
+        <v>1.873333333333333</v>
       </c>
       <c r="BF18" t="n">
-        <v>2.121666666666667</v>
+        <v>1.9</v>
       </c>
       <c r="BG18" t="n">
-        <v>3.706666666666667</v>
+        <v>2.485833333333333</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.873333333333333</v>
+        <v>1.941666666666666</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.9</v>
+        <v>1.479166666666667</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2.485833333333333</v>
+        <v>1.931666666666667</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.941666666666666</v>
+        <v>1.4125</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.479166666666667</v>
+        <v>2.955833333333333</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.931666666666667</v>
+        <v>2.893333333333333</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.4125</v>
+        <v>1.399166666666667</v>
       </c>
       <c r="BO18" t="n">
-        <v>2.955833333333333</v>
+        <v>1.374</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.893333333333333</v>
+        <v>2.104166666666667</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.399166666666667</v>
+        <v>3.098333333333333</v>
       </c>
       <c r="BR18" t="n">
-        <v>2.57</v>
+        <v>1.8975</v>
       </c>
       <c r="BS18" t="n">
-        <v>3.575000000000001</v>
+        <v>2.001666666666666</v>
       </c>
       <c r="BT18" t="n">
-        <v>3.913333333333334</v>
+        <v>2.3</v>
       </c>
       <c r="BU18" t="n">
-        <v>1.374</v>
+        <v>1.949166666666667</v>
       </c>
       <c r="BV18" t="n">
-        <v>2.104166666666667</v>
+        <v>1.59</v>
       </c>
       <c r="BW18" t="n">
-        <v>3.098333333333333</v>
+        <v>1.885833333333333</v>
       </c>
       <c r="BX18" t="n">
-        <v>1.8975</v>
+        <v>1.4475</v>
       </c>
       <c r="BY18" t="n">
-        <v>2.001666666666666</v>
+        <v>2.905</v>
       </c>
       <c r="BZ18" t="n">
-        <v>2.3</v>
+        <v>2.825</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.949166666666667</v>
+        <v>1.463333333333333</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.59</v>
+        <v>2.56</v>
       </c>
       <c r="CC18" t="n">
-        <v>1.885833333333333</v>
+        <v>2.71</v>
       </c>
       <c r="CD18" t="n">
-        <v>1.4475</v>
+        <v>1.5</v>
       </c>
       <c r="CE18" t="n">
-        <v>2.905</v>
+        <v>0.83</v>
       </c>
       <c r="CF18" t="n">
-        <v>2.825</v>
+        <v>6</v>
       </c>
       <c r="CG18" t="n">
-        <v>1.463333333333333</v>
+        <v>2.83</v>
       </c>
       <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>16</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>45.67</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CQ18" t="n">
         <v>1.5</v>
       </c>
-      <c r="CI18" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CJ18" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK18" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM18" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="CN18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="CO18" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="CP18" t="n">
-        <v>16</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>45.67</v>
-      </c>
       <c r="CR18" t="n">
-        <v>2.83</v>
+        <v>1.33</v>
       </c>
       <c r="CS18" t="n">
-        <v>3.17</v>
+        <v>44.67</v>
       </c>
       <c r="CT18" t="n">
-        <v>2.83</v>
+        <v>94.17</v>
       </c>
       <c r="CU18" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="CV18" t="n">
-        <v>1.33</v>
+        <v>0.17</v>
       </c>
       <c r="CW18" t="n">
-        <v>44.67</v>
+        <v>0.17</v>
       </c>
       <c r="CX18" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="DA18" t="n">
         <v>0.17</v>
       </c>
       <c r="DB18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DC18" t="n">
-        <v>0</v>
+        <v>7.83</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.5</v>
+        <v>7.83</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.17</v>
+        <v>4.26</v>
       </c>
       <c r="DF18" t="n">
-        <v>19</v>
+        <v>4.13</v>
       </c>
       <c r="DG18" t="n">
-        <v>7.83</v>
+        <v>3.51</v>
       </c>
       <c r="DH18" t="n">
-        <v>7.83</v>
+        <v>3.57</v>
       </c>
       <c r="DI18" t="n">
         <v>6.5</v>
@@ -8483,181 +8483,181 @@
         <v>0.6649999999999999</v>
       </c>
       <c r="BB19" t="n">
-        <v>2.3575</v>
+        <v>1.349166666666667</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.5175</v>
+        <v>2.088333333333333</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.1875</v>
+        <v>3.674166666666667</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.349166666666667</v>
+        <v>1.921666666666667</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.088333333333333</v>
+        <v>1.8975</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.674166666666667</v>
+        <v>2.3325</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.921666666666667</v>
+        <v>1.825833333333333</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.8975</v>
+        <v>1.559166666666667</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.3325</v>
+        <v>1.995</v>
       </c>
       <c r="BK19" t="n">
-        <v>1.825833333333333</v>
+        <v>1.415833333333333</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.559166666666667</v>
+        <v>2.988333333333333</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.995</v>
+        <v>2.829166666666667</v>
       </c>
       <c r="BN19" t="n">
-        <v>1.415833333333333</v>
+        <v>1.403333333333333</v>
       </c>
       <c r="BO19" t="n">
-        <v>2.988333333333333</v>
+        <v>1.409</v>
       </c>
       <c r="BP19" t="n">
-        <v>2.829166666666667</v>
+        <v>2.185833333333333</v>
       </c>
       <c r="BQ19" t="n">
+        <v>3.10625</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>1.983333333333333</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1.839166666666667</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>1.4825</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>3.088333333333333</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>2.70125</v>
+      </c>
+      <c r="CA19" t="n">
         <v>1.403333333333333</v>
       </c>
-      <c r="BR19" t="n">
-        <v>2.4725</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>3.663333333333334</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>4.315833333333334</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>1.409</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>2.185833333333333</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>3.10625</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>1.983333333333333</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>2.269</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>1.839166666666667</v>
-      </c>
       <c r="CB19" t="n">
-        <v>1.65</v>
+        <v>2.77</v>
       </c>
       <c r="CC19" t="n">
-        <v>2.025</v>
+        <v>2.96</v>
       </c>
       <c r="CD19" t="n">
-        <v>1.4825</v>
+        <v>1.5</v>
       </c>
       <c r="CE19" t="n">
-        <v>3.088333333333333</v>
+        <v>1.33</v>
       </c>
       <c r="CF19" t="n">
-        <v>2.70125</v>
+        <v>4.17</v>
       </c>
       <c r="CG19" t="n">
-        <v>1.403333333333333</v>
+        <v>3</v>
       </c>
       <c r="CH19" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="CI19" t="n">
-        <v>1.33</v>
+        <v>2.83</v>
       </c>
       <c r="CJ19" t="n">
-        <v>4.17</v>
+        <v>6.17</v>
       </c>
       <c r="CK19" t="n">
+        <v>9</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>14.33</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>49.33</v>
+      </c>
+      <c r="CN19" t="n">
         <v>3</v>
       </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>6.17</v>
-      </c>
       <c r="CO19" t="n">
-        <v>9</v>
+        <v>2.33</v>
       </c>
       <c r="CP19" t="n">
-        <v>14.33</v>
+        <v>1.83</v>
       </c>
       <c r="CQ19" t="n">
-        <v>49.33</v>
+        <v>0.83</v>
       </c>
       <c r="CR19" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="CS19" t="n">
-        <v>2.33</v>
+        <v>31.5</v>
       </c>
       <c r="CT19" t="n">
-        <v>1.83</v>
+        <v>84.83</v>
       </c>
       <c r="CU19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>0.83</v>
       </c>
-      <c r="CV19" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>84.83</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>0</v>
-      </c>
       <c r="DA19" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="DB19" t="n">
-        <v>0</v>
+        <v>19.83</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.17</v>
+        <v>12.17</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.83</v>
+        <v>6.33</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.17</v>
+        <v>4.93</v>
       </c>
       <c r="DF19" t="n">
-        <v>19.83</v>
+        <v>5.14</v>
       </c>
       <c r="DG19" t="n">
-        <v>12.17</v>
+        <v>3.52</v>
       </c>
       <c r="DH19" t="n">
-        <v>6.33</v>
+        <v>3.66</v>
       </c>
       <c r="DI19" t="n">
         <v>4.67</v>
@@ -8900,154 +8900,154 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="BB20" t="n">
-        <v>2.233636363636364</v>
+        <v>1.344545454545455</v>
       </c>
       <c r="BC20" t="n">
-        <v>3.748181818181819</v>
+        <v>2.129090909090909</v>
       </c>
       <c r="BD20" t="n">
-        <v>4.720909090909092</v>
+        <v>3.878181818181818</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.344545454545455</v>
+        <v>1.915454545454546</v>
       </c>
       <c r="BF20" t="n">
-        <v>2.129090909090909</v>
+        <v>1.831818181818182</v>
       </c>
       <c r="BG20" t="n">
-        <v>3.878181818181818</v>
+        <v>2.444545454545455</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.915454545454546</v>
+        <v>1.929090909090909</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.831818181818182</v>
+        <v>1.507272727272727</v>
       </c>
       <c r="BJ20" t="n">
-        <v>2.444545454545455</v>
+        <v>1.939090909090909</v>
       </c>
       <c r="BK20" t="n">
-        <v>1.929090909090909</v>
+        <v>1.42</v>
       </c>
       <c r="BL20" t="n">
-        <v>1.507272727272727</v>
+        <v>3.042727272727273</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.939090909090909</v>
+        <v>2.887272727272727</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.42</v>
+        <v>1.406363636363636</v>
       </c>
       <c r="BO20" t="n">
-        <v>3.042727272727273</v>
+        <v>1.421818181818182</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.887272727272727</v>
+        <v>2.206363636363637</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.406363636363636</v>
+        <v>2.868181818181818</v>
       </c>
       <c r="BR20" t="n">
-        <v>2.360909090909091</v>
+        <v>1.999090909090909</v>
       </c>
       <c r="BS20" t="n">
-        <v>3.999090909090909</v>
+        <v>1.902727272727273</v>
       </c>
       <c r="BT20" t="n">
-        <v>5.381818181818182</v>
+        <v>2.302727272727273</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.421818181818182</v>
+        <v>1.970454545454545</v>
       </c>
       <c r="BV20" t="n">
-        <v>2.206363636363637</v>
+        <v>1.626363636363636</v>
       </c>
       <c r="BW20" t="n">
-        <v>2.868181818181818</v>
+        <v>1.905</v>
       </c>
       <c r="BX20" t="n">
-        <v>1.999090909090909</v>
+        <v>1.499545454545454</v>
       </c>
       <c r="BY20" t="n">
-        <v>1.902727272727273</v>
+        <v>2.947090909090909</v>
       </c>
       <c r="BZ20" t="n">
-        <v>2.302727272727273</v>
+        <v>2.673181818181818</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.970454545454545</v>
+        <v>1.470363636363636</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.626363636363636</v>
+        <v>2.57</v>
       </c>
       <c r="CC20" t="n">
-        <v>1.905</v>
+        <v>2.82</v>
       </c>
       <c r="CD20" t="n">
-        <v>1.499545454545454</v>
+        <v>2.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>2.947090909090909</v>
+        <v>0.5</v>
       </c>
       <c r="CF20" t="n">
-        <v>2.673181818181818</v>
+        <v>3.17</v>
       </c>
       <c r="CG20" t="n">
-        <v>1.470363636363636</v>
+        <v>1.67</v>
       </c>
       <c r="CH20" t="n">
-        <v>2.5</v>
+        <v>0.17</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.5</v>
+        <v>2.17</v>
       </c>
       <c r="CJ20" t="n">
-        <v>3.17</v>
+        <v>4.33</v>
       </c>
       <c r="CK20" t="n">
-        <v>1.67</v>
+        <v>6.5</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.17</v>
+        <v>11.5</v>
       </c>
       <c r="CM20" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CP20" t="n">
         <v>2.17</v>
       </c>
-      <c r="CN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>11.5</v>
-      </c>
       <c r="CQ20" t="n">
-        <v>40.5</v>
+        <v>0.67</v>
       </c>
       <c r="CR20" t="n">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="CS20" t="n">
-        <v>1</v>
+        <v>29.5</v>
       </c>
       <c r="CT20" t="n">
-        <v>2.17</v>
+        <v>79.17</v>
       </c>
       <c r="CU20" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="CV20" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="CW20" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="CX20" t="n">
-        <v>79.17</v>
+        <v>0</v>
       </c>
       <c r="CY20" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="CZ20" t="n">
         <v>0</v>
@@ -9056,25 +9056,25 @@
         <v>0</v>
       </c>
       <c r="DB20" t="n">
-        <v>0</v>
+        <v>17.33</v>
       </c>
       <c r="DC20" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="DD20" t="n">
-        <v>0</v>
+        <v>9.17</v>
       </c>
       <c r="DE20" t="n">
-        <v>0</v>
+        <v>5.96</v>
       </c>
       <c r="DF20" t="n">
-        <v>17.33</v>
+        <v>7.05</v>
       </c>
       <c r="DG20" t="n">
-        <v>12</v>
+        <v>3.75</v>
       </c>
       <c r="DH20" t="n">
-        <v>9.17</v>
+        <v>4</v>
       </c>
       <c r="DI20" t="n">
         <v>4.73</v>
@@ -9317,181 +9317,181 @@
         <v>0.415</v>
       </c>
       <c r="BB21" t="n">
-        <v>2.16</v>
+        <v>1.235833333333333</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.808333333333334</v>
+        <v>1.8175</v>
       </c>
       <c r="BD21" t="n">
-        <v>4.365833333333334</v>
+        <v>2.899166666666666</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.235833333333333</v>
+        <v>1.716666666666667</v>
       </c>
       <c r="BF21" t="n">
+        <v>2.108333333333333</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2.336666666666666</v>
+      </c>
+      <c r="BH21" t="n">
         <v>1.8175</v>
       </c>
-      <c r="BG21" t="n">
-        <v>2.899166666666666</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>1.716666666666667</v>
-      </c>
       <c r="BI21" t="n">
-        <v>2.108333333333333</v>
+        <v>1.5325</v>
       </c>
       <c r="BJ21" t="n">
-        <v>2.336666666666666</v>
+        <v>1.996666666666667</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.8175</v>
+        <v>1.3375</v>
       </c>
       <c r="BL21" t="n">
-        <v>1.5325</v>
+        <v>2.588333333333333</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.996666666666667</v>
+        <v>3.086666666666667</v>
       </c>
       <c r="BN21" t="n">
-        <v>1.3375</v>
+        <v>1.479166666666667</v>
       </c>
       <c r="BO21" t="n">
-        <v>2.588333333333333</v>
+        <v>1.286</v>
       </c>
       <c r="BP21" t="n">
-        <v>3.086666666666667</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.479166666666667</v>
+        <v>2.981666666666667</v>
       </c>
       <c r="BR21" t="n">
-        <v>2.283333333333334</v>
+        <v>1.774166666666667</v>
       </c>
       <c r="BS21" t="n">
-        <v>3.895833333333333</v>
+        <v>2.175</v>
       </c>
       <c r="BT21" t="n">
-        <v>4.563333333333333</v>
+        <v>2.36</v>
       </c>
       <c r="BU21" t="n">
-        <v>1.286</v>
+        <v>1.904</v>
       </c>
       <c r="BV21" t="n">
-        <v>1.833333333333333</v>
+        <v>1.58875</v>
       </c>
       <c r="BW21" t="n">
-        <v>2.981666666666667</v>
+        <v>1.938</v>
       </c>
       <c r="BX21" t="n">
-        <v>1.774166666666667</v>
+        <v>1.374</v>
       </c>
       <c r="BY21" t="n">
-        <v>2.175</v>
+        <v>2.73</v>
       </c>
       <c r="BZ21" t="n">
-        <v>2.36</v>
+        <v>3.141</v>
       </c>
       <c r="CA21" t="n">
-        <v>1.904</v>
+        <v>1.485833333333333</v>
       </c>
       <c r="CB21" t="n">
-        <v>1.58875</v>
+        <v>1.68</v>
       </c>
       <c r="CC21" t="n">
-        <v>1.938</v>
+        <v>1.77</v>
       </c>
       <c r="CD21" t="n">
-        <v>1.374</v>
+        <v>1.17</v>
       </c>
       <c r="CE21" t="n">
-        <v>2.73</v>
+        <v>1.33</v>
       </c>
       <c r="CF21" t="n">
-        <v>3.141</v>
+        <v>3</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.485833333333333</v>
+        <v>2.83</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="CI21" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO21" t="n">
         <v>1.33</v>
       </c>
-      <c r="CJ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CL21" t="n">
+      <c r="CP21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="CV21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM21" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>2</v>
-      </c>
       <c r="CW21" t="n">
-        <v>34.5</v>
+        <v>0.17</v>
       </c>
       <c r="CX21" t="n">
-        <v>75.33</v>
+        <v>0</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="CZ21" t="n">
         <v>0.17</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="DB21" t="n">
-        <v>0</v>
+        <v>16.33</v>
       </c>
       <c r="DC21" t="n">
-        <v>0</v>
+        <v>11.67</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.17</v>
+        <v>7.67</v>
       </c>
       <c r="DE21" t="n">
-        <v>0</v>
+        <v>3.27</v>
       </c>
       <c r="DF21" t="n">
-        <v>16.33</v>
+        <v>3.55</v>
       </c>
       <c r="DG21" t="n">
-        <v>11.67</v>
+        <v>3.81</v>
       </c>
       <c r="DH21" t="n">
-        <v>7.67</v>
+        <v>3.9</v>
       </c>
       <c r="DI21" t="n">
         <v>4.75</v>

--- a/data/teams/leagues_total/all_leagues_combined.xlsx
+++ b/data/teams/leagues_total/all_leagues_combined.xlsx
@@ -486,65 +486,65 @@
     <col width="25.2" customWidth="1" min="51" max="51"/>
     <col width="25.2" customWidth="1" min="52" max="52"/>
     <col width="25.2" customWidth="1" min="53" max="53"/>
-    <col width="28.8" customWidth="1" min="54" max="54"/>
-    <col width="28.8" customWidth="1" min="55" max="55"/>
-    <col width="28.8" customWidth="1" min="56" max="56"/>
-    <col width="27.6" customWidth="1" min="57" max="57"/>
-    <col width="26.4" customWidth="1" min="58" max="58"/>
-    <col width="37.2" customWidth="1" min="59" max="59"/>
-    <col width="37.2" customWidth="1" min="60" max="60"/>
-    <col width="36" customWidth="1" min="61" max="61"/>
-    <col width="36" customWidth="1" min="62" max="62"/>
-    <col width="36" customWidth="1" min="63" max="63"/>
+    <col width="24" customWidth="1" min="54" max="54"/>
+    <col width="24" customWidth="1" min="55" max="55"/>
+    <col width="24" customWidth="1" min="56" max="56"/>
+    <col width="28.8" customWidth="1" min="57" max="57"/>
+    <col width="28.8" customWidth="1" min="58" max="58"/>
+    <col width="28.8" customWidth="1" min="59" max="59"/>
+    <col width="27.6" customWidth="1" min="60" max="60"/>
+    <col width="26.4" customWidth="1" min="61" max="61"/>
+    <col width="37.2" customWidth="1" min="62" max="62"/>
+    <col width="37.2" customWidth="1" min="63" max="63"/>
     <col width="36" customWidth="1" min="64" max="64"/>
-    <col width="37.2" customWidth="1" min="65" max="65"/>
-    <col width="37.2" customWidth="1" min="66" max="66"/>
-    <col width="28.8" customWidth="1" min="67" max="67"/>
-    <col width="28.8" customWidth="1" min="68" max="68"/>
-    <col width="28.8" customWidth="1" min="69" max="69"/>
-    <col width="27.6" customWidth="1" min="70" max="70"/>
-    <col width="26.4" customWidth="1" min="71" max="71"/>
-    <col width="37.2" customWidth="1" min="72" max="72"/>
-    <col width="37.2" customWidth="1" min="73" max="73"/>
-    <col width="36" customWidth="1" min="74" max="74"/>
-    <col width="36" customWidth="1" min="75" max="75"/>
-    <col width="36" customWidth="1" min="76" max="76"/>
-    <col width="36" customWidth="1" min="77" max="77"/>
+    <col width="36" customWidth="1" min="65" max="65"/>
+    <col width="36" customWidth="1" min="66" max="66"/>
+    <col width="36" customWidth="1" min="67" max="67"/>
+    <col width="37.2" customWidth="1" min="68" max="68"/>
+    <col width="37.2" customWidth="1" min="69" max="69"/>
+    <col width="24" customWidth="1" min="70" max="70"/>
+    <col width="24" customWidth="1" min="71" max="71"/>
+    <col width="24" customWidth="1" min="72" max="72"/>
+    <col width="28.8" customWidth="1" min="73" max="73"/>
+    <col width="28.8" customWidth="1" min="74" max="74"/>
+    <col width="28.8" customWidth="1" min="75" max="75"/>
+    <col width="27.6" customWidth="1" min="76" max="76"/>
+    <col width="26.4" customWidth="1" min="77" max="77"/>
     <col width="37.2" customWidth="1" min="78" max="78"/>
     <col width="37.2" customWidth="1" min="79" max="79"/>
-    <col width="22.8" customWidth="1" min="80" max="80"/>
-    <col width="22.8" customWidth="1" min="81" max="81"/>
-    <col width="30" customWidth="1" min="82" max="82"/>
-    <col width="27.6" customWidth="1" min="83" max="83"/>
-    <col width="21.6" customWidth="1" min="84" max="84"/>
-    <col width="27.6" customWidth="1" min="85" max="85"/>
-    <col width="24" customWidth="1" min="86" max="86"/>
-    <col width="28.8" customWidth="1" min="87" max="87"/>
-    <col width="30" customWidth="1" min="88" max="88"/>
-    <col width="19.2" customWidth="1" min="89" max="89"/>
-    <col width="19.2" customWidth="1" min="90" max="90"/>
-    <col width="25.2" customWidth="1" min="91" max="91"/>
-    <col width="24" customWidth="1" min="92" max="92"/>
-    <col width="25.2" customWidth="1" min="93" max="93"/>
-    <col width="25.2" customWidth="1" min="94" max="94"/>
-    <col width="22.8" customWidth="1" min="95" max="95"/>
-    <col width="22.8" customWidth="1" min="96" max="96"/>
-    <col width="33.6" customWidth="1" min="97" max="97"/>
-    <col width="21.6" customWidth="1" min="98" max="98"/>
-    <col width="15.6" customWidth="1" min="99" max="99"/>
-    <col width="28.8" customWidth="1" min="100" max="100"/>
-    <col width="28.8" customWidth="1" min="101" max="101"/>
-    <col width="30" customWidth="1" min="102" max="102"/>
-    <col width="30" customWidth="1" min="103" max="103"/>
-    <col width="32.4" customWidth="1" min="104" max="104"/>
-    <col width="30" customWidth="1" min="105" max="105"/>
-    <col width="22.8" customWidth="1" min="106" max="106"/>
-    <col width="24" customWidth="1" min="107" max="107"/>
-    <col width="24" customWidth="1" min="108" max="108"/>
-    <col width="22.8" customWidth="1" min="109" max="109"/>
+    <col width="36" customWidth="1" min="80" max="80"/>
+    <col width="36" customWidth="1" min="81" max="81"/>
+    <col width="36" customWidth="1" min="82" max="82"/>
+    <col width="36" customWidth="1" min="83" max="83"/>
+    <col width="37.2" customWidth="1" min="84" max="84"/>
+    <col width="37.2" customWidth="1" min="85" max="85"/>
+    <col width="30" customWidth="1" min="86" max="86"/>
+    <col width="27.6" customWidth="1" min="87" max="87"/>
+    <col width="21.6" customWidth="1" min="88" max="88"/>
+    <col width="27.6" customWidth="1" min="89" max="89"/>
+    <col width="24" customWidth="1" min="90" max="90"/>
+    <col width="28.8" customWidth="1" min="91" max="91"/>
+    <col width="30" customWidth="1" min="92" max="92"/>
+    <col width="19.2" customWidth="1" min="93" max="93"/>
+    <col width="19.2" customWidth="1" min="94" max="94"/>
+    <col width="25.2" customWidth="1" min="95" max="95"/>
+    <col width="24" customWidth="1" min="96" max="96"/>
+    <col width="25.2" customWidth="1" min="97" max="97"/>
+    <col width="25.2" customWidth="1" min="98" max="98"/>
+    <col width="22.8" customWidth="1" min="99" max="99"/>
+    <col width="22.8" customWidth="1" min="100" max="100"/>
+    <col width="33.6" customWidth="1" min="101" max="101"/>
+    <col width="21.6" customWidth="1" min="102" max="102"/>
+    <col width="15.6" customWidth="1" min="103" max="103"/>
+    <col width="28.8" customWidth="1" min="104" max="104"/>
+    <col width="28.8" customWidth="1" min="105" max="105"/>
+    <col width="30" customWidth="1" min="106" max="106"/>
+    <col width="30" customWidth="1" min="107" max="107"/>
+    <col width="32.4" customWidth="1" min="108" max="108"/>
+    <col width="30" customWidth="1" min="109" max="109"/>
     <col width="22.8" customWidth="1" min="110" max="110"/>
-    <col width="22.8" customWidth="1" min="111" max="111"/>
-    <col width="22.8" customWidth="1" min="112" max="112"/>
+    <col width="24" customWidth="1" min="111" max="111"/>
+    <col width="24" customWidth="1" min="112" max="112"/>
     <col width="22.8" customWidth="1" min="113" max="113"/>
     <col width="28.8" customWidth="1" min="114" max="114"/>
     <col width="25.2" customWidth="1" min="115" max="115"/>
@@ -840,297 +840,297 @@
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
+          <t>avg_avg_odds_ft_1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_ft_x</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>avg_avg_odds_ft_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>avg_avg_odds_ft_over15</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_ft_over25</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_ft_over35</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_btts_yes</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_btts_no</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_corners_under_85</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_corners_under_95</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_corners_over_85</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_corners_over_95</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_1st_half_over05</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_1st_half_over15</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_1st_half_under05</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>avg_avg_odds_1st_half_under15</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_x</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>avg_pinnacle_ft_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_ft_over15</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_ft_over25</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_ft_over35</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_btts_yes</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_btts_no</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_corners_under_85</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_corners_under_95</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_corners_over_85</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_corners_over_95</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_1st_half_over05</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_1st_half_over15</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_1st_half_under05</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>avg_pinnacle_1st_half_under15</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_1</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_1</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_conceded</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_scored</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>away_avg_yellow_cards</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>away_avg_red_cards</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOnTarget</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOffTarget</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shots</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fouls</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_possession</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_num</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_corners</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_corners</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_cards</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_cards</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>away_avg_dangerous_attacks</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>away_avg_attacks</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>away_avg_xg</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalties_won</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_goals</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_missed</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>away_avg_0_10_min_goals</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners_0_10_min</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_0_10_min</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>away_avg_throwins</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>away_avg_freekicks</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goalkicks</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_2</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_2</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>avg_avg_odds_ft_x</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>avg_pinnacle_ft_x</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
@@ -1424,179 +1424,179 @@
         <v>0.4175</v>
       </c>
       <c r="BB2" t="n">
+        <v>2.121666666666667</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>3.570833333333333</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>4.936666666666667</v>
+      </c>
+      <c r="BE2" t="n">
         <v>1.393333333333333</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BF2" t="n">
         <v>2.265</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BG2" t="n">
         <v>4.119166666666668</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BH2" t="n">
         <v>2.105</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BI2" t="n">
         <v>1.735</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BJ2" t="n">
         <v>2.265</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BK2" t="n">
         <v>1.781666666666667</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BL2" t="n">
         <v>1.564166666666667</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BM2" t="n">
         <v>2.070833333333333</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BN2" t="n">
         <v>1.446666666666667</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BO2" t="n">
         <v>3.119166666666667</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BP2" t="n">
         <v>2.631666666666667</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BQ2" t="n">
         <v>1.330833333333334</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BR2" t="n">
+        <v>2.284166666666667</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>3.556666666666667</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>5.048333333333334</v>
+      </c>
+      <c r="BU2" t="n">
         <v>1.42625</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BV2" t="n">
         <v>2.345416666666667</v>
       </c>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="n">
+      <c r="BW2" t="inlineStr"/>
+      <c r="BX2" t="n">
         <v>2.1775</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BY2" t="n">
         <v>1.765833333333333</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BZ2" t="n">
         <v>2.266666666666666</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CA2" t="n">
         <v>1.775416666666667</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CB2" t="n">
         <v>1.643541666666667</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CC2" t="n">
         <v>2.0725</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CD2" t="n">
         <v>1.48625</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CE2" t="n">
         <v>3.269166666666667</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CF2" t="n">
         <v>2.689166666666666</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CG2" t="n">
         <v>1.348611111111111</v>
       </c>
-      <c r="CB2" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="CD2" t="n">
+      <c r="CH2" t="n">
         <v>1.4</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CI2" t="n">
         <v>0.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CJ2" t="n">
         <v>5</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CK2" t="n">
         <v>2.2</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CL2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CM2" t="n">
         <v>4</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CN2" t="n">
         <v>7.4</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CO2" t="n">
         <v>11.4</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CP2" t="n">
         <v>10.8</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CQ2" t="n">
         <v>48.8</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CR2" t="n">
         <v>3</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CS2" t="n">
         <v>2</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CT2" t="n">
         <v>3</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CU2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CV2" t="n">
         <v>2.2</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CW2" t="n">
         <v>46.6</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CX2" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CY2" t="n">
         <v>1.34</v>
       </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
         <v>0.2</v>
       </c>
-      <c r="DA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB2" t="n">
+      <c r="DE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF2" t="n">
         <v>21</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DG2" t="n">
         <v>13.8</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DH2" t="n">
         <v>6.8</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>3.55</v>
       </c>
       <c r="DI2" t="n">
         <v>5.58</v>
@@ -1839,181 +1839,181 @@
         <v>0.6658333333333334</v>
       </c>
       <c r="BB3" t="n">
+        <v>3.041666666666667</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>4.408333333333333</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>5.408333333333334</v>
+      </c>
+      <c r="BE3" t="n">
         <v>1.26</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BF3" t="n">
         <v>1.874166666666667</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BG3" t="n">
         <v>3.105833333333333</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BH3" t="n">
         <v>1.916666666666667</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BI3" t="n">
         <v>1.895833333333333</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BJ3" t="n">
         <v>2.341666666666667</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BK3" t="n">
         <v>1.829166666666666</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BL3" t="n">
         <v>1.5525</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BM3" t="n">
         <v>1.978333333333333</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BN3" t="n">
         <v>1.358333333333333</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BO3" t="n">
         <v>2.676666666666667</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BP3" t="n">
         <v>3.098333333333333</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BQ3" t="n">
         <v>1.464166666666667</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BR3" t="n">
+        <v>3.056666666666667</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>4.498333333333332</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>5.614999999999999</v>
+      </c>
+      <c r="BU3" t="n">
         <v>1.308333333333333</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BV3" t="n">
         <v>1.908333333333333</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BW3" t="n">
         <v>3.094166666666667</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BX3" t="n">
         <v>2.0025</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BY3" t="n">
         <v>1.914166666666667</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BZ3" t="n">
         <v>2.34125</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CA3" t="n">
         <v>1.852708333333333</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CB3" t="n">
         <v>1.603333333333333</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CC3" t="n">
         <v>1.993125</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CD3" t="n">
         <v>1.380625</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CE3" t="n">
         <v>2.755208333333333</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CF3" t="n">
         <v>3.120625</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CG3" t="n">
         <v>1.474791666666667</v>
       </c>
-      <c r="CB3" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="CD3" t="n">
+      <c r="CH3" t="n">
         <v>1</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CI3" t="n">
         <v>1.2</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CJ3" t="n">
         <v>4.6</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CK3" t="n">
         <v>1.8</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CL3" t="n">
         <v>0.4</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CM3" t="n">
         <v>4.4</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CN3" t="n">
         <v>7</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CO3" t="n">
         <v>11.4</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CP3" t="n">
         <v>12.4</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CQ3" t="n">
         <v>52.2</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CR3" t="n">
         <v>2.4</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CS3" t="n">
         <v>2</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CT3" t="n">
         <v>2.6</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CU3" t="n">
         <v>1</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CV3" t="n">
         <v>1.2</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CW3" t="n">
         <v>48.4</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CX3" t="n">
         <v>101.6</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="CY3" t="n">
         <v>1.38</v>
       </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
         <v>0.6</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DD3" t="n">
         <v>0.6</v>
       </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
         <v>16</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DG3" t="n">
         <v>10.2</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DH3" t="n">
         <v>9.4</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>4.41</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>4.5</v>
       </c>
       <c r="DI3" t="n">
         <v>7.5</v>
@@ -2256,179 +2256,179 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BB4" t="n">
+        <v>2.060833333333333</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>3.645</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>4.860833333333333</v>
+      </c>
+      <c r="BE4" t="n">
         <v>1.391666666666667</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BF4" t="n">
         <v>2.195833333333333</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BG4" t="n">
         <v>3.9575</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BH4" t="n">
         <v>1.999166666666667</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BI4" t="n">
         <v>1.784166666666667</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BJ4" t="n">
         <v>2.2575</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BK4" t="n">
         <v>1.785</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BL4" t="n">
         <v>1.589166666666667</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BM4" t="n">
         <v>1.991666666666667</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BN4" t="n">
         <v>1.454166666666667</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BO4" t="n">
         <v>3.063333333333333</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BP4" t="n">
         <v>2.7575</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BQ4" t="n">
         <v>1.355</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BR4" t="n">
+        <v>2.1575</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>3.743333333333334</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>5.0925</v>
+      </c>
+      <c r="BU4" t="n">
         <v>1.432222222222222</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BV4" t="n">
         <v>2.313333333333333</v>
       </c>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="n">
+      <c r="BW4" t="inlineStr"/>
+      <c r="BX4" t="n">
         <v>2.083333333333333</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BY4" t="n">
         <v>1.825833333333333</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BZ4" t="n">
         <v>2.26625</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CA4" t="n">
         <v>1.8275</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CB4" t="n">
         <v>1.666805555555555</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CC4" t="n">
         <v>2.0525</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CD4" t="n">
         <v>1.487</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CE4" t="n">
         <v>3.045</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CF4" t="n">
         <v>2.723</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CG4" t="n">
         <v>1.418166666666667</v>
       </c>
-      <c r="CB4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="CD4" t="n">
+      <c r="CH4" t="n">
         <v>1.14</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CI4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CJ4" t="n">
         <v>2.57</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CK4" t="n">
         <v>1.86</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CL4" t="n">
         <v>0.29</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CM4" t="n">
         <v>2.43</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CN4" t="n">
         <v>6</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CO4" t="n">
         <v>8.43</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CP4" t="n">
         <v>12.14</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CQ4" t="n">
         <v>44</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CR4" t="n">
         <v>2.29</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CS4" t="n">
         <v>1.43</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CT4" t="n">
         <v>1.14</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CU4" t="n">
         <v>0.71</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CV4" t="n">
         <v>1.43</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CW4" t="n">
         <v>35.57</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CX4" t="n">
         <v>80.56999999999999</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="CY4" t="n">
         <v>0.97</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>0</v>
       </c>
       <c r="CZ4" t="n">
         <v>0.14</v>
       </c>
       <c r="DA4" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="DB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" t="n">
         <v>16.71</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DG4" t="n">
         <v>12.29</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DH4" t="n">
         <v>10</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>6.02</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>3.74</v>
       </c>
       <c r="DI4" t="n">
         <v>2.67</v>
@@ -2671,181 +2671,181 @@
         <v>0.9072727272727273</v>
       </c>
       <c r="BB5" t="n">
+        <v>2.659090909090909</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>3.413636363636364</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>3.246363636363637</v>
+      </c>
+      <c r="BE5" t="n">
         <v>1.316363636363636</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BF5" t="n">
         <v>2.04</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BG5" t="n">
         <v>3.47090909090909</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BH5" t="n">
         <v>1.830909090909091</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BI5" t="n">
         <v>1.983636363636364</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BJ5" t="n">
         <v>2.139090909090909</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BK5" t="n">
         <v>1.734545454545454</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BL5" t="n">
         <v>1.641818181818182</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BM5" t="n">
         <v>2.180909090909091</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BN5" t="n">
         <v>1.419090909090909</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BO5" t="n">
         <v>2.947272727272727</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BP5" t="n">
         <v>2.810909090909091</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BQ5" t="n">
         <v>1.390909090909091</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BR5" t="n">
+        <v>2.718181818181818</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>3.376363636363636</v>
+      </c>
+      <c r="BU5" t="n">
         <v>1.331818181818182</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BV5" t="n">
         <v>2.045454545454545</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BW5" t="n">
         <v>3.223030303030303</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BX5" t="n">
         <v>1.832727272727273</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BY5" t="n">
         <v>2.090909090909091</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BZ5" t="n">
         <v>2.225681818181819</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CA5" t="n">
         <v>1.750227272727273</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CB5" t="n">
         <v>1.686590909090909</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CC5" t="n">
         <v>2.129772727272727</v>
-      </c>
-      <c r="BX5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="BY5" t="n">
-        <v>2.974545454545455</v>
-      </c>
-      <c r="BZ5" t="n">
-        <v>3.005454545454546</v>
-      </c>
-      <c r="CA5" t="n">
-        <v>1.409090909090909</v>
-      </c>
-      <c r="CB5" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="CC5" t="n">
-        <v>2.64</v>
       </c>
       <c r="CD5" t="n">
         <v>1.4</v>
       </c>
       <c r="CE5" t="n">
+        <v>2.974545454545455</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>3.005454545454546</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>1.409090909090909</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CI5" t="n">
         <v>1.6</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CJ5" t="n">
         <v>3.8</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CK5" t="n">
         <v>2.8</v>
       </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
         <v>4</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CN5" t="n">
         <v>7.2</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CO5" t="n">
         <v>11.2</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CP5" t="n">
         <v>13.4</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CQ5" t="n">
         <v>46.4</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CR5" t="n">
         <v>2.8</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CS5" t="n">
         <v>1.4</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CT5" t="n">
         <v>1.6</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CU5" t="n">
         <v>0.8</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CV5" t="n">
         <v>2</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CW5" t="n">
         <v>37.8</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CX5" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CY5" t="n">
         <v>1.27</v>
       </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
         <v>-0.2</v>
       </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
+      <c r="DE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" t="n">
         <v>19.2</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DG5" t="n">
         <v>10.4</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DH5" t="n">
         <v>9.4</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>3.49</v>
       </c>
       <c r="DI5" t="n">
         <v>5.09</v>
@@ -3088,179 +3088,179 @@
         <v>0.4983333333333333</v>
       </c>
       <c r="BB6" t="n">
+        <v>2.4425</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>3.1225</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="BE6" t="n">
         <v>1.506666666666667</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BF6" t="n">
         <v>2.548333333333333</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BG6" t="n">
         <v>5.168333333333333</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BH6" t="n">
         <v>2.15</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BI6" t="n">
         <v>1.67</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BJ6" t="n">
         <v>2.245833333333333</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BK6" t="n">
         <v>1.770833333333333</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BL6" t="n">
         <v>1.593333333333333</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BM6" t="n">
         <v>2.2</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BN6" t="n">
         <v>1.565</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BO6" t="n">
         <v>3.4675</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BP6" t="n">
         <v>2.4025</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BQ6" t="n">
         <v>1.275833333333333</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BR6" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>3.216666666666667</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>3.974166666666667</v>
+      </c>
+      <c r="BU6" t="n">
         <v>1.521666666666667</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BV6" t="n">
         <v>2.633333333333333</v>
       </c>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="n">
+      <c r="BW6" t="inlineStr"/>
+      <c r="BX6" t="n">
         <v>2.235</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BY6" t="n">
         <v>1.726666666666667</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BZ6" t="n">
         <v>2.254166666666667</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CA6" t="n">
         <v>1.7775</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CB6" t="n">
         <v>1.665833333333333</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CC6" t="n">
         <v>2.091666666666666</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CD6" t="n">
         <v>1.52</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CE6" t="n">
         <v>3.313333333333333</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CF6" t="n">
         <v>2.61</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CG6" t="n">
         <v>1.341666666666667</v>
       </c>
-      <c r="CB6" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="CC6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="CD6" t="n">
+      <c r="CH6" t="n">
         <v>0.83</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CI6" t="n">
         <v>0.33</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CJ6" t="n">
         <v>4.83</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CK6" t="n">
         <v>3</v>
       </c>
-      <c r="CH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI6" t="n">
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
         <v>3.5</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CN6" t="n">
         <v>7</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CO6" t="n">
         <v>10.5</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CP6" t="n">
         <v>17</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CQ6" t="n">
         <v>50.33</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CR6" t="n">
         <v>3</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CS6" t="n">
         <v>2.67</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CT6" t="n">
         <v>2.17</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CU6" t="n">
         <v>1</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CV6" t="n">
         <v>2</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CW6" t="n">
         <v>41.83</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CX6" t="n">
         <v>98.67</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CY6" t="n">
         <v>1.22</v>
       </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
         <v>0.33</v>
       </c>
-      <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
+      <c r="DE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF6" t="n">
         <v>19.83</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DG6" t="n">
         <v>12.83</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DH6" t="n">
         <v>8.83</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="DG6" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>3.21</v>
       </c>
       <c r="DI6" t="n">
         <v>5.5</v>
@@ -3503,181 +3503,181 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BB7" t="n">
+        <v>2.233333333333333</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>3.6825</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>4.774999999999999</v>
+      </c>
+      <c r="BE7" t="n">
         <v>1.383333333333334</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BF7" t="n">
         <v>2.173333333333333</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BG7" t="n">
         <v>3.903333333333334</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BH7" t="n">
         <v>1.9725</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BI7" t="n">
         <v>1.796666666666667</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BJ7" t="n">
         <v>2.191666666666667</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BK7" t="n">
         <v>1.734166666666667</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BL7" t="n">
         <v>1.630833333333333</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BM7" t="n">
         <v>2.064166666666666</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BN7" t="n">
         <v>1.446666666666667</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BO7" t="n">
         <v>3.0425</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BP7" t="n">
         <v>2.734166666666667</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BQ7" t="n">
         <v>1.38</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BR7" t="n">
+        <v>2.384166666666667</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>3.888333333333333</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>5.119166666666666</v>
+      </c>
+      <c r="BU7" t="n">
         <v>1.409</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BV7" t="n">
         <v>2.208333333333333</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BW7" t="n">
         <v>2.82</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BX7" t="n">
         <v>2.054</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BY7" t="n">
         <v>1.841</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BZ7" t="n">
         <v>2.168333333333333</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CA7" t="n">
         <v>1.7775</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CB7" t="n">
         <v>1.693333333333333</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CC7" t="n">
         <v>2.08625</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CD7" t="n">
         <v>1.482</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CE7" t="n">
         <v>3.12</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CF7" t="n">
         <v>2.723</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CG7" t="n">
         <v>1.417</v>
       </c>
-      <c r="CB7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="CD7" t="n">
+      <c r="CH7" t="n">
         <v>1.83</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CI7" t="n">
         <v>1</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CJ7" t="n">
         <v>2.67</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CK7" t="n">
         <v>2</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CL7" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CM7" t="n">
         <v>3</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CN7" t="n">
         <v>5.5</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CO7" t="n">
         <v>8.5</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CP7" t="n">
         <v>13.17</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CQ7" t="n">
         <v>53.5</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CR7" t="n">
         <v>2.33</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CS7" t="n">
         <v>1.17</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CT7" t="n">
         <v>1.5</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CU7" t="n">
         <v>1.17</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CV7" t="n">
         <v>1</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CW7" t="n">
         <v>34.5</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CX7" t="n">
         <v>88.83</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CY7" t="n">
         <v>1.01</v>
       </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
         <v>0.33</v>
       </c>
-      <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
+      <c r="DE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF7" t="n">
         <v>16.67</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DG7" t="n">
         <v>15.83</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DH7" t="n">
         <v>7.17</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>3.89</v>
       </c>
       <c r="DI7" t="n">
         <v>3.17</v>
@@ -3920,171 +3920,171 @@
         <v>0.7272727272727273</v>
       </c>
       <c r="BB8" t="n">
+        <v>4.480909090909091</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>5.800000000000001</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="BE8" t="n">
         <v>1.102727272727273</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BF8" t="n">
         <v>1.394545454545455</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BG8" t="n">
         <v>2.057272727272727</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BH8" t="n">
         <v>1.712727272727273</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BI8" t="n">
         <v>2.17090909090909</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BJ8" t="n">
         <v>2.780909090909091</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BK8" t="n">
         <v>2.102727272727273</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BL8" t="n">
         <v>1.41</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BM8" t="n">
         <v>1.674545454545455</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BN8" t="n">
         <v>1.211818181818182</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BO8" t="n">
         <v>2.033636363636363</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BP8" t="n">
         <v>4.147272727272727</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BQ8" t="n">
         <v>1.818181818181818</v>
       </c>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="n">
+      <c r="BR8" t="n">
+        <v>4.909090909090909</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>6.169090909090909</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>6.041818181818183</v>
+      </c>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="n">
         <v>1.418181818181818</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BW8" t="n">
         <v>2.029090909090909</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BX8" t="n">
         <v>1.730909090909091</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BY8" t="n">
         <v>2.280909090909091</v>
-      </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="n">
-        <v>1.686363636363636</v>
-      </c>
-      <c r="BX8" t="inlineStr"/>
-      <c r="BY8" t="n">
-        <v>2.036818181818182</v>
       </c>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="n">
+        <v>1.686363636363636</v>
+      </c>
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="n">
+        <v>2.036818181818182</v>
+      </c>
+      <c r="CF8" t="inlineStr"/>
+      <c r="CG8" t="n">
         <v>1.811818181818182</v>
       </c>
-      <c r="CB8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="CC8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="CD8" t="n">
+      <c r="CH8" t="n">
         <v>1.67</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CI8" t="n">
         <v>2</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CJ8" t="n">
         <v>6.67</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CK8" t="n">
         <v>2</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CL8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CM8" t="n">
         <v>7.5</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CN8" t="n">
         <v>11.83</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CO8" t="n">
         <v>19.33</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CP8" t="n">
         <v>9.5</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CQ8" t="n">
         <v>69.67</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CR8" t="n">
         <v>2.17</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CS8" t="n">
         <v>2.83</v>
       </c>
-      <c r="CP8" t="n">
+      <c r="CT8" t="n">
         <v>3.83</v>
       </c>
-      <c r="CQ8" t="n">
+      <c r="CU8" t="n">
         <v>1</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="CV8" t="n">
         <v>1.17</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CW8" t="n">
         <v>62.17</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CX8" t="n">
         <v>115.33</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CY8" t="n">
         <v>2.19</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="CZ8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="DA8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY8" t="n">
+      <c r="DB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DD8" t="n">
         <v>0.83</v>
       </c>
-      <c r="DA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB8" t="n">
+      <c r="DE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF8" t="n">
         <v>18.33</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DG8" t="n">
         <v>12.67</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DH8" t="n">
         <v>4.5</v>
-      </c>
-      <c r="DE8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="DH8" t="n">
-        <v>6.17</v>
       </c>
       <c r="DI8" t="n">
         <v>7</v>
@@ -4327,177 +4327,177 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="BB9" t="n">
+        <v>2.427272727272727</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>4.708181818181818</v>
+      </c>
+      <c r="BE9" t="n">
         <v>1.522727272727273</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BF9" t="n">
         <v>2.634545454545455</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BG9" t="n">
         <v>5.125454545454546</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BH9" t="n">
         <v>2.314545454545454</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BI9" t="n">
         <v>1.602727272727273</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BJ9" t="n">
         <v>1.925454545454546</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BK9" t="n">
         <v>1.553636363636364</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BL9" t="n">
         <v>1.827272727272727</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BM9" t="n">
         <v>2.567272727272727</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BN9" t="n">
         <v>1.566363636363636</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BO9" t="n">
         <v>3.536363636363637</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BP9" t="n">
         <v>2.440909090909091</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BQ9" t="n">
         <v>1.29</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BR9" t="n">
+        <v>2.481818181818182</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>3.579090909090909</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>5.154545454545455</v>
+      </c>
+      <c r="BU9" t="n">
         <v>1.643454545454546</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BV9" t="n">
         <v>2.832727272727273</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BW9" t="n">
         <v>2.75</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BX9" t="n">
         <v>2.445454545454545</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BY9" t="n">
         <v>1.617272727272727</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="BZ9" t="n">
         <v>1.872545454545455</v>
       </c>
-      <c r="BU9" t="n">
+      <c r="CA9" t="n">
         <v>1.577272727272727</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="CB9" t="n">
         <v>1.970727272727273</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CC9" t="n">
         <v>2.421818181818182</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CD9" t="n">
         <v>1.606818181818182</v>
       </c>
-      <c r="BY9" t="inlineStr"/>
-      <c r="BZ9" t="n">
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="n">
         <v>2.404090909090909</v>
       </c>
-      <c r="CA9" t="inlineStr"/>
-      <c r="CB9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="CD9" t="n">
+      <c r="CG9" t="inlineStr"/>
+      <c r="CH9" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CI9" t="n">
         <v>1</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CJ9" t="n">
         <v>4.17</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CK9" t="n">
         <v>2.5</v>
       </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
         <v>2.83</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CN9" t="n">
         <v>5</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CO9" t="n">
         <v>7.83</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CP9" t="n">
         <v>15.33</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CQ9" t="n">
         <v>36</v>
       </c>
-      <c r="CN9" t="n">
+      <c r="CR9" t="n">
         <v>2.5</v>
       </c>
-      <c r="CO9" t="n">
+      <c r="CS9" t="n">
         <v>1.67</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="CT9" t="n">
         <v>2.5</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CU9" t="n">
         <v>0.83</v>
       </c>
-      <c r="CR9" t="n">
+      <c r="CV9" t="n">
         <v>1.67</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CW9" t="n">
         <v>37.67</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CX9" t="n">
         <v>89.83</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="CY9" t="n">
         <v>0.97</v>
       </c>
-      <c r="CV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD9" t="n">
         <v>0.33</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DE9" t="n">
         <v>0.17</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DF9" t="n">
         <v>23.83</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DG9" t="n">
         <v>13</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DH9" t="n">
         <v>7.67</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>3.58</v>
       </c>
       <c r="DI9" t="n">
         <v>4.18</v>
@@ -4740,181 +4740,181 @@
         <v>0.5841666666666666</v>
       </c>
       <c r="BB10" t="n">
+        <v>1.9425</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>3.809166666666667</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>4.938333333333333</v>
+      </c>
+      <c r="BE10" t="n">
         <v>1.294166666666667</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BF10" t="n">
         <v>1.973333333333333</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BG10" t="n">
         <v>3.464166666666667</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BH10" t="n">
         <v>1.811666666666667</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BI10" t="n">
         <v>1.94</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BJ10" t="n">
         <v>2.299166666666666</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BK10" t="n">
         <v>1.803333333333333</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BL10" t="n">
         <v>1.568333333333333</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BM10" t="n">
         <v>2.010833333333334</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BN10" t="n">
         <v>1.385</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BO10" t="n">
         <v>2.805</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BP10" t="n">
         <v>2.976666666666667</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BQ10" t="n">
         <v>1.440833333333333</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BR10" t="n">
+        <v>2.009166666666667</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3.8875</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>5.115833333333334</v>
+      </c>
+      <c r="BU10" t="n">
         <v>1.322916666666667</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BV10" t="n">
         <v>1.9275</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BW10" t="n">
         <v>3.076111111111111</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BX10" t="n">
         <v>1.870833333333334</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BY10" t="n">
         <v>2.024166666666666</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="BZ10" t="n">
         <v>2.260277777777778</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CA10" t="n">
         <v>1.855833333333334</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CB10" t="n">
         <v>1.659166666666667</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CC10" t="n">
         <v>2.013333333333333</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CD10" t="n">
         <v>1.434166666666667</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CE10" t="n">
         <v>2.945833333333333</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CF10" t="n">
         <v>2.911666666666667</v>
       </c>
-      <c r="CA10" t="n">
+      <c r="CG10" t="n">
         <v>1.423333333333333</v>
       </c>
-      <c r="CB10" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="CD10" t="n">
+      <c r="CH10" t="n">
         <v>2.2</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CI10" t="n">
         <v>0.8</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CJ10" t="n">
         <v>2.6</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CK10" t="n">
         <v>2</v>
       </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
         <v>4.2</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CN10" t="n">
         <v>4.4</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CO10" t="n">
         <v>8.6</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CP10" t="n">
         <v>11</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CQ10" t="n">
         <v>42.4</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CR10" t="n">
         <v>2</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CS10" t="n">
         <v>1.4</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="CT10" t="n">
         <v>1.2</v>
       </c>
-      <c r="CQ10" t="n">
+      <c r="CU10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CR10" t="n">
+      <c r="CV10" t="n">
         <v>1.8</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CW10" t="n">
         <v>28.2</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="CX10" t="n">
         <v>70.8</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="CY10" t="n">
         <v>1.05</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="CZ10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="DA10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="n">
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
         <v>14.4</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DG10" t="n">
         <v>12</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DH10" t="n">
         <v>13.4</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>3.88</v>
       </c>
       <c r="DI10" t="n">
         <v>4.66</v>
@@ -5157,181 +5157,181 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="BB11" t="n">
+        <v>3.3675</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>4.055833333333333</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3.615833333333333</v>
+      </c>
+      <c r="BE11" t="n">
         <v>1.2725</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BF11" t="n">
         <v>1.936666666666667</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BG11" t="n">
         <v>3.370833333333334</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BH11" t="n">
         <v>1.835833333333333</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BI11" t="n">
         <v>1.96</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BJ11" t="n">
         <v>2.48</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BK11" t="n">
         <v>1.910833333333333</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BL11" t="n">
         <v>1.495833333333333</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BM11" t="n">
         <v>1.930833333333333</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BN11" t="n">
         <v>1.364166666666667</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BO11" t="n">
         <v>2.685833333333333</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BP11" t="n">
         <v>3.0575</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BQ11" t="n">
         <v>1.473333333333333</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BR11" t="n">
+        <v>3.574166666666667</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>4.2475</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>3.783333333333334</v>
+      </c>
+      <c r="BU11" t="n">
         <v>1.340166666666667</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BV11" t="n">
         <v>1.894166666666667</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BW11" t="n">
         <v>2.941333333333333</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BX11" t="n">
         <v>1.85</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BY11" t="n">
         <v>2.0625</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="BZ11" t="n">
         <v>2.375138888888889</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="CA11" t="n">
         <v>1.9025</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="CB11" t="n">
         <v>1.591666666666667</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="CC11" t="n">
         <v>1.962083333333333</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="CD11" t="n">
         <v>1.413666666666667</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="CE11" t="n">
         <v>2.662</v>
       </c>
-      <c r="BZ11" t="n">
+      <c r="CF11" t="n">
         <v>3.007166666666667</v>
       </c>
-      <c r="CA11" t="n">
+      <c r="CG11" t="n">
         <v>1.552333333333333</v>
       </c>
-      <c r="CB11" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="CD11" t="n">
+      <c r="CH11" t="n">
         <v>1.29</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CI11" t="n">
         <v>1.43</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CJ11" t="n">
         <v>2.86</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CK11" t="n">
         <v>1.86</v>
       </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
         <v>3.86</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CN11" t="n">
         <v>7</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CO11" t="n">
         <v>10.86</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CP11" t="n">
         <v>13.14</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CQ11" t="n">
         <v>41.14</v>
       </c>
-      <c r="CN11" t="n">
+      <c r="CR11" t="n">
         <v>1.86</v>
       </c>
-      <c r="CO11" t="n">
+      <c r="CS11" t="n">
         <v>1.14</v>
       </c>
-      <c r="CP11" t="n">
+      <c r="CT11" t="n">
         <v>1.71</v>
       </c>
-      <c r="CQ11" t="n">
+      <c r="CU11" t="n">
         <v>0.86</v>
       </c>
-      <c r="CR11" t="n">
+      <c r="CV11" t="n">
         <v>1</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="CW11" t="n">
         <v>39</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="CX11" t="n">
         <v>85.56999999999999</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="CY11" t="n">
         <v>1.24</v>
       </c>
-      <c r="CV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
         <v>0.29</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DE11" t="n">
         <v>0.14</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DF11" t="n">
         <v>18</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DG11" t="n">
         <v>11</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DH11" t="n">
         <v>11.14</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>4.25</v>
       </c>
       <c r="DI11" t="n">
         <v>3.33</v>
@@ -5574,181 +5574,181 @@
         <v>0.4991666666666667</v>
       </c>
       <c r="BB12" t="n">
+        <v>2.655833333333333</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>3.6425</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>3.949166666666667</v>
+      </c>
+      <c r="BE12" t="n">
         <v>1.336666666666667</v>
       </c>
-      <c r="BC12" t="n">
+      <c r="BF12" t="n">
         <v>2.101666666666667</v>
       </c>
-      <c r="BD12" t="n">
+      <c r="BG12" t="n">
         <v>3.713333333333333</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BH12" t="n">
         <v>1.8725</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BI12" t="n">
         <v>1.9025</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BJ12" t="n">
         <v>2.410833333333333</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BK12" t="n">
         <v>1.86</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BL12" t="n">
         <v>1.52</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BM12" t="n">
         <v>1.920833333333333</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BN12" t="n">
         <v>1.4175</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BO12" t="n">
         <v>2.901666666666667</v>
       </c>
-      <c r="BM12" t="n">
+      <c r="BP12" t="n">
         <v>2.8425</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BQ12" t="n">
         <v>1.395833333333333</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BR12" t="n">
+        <v>2.6675</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>3.646666666666667</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>4.179166666666666</v>
+      </c>
+      <c r="BU12" t="n">
         <v>1.385833333333333</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BV12" t="n">
         <v>2.1625</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BW12" t="n">
         <v>3.236944444444445</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BX12" t="n">
         <v>1.925833333333333</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BY12" t="n">
         <v>1.961666666666667</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="BZ12" t="n">
         <v>2.30375</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="CA12" t="n">
         <v>1.846666666666667</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="CB12" t="n">
         <v>1.603541666666667</v>
       </c>
-      <c r="BW12" t="n">
+      <c r="CC12" t="n">
         <v>1.994166666666667</v>
       </c>
-      <c r="BX12" t="n">
+      <c r="CD12" t="n">
         <v>1.460416666666666</v>
       </c>
-      <c r="BY12" t="n">
+      <c r="CE12" t="n">
         <v>3.125</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CF12" t="n">
         <v>2.797291666666666</v>
       </c>
-      <c r="CA12" t="n">
+      <c r="CG12" t="n">
         <v>1.380277777777778</v>
       </c>
-      <c r="CB12" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="CD12" t="n">
+      <c r="CH12" t="n">
         <v>1.2</v>
       </c>
-      <c r="CE12" t="n">
+      <c r="CI12" t="n">
         <v>1</v>
       </c>
-      <c r="CF12" t="n">
+      <c r="CJ12" t="n">
         <v>4</v>
       </c>
-      <c r="CG12" t="n">
+      <c r="CK12" t="n">
         <v>1.2</v>
       </c>
-      <c r="CH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI12" t="n">
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
         <v>4.2</v>
       </c>
-      <c r="CJ12" t="n">
+      <c r="CN12" t="n">
         <v>11.6</v>
       </c>
-      <c r="CK12" t="n">
+      <c r="CO12" t="n">
         <v>15.8</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="CP12" t="n">
         <v>13.8</v>
       </c>
-      <c r="CM12" t="n">
+      <c r="CQ12" t="n">
         <v>38.2</v>
       </c>
-      <c r="CN12" t="n">
+      <c r="CR12" t="n">
         <v>1.2</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CS12" t="n">
         <v>2</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="CT12" t="n">
         <v>2</v>
       </c>
-      <c r="CQ12" t="n">
+      <c r="CU12" t="n">
         <v>0.6</v>
       </c>
-      <c r="CR12" t="n">
+      <c r="CV12" t="n">
         <v>0.6</v>
       </c>
-      <c r="CS12" t="n">
+      <c r="CW12" t="n">
         <v>46</v>
       </c>
-      <c r="CT12" t="n">
+      <c r="CX12" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="CU12" t="n">
+      <c r="CY12" t="n">
         <v>1.62</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0.2</v>
       </c>
       <c r="CZ12" t="n">
         <v>0.2</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="DB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
         <v>20.8</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DG12" t="n">
         <v>11.4</v>
       </c>
-      <c r="DD12" t="n">
+      <c r="DH12" t="n">
         <v>7.2</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>3.65</v>
       </c>
       <c r="DI12" t="n">
         <v>4.33</v>
@@ -5991,181 +5991,181 @@
         <v>0.6363636363636364</v>
       </c>
       <c r="BB13" t="n">
+        <v>2.844545454545454</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>3.94090909090909</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>4.626363636363636</v>
+      </c>
+      <c r="BE13" t="n">
         <v>1.345454545454545</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BF13" t="n">
         <v>2.114545454545454</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BG13" t="n">
         <v>3.823636363636364</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BH13" t="n">
         <v>1.995454545454545</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BI13" t="n">
         <v>1.785454545454545</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BJ13" t="n">
         <v>2.407272727272727</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BK13" t="n">
         <v>1.873636363636364</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BL13" t="n">
         <v>1.524545454545454</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BM13" t="n">
         <v>1.864545454545454</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BN13" t="n">
         <v>1.411818181818182</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BO13" t="n">
         <v>2.965454545454545</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BP13" t="n">
         <v>2.829090909090909</v>
       </c>
-      <c r="BN13" t="n">
+      <c r="BQ13" t="n">
         <v>1.402727272727273</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BR13" t="n">
+        <v>2.937272727272727</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>4.100909090909092</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>5.022727272727272</v>
+      </c>
+      <c r="BU13" t="n">
         <v>1.413818181818182</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BV13" t="n">
         <v>2.130909090909091</v>
       </c>
-      <c r="BQ13" t="n">
+      <c r="BW13" t="n">
         <v>2.700909090909091</v>
       </c>
-      <c r="BR13" t="n">
+      <c r="BX13" t="n">
         <v>2.062727272727273</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BY13" t="n">
         <v>1.848181818181818</v>
       </c>
-      <c r="BT13" t="n">
+      <c r="BZ13" t="n">
         <v>2.260909090909091</v>
       </c>
-      <c r="BU13" t="n">
+      <c r="CA13" t="n">
         <v>1.895454545454546</v>
       </c>
-      <c r="BV13" t="n">
+      <c r="CB13" t="n">
         <v>1.665454545454546</v>
       </c>
-      <c r="BW13" t="n">
+      <c r="CC13" t="n">
         <v>1.986363636363637</v>
       </c>
-      <c r="BX13" t="n">
+      <c r="CD13" t="n">
         <v>1.444363636363636</v>
       </c>
-      <c r="BY13" t="n">
+      <c r="CE13" t="n">
         <v>2.904363636363636</v>
       </c>
-      <c r="BZ13" t="n">
+      <c r="CF13" t="n">
         <v>2.831090909090909</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CG13" t="n">
         <v>1.451090909090909</v>
       </c>
-      <c r="CB13" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="CC13" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="CD13" t="n">
+      <c r="CH13" t="n">
         <v>2</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CI13" t="n">
         <v>1.17</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CJ13" t="n">
         <v>4.17</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CK13" t="n">
         <v>2</v>
       </c>
-      <c r="CH13" t="n">
+      <c r="CL13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI13" t="n">
+      <c r="CM13" t="n">
         <v>4.5</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CN13" t="n">
         <v>6.67</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="CO13" t="n">
         <v>11.17</v>
       </c>
-      <c r="CL13" t="n">
+      <c r="CP13" t="n">
         <v>12</v>
       </c>
-      <c r="CM13" t="n">
+      <c r="CQ13" t="n">
         <v>46.33</v>
       </c>
-      <c r="CN13" t="n">
+      <c r="CR13" t="n">
         <v>2.17</v>
       </c>
-      <c r="CO13" t="n">
+      <c r="CS13" t="n">
         <v>1.33</v>
       </c>
-      <c r="CP13" t="n">
+      <c r="CT13" t="n">
         <v>2.83</v>
       </c>
-      <c r="CQ13" t="n">
+      <c r="CU13" t="n">
         <v>0.83</v>
       </c>
-      <c r="CR13" t="n">
+      <c r="CV13" t="n">
         <v>1.33</v>
       </c>
-      <c r="CS13" t="n">
+      <c r="CW13" t="n">
         <v>35.67</v>
       </c>
-      <c r="CT13" t="n">
+      <c r="CX13" t="n">
         <v>91.5</v>
       </c>
-      <c r="CU13" t="n">
+      <c r="CY13" t="n">
         <v>1.28</v>
       </c>
-      <c r="CV13" t="n">
+      <c r="CZ13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CW13" t="n">
+      <c r="DA13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="n">
+      <c r="DB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
         <v>0.33</v>
       </c>
-      <c r="DA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB13" t="n">
+      <c r="DE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF13" t="n">
         <v>17.33</v>
       </c>
-      <c r="DC13" t="n">
+      <c r="DG13" t="n">
         <v>12.33</v>
       </c>
-      <c r="DD13" t="n">
+      <c r="DH13" t="n">
         <v>7.67</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>4.1</v>
       </c>
       <c r="DI13" t="n">
         <v>3.91</v>
@@ -6408,181 +6408,181 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="BB14" t="n">
+        <v>2.726666666666667</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>3.576666666666667</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>3.576666666666667</v>
+      </c>
+      <c r="BE14" t="n">
         <v>1.3</v>
       </c>
-      <c r="BC14" t="n">
+      <c r="BF14" t="n">
         <v>1.988333333333333</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BG14" t="n">
         <v>3.468333333333334</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BH14" t="n">
         <v>1.84</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BI14" t="n">
         <v>1.945</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BJ14" t="n">
         <v>2.525833333333333</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BK14" t="n">
         <v>1.954166666666667</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BL14" t="n">
         <v>1.4525</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BM14" t="n">
         <v>1.8625</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BN14" t="n">
         <v>1.395833333333333</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BO14" t="n">
         <v>2.835833333333333</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BP14" t="n">
         <v>2.924166666666666</v>
       </c>
-      <c r="BN14" t="n">
+      <c r="BQ14" t="n">
         <v>1.4125</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BR14" t="n">
+        <v>2.910833333333333</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>3.745833333333334</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>3.785833333333333</v>
+      </c>
+      <c r="BU14" t="n">
         <v>1.390277777777778</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BV14" t="n">
         <v>2.076666666666667</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BW14" t="n">
         <v>3.194166666666667</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BX14" t="n">
         <v>1.9025</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="BY14" t="n">
         <v>2.008333333333333</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="BZ14" t="n">
         <v>2.447833333333334</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="CA14" t="n">
         <v>1.970833333333333</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="CB14" t="n">
         <v>1.537833333333333</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="CC14" t="n">
         <v>1.87</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="CD14" t="n">
         <v>1.421388888888889</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="CE14" t="n">
         <v>3.032777777777778</v>
       </c>
-      <c r="BZ14" t="n">
+      <c r="CF14" t="n">
         <v>2.955555555555555</v>
       </c>
-      <c r="CA14" t="n">
+      <c r="CG14" t="n">
         <v>1.405138888888889</v>
       </c>
-      <c r="CB14" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="CC14" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="CD14" t="n">
+      <c r="CH14" t="n">
         <v>1.57</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CI14" t="n">
         <v>1.29</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CJ14" t="n">
         <v>5.14</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CK14" t="n">
         <v>2.29</v>
       </c>
-      <c r="CH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI14" t="n">
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
         <v>3.57</v>
       </c>
-      <c r="CJ14" t="n">
+      <c r="CN14" t="n">
         <v>7.86</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="CO14" t="n">
         <v>11.43</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="CP14" t="n">
         <v>14</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="CQ14" t="n">
         <v>52.29</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="CR14" t="n">
         <v>2.29</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="CS14" t="n">
         <v>3.14</v>
       </c>
-      <c r="CP14" t="n">
+      <c r="CT14" t="n">
         <v>2</v>
       </c>
-      <c r="CQ14" t="n">
+      <c r="CU14" t="n">
         <v>0.71</v>
       </c>
-      <c r="CR14" t="n">
+      <c r="CV14" t="n">
         <v>1.57</v>
       </c>
-      <c r="CS14" t="n">
+      <c r="CW14" t="n">
         <v>38.57</v>
       </c>
-      <c r="CT14" t="n">
+      <c r="CX14" t="n">
         <v>90.86</v>
       </c>
-      <c r="CU14" t="n">
+      <c r="CY14" t="n">
         <v>1.26</v>
       </c>
-      <c r="CV14" t="n">
+      <c r="CZ14" t="n">
         <v>0.14</v>
       </c>
-      <c r="CW14" t="n">
+      <c r="DA14" t="n">
         <v>0.14</v>
       </c>
-      <c r="CX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="n">
+      <c r="DB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
         <v>0.71</v>
       </c>
-      <c r="DA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB14" t="n">
+      <c r="DE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF14" t="n">
         <v>18.14</v>
       </c>
-      <c r="DC14" t="n">
+      <c r="DG14" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="DD14" t="n">
+      <c r="DH14" t="n">
         <v>8.859999999999999</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>3.74</v>
       </c>
       <c r="DI14" t="n">
         <v>6.16</v>
@@ -6825,181 +6825,181 @@
         <v>0.6345454545454546</v>
       </c>
       <c r="BB15" t="n">
+        <v>2.420909090909091</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>3.447272727272727</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>3.442727272727272</v>
+      </c>
+      <c r="BE15" t="n">
         <v>1.287272727272727</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BF15" t="n">
         <v>1.920909090909091</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BG15" t="n">
         <v>3.282727272727273</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BH15" t="n">
         <v>1.777272727272727</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BI15" t="n">
         <v>2.050909090909091</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BJ15" t="n">
         <v>2.384545454545454</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BK15" t="n">
         <v>1.859090909090909</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BL15" t="n">
         <v>1.511818181818182</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BM15" t="n">
         <v>2.005454545454546</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BN15" t="n">
         <v>1.376363636363636</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BO15" t="n">
         <v>2.716363636363637</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BP15" t="n">
         <v>2.898181818181818</v>
       </c>
-      <c r="BN15" t="n">
+      <c r="BQ15" t="n">
         <v>1.41</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BR15" t="n">
+        <v>2.568181818181818</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>3.562727272727273</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>3.423636363636364</v>
+      </c>
+      <c r="BU15" t="n">
         <v>1.31</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BV15" t="n">
         <v>1.930909090909091</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BW15" t="n">
         <v>2.993181818181818</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BX15" t="n">
         <v>1.760909090909091</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="BY15" t="n">
         <v>2.193636363636363</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="BZ15" t="n">
         <v>2.397727272727273</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="CA15" t="n">
         <v>1.889545454545455</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="CB15" t="n">
         <v>1.574545454545454</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="CC15" t="n">
         <v>1.960454545454545</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="CD15" t="n">
         <v>1.415454545454546</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="CE15" t="n">
         <v>3.026363636363636</v>
       </c>
-      <c r="BZ15" t="n">
+      <c r="CF15" t="n">
         <v>2.988787878787879</v>
       </c>
-      <c r="CA15" t="n">
+      <c r="CG15" t="n">
         <v>1.411515151515151</v>
       </c>
-      <c r="CB15" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="CD15" t="n">
+      <c r="CH15" t="n">
         <v>1.4</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CI15" t="n">
         <v>1.6</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CJ15" t="n">
         <v>6</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CK15" t="n">
         <v>2.4</v>
       </c>
-      <c r="CH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI15" t="n">
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
         <v>4.2</v>
       </c>
-      <c r="CJ15" t="n">
+      <c r="CN15" t="n">
         <v>10.8</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="CO15" t="n">
         <v>15</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="CP15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="CQ15" t="n">
         <v>52.4</v>
       </c>
-      <c r="CN15" t="n">
+      <c r="CR15" t="n">
         <v>2.4</v>
       </c>
-      <c r="CO15" t="n">
+      <c r="CS15" t="n">
         <v>3.2</v>
       </c>
-      <c r="CP15" t="n">
+      <c r="CT15" t="n">
         <v>2.8</v>
       </c>
-      <c r="CQ15" t="n">
+      <c r="CU15" t="n">
         <v>0.6</v>
       </c>
-      <c r="CR15" t="n">
+      <c r="CV15" t="n">
         <v>1.8</v>
       </c>
-      <c r="CS15" t="n">
+      <c r="CW15" t="n">
         <v>50</v>
       </c>
-      <c r="CT15" t="n">
+      <c r="CX15" t="n">
         <v>92</v>
       </c>
-      <c r="CU15" t="n">
+      <c r="CY15" t="n">
         <v>1.6</v>
       </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
         <v>0.4</v>
       </c>
-      <c r="DA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB15" t="n">
+      <c r="DE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF15" t="n">
         <v>15</v>
       </c>
-      <c r="DC15" t="n">
+      <c r="DG15" t="n">
         <v>15</v>
       </c>
-      <c r="DD15" t="n">
+      <c r="DH15" t="n">
         <v>8.6</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>3.56</v>
       </c>
       <c r="DI15" t="n">
         <v>4.82</v>
@@ -7242,171 +7242,171 @@
         <v>0.5</v>
       </c>
       <c r="BB16" t="n">
+        <v>3.860833333333334</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>5.404166666666666</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>6.079166666666667</v>
+      </c>
+      <c r="BE16" t="n">
         <v>1.145</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BF16" t="n">
         <v>1.5275</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BG16" t="n">
         <v>2.3575</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BH16" t="n">
         <v>1.7975</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BI16" t="n">
         <v>2.039166666666667</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BJ16" t="n">
         <v>2.814166666666666</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BK16" t="n">
         <v>2.159166666666667</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BL16" t="n">
         <v>1.4175</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BM16" t="n">
         <v>1.7025</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BN16" t="n">
         <v>1.253333333333333</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BO16" t="n">
         <v>2.196666666666667</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BP16" t="n">
         <v>3.704166666666667</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BQ16" t="n">
         <v>1.663333333333333</v>
       </c>
-      <c r="BO16" t="inlineStr"/>
-      <c r="BP16" t="n">
+      <c r="BR16" t="n">
+        <v>4.1125</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>5.843333333333334</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>6.960833333333333</v>
+      </c>
+      <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="n">
         <v>1.563333333333333</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BW16" t="n">
         <v>2.410833333333333</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BX16" t="n">
         <v>1.883333333333333</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BY16" t="n">
         <v>2.126666666666666</v>
-      </c>
-      <c r="BT16" t="inlineStr"/>
-      <c r="BU16" t="n">
-        <v>2.13875</v>
-      </c>
-      <c r="BV16" t="inlineStr"/>
-      <c r="BW16" t="n">
-        <v>1.73625</v>
-      </c>
-      <c r="BX16" t="inlineStr"/>
-      <c r="BY16" t="n">
-        <v>2.285</v>
       </c>
       <c r="BZ16" t="inlineStr"/>
       <c r="CA16" t="n">
+        <v>2.13875</v>
+      </c>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="n">
+        <v>1.73625</v>
+      </c>
+      <c r="CD16" t="inlineStr"/>
+      <c r="CE16" t="n">
+        <v>2.285</v>
+      </c>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="n">
         <v>1.683</v>
       </c>
-      <c r="CB16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="CD16" t="n">
+      <c r="CH16" t="n">
         <v>1.17</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CI16" t="n">
         <v>2</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CJ16" t="n">
         <v>5.67</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CK16" t="n">
         <v>1.67</v>
       </c>
-      <c r="CH16" t="n">
+      <c r="CL16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI16" t="n">
+      <c r="CM16" t="n">
         <v>7.17</v>
       </c>
-      <c r="CJ16" t="n">
+      <c r="CN16" t="n">
         <v>12.17</v>
       </c>
-      <c r="CK16" t="n">
+      <c r="CO16" t="n">
         <v>19.33</v>
       </c>
-      <c r="CL16" t="n">
+      <c r="CP16" t="n">
         <v>9.17</v>
       </c>
-      <c r="CM16" t="n">
+      <c r="CQ16" t="n">
         <v>59.5</v>
       </c>
-      <c r="CN16" t="n">
+      <c r="CR16" t="n">
         <v>2</v>
       </c>
-      <c r="CO16" t="n">
+      <c r="CS16" t="n">
         <v>3.33</v>
       </c>
-      <c r="CP16" t="n">
+      <c r="CT16" t="n">
         <v>2.33</v>
       </c>
-      <c r="CQ16" t="n">
+      <c r="CU16" t="n">
         <v>0.5</v>
       </c>
-      <c r="CR16" t="n">
+      <c r="CV16" t="n">
         <v>1.33</v>
       </c>
-      <c r="CS16" t="n">
+      <c r="CW16" t="n">
         <v>56.5</v>
       </c>
-      <c r="CT16" t="n">
+      <c r="CX16" t="n">
         <v>120.5</v>
       </c>
-      <c r="CU16" t="n">
+      <c r="CY16" t="n">
         <v>2.13</v>
       </c>
-      <c r="CV16" t="n">
+      <c r="CZ16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CW16" t="n">
+      <c r="DA16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ16" t="n">
+      <c r="DB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
         <v>0.33</v>
       </c>
-      <c r="DA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="n">
+      <c r="DE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF16" t="n">
         <v>17.17</v>
       </c>
-      <c r="DC16" t="n">
+      <c r="DG16" t="n">
         <v>17</v>
       </c>
-      <c r="DD16" t="n">
+      <c r="DH16" t="n">
         <v>8.83</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>5.84</v>
       </c>
       <c r="DI16" t="n">
         <v>6.08</v>
@@ -7649,181 +7649,181 @@
         <v>0.2516666666666666</v>
       </c>
       <c r="BB17" t="n">
+        <v>3.5225</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>3.785</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>4.086666666666667</v>
+      </c>
+      <c r="BE17" t="n">
         <v>1.38</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BF17" t="n">
         <v>2.191666666666666</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BG17" t="n">
         <v>4.013333333333333</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BH17" t="n">
         <v>2.0875</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BI17" t="n">
         <v>1.7375</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BJ17" t="n">
         <v>2.351666666666667</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BK17" t="n">
         <v>1.853333333333333</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BL17" t="n">
         <v>1.5425</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BM17" t="n">
         <v>2.023333333333333</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BN17" t="n">
         <v>1.45</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BO17" t="n">
         <v>3.038333333333334</v>
       </c>
-      <c r="BM17" t="n">
+      <c r="BP17" t="n">
         <v>2.753333333333333</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BQ17" t="n">
         <v>1.358333333333333</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BR17" t="n">
+        <v>3.799166666666667</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>3.955833333333333</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>4.149166666666667</v>
+      </c>
+      <c r="BU17" t="n">
         <v>1.415</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BV17" t="n">
         <v>2.243333333333333</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BW17" t="n">
         <v>3.215</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BX17" t="n">
         <v>2.164166666666667</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BY17" t="n">
         <v>1.77</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="BZ17" t="n">
         <v>2.243</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="CA17" t="n">
         <v>1.814166666666667</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="CB17" t="n">
         <v>1.652</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="CC17" t="n">
         <v>2.035</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="CD17" t="n">
         <v>1.48</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="CE17" t="n">
         <v>2.9575</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CF17" t="n">
         <v>2.765833333333333</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CG17" t="n">
         <v>1.4375</v>
       </c>
-      <c r="CB17" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="CD17" t="n">
+      <c r="CH17" t="n">
         <v>1.67</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="CI17" t="n">
         <v>0.83</v>
       </c>
-      <c r="CF17" t="n">
+      <c r="CJ17" t="n">
         <v>3.17</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CK17" t="n">
         <v>2.5</v>
       </c>
-      <c r="CH17" t="n">
+      <c r="CL17" t="n">
         <v>0.5</v>
       </c>
-      <c r="CI17" t="n">
+      <c r="CM17" t="n">
         <v>3.33</v>
       </c>
-      <c r="CJ17" t="n">
+      <c r="CN17" t="n">
         <v>4.33</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CO17" t="n">
         <v>7.67</v>
       </c>
-      <c r="CL17" t="n">
+      <c r="CP17" t="n">
         <v>13.33</v>
       </c>
-      <c r="CM17" t="n">
+      <c r="CQ17" t="n">
         <v>42.17</v>
       </c>
-      <c r="CN17" t="n">
+      <c r="CR17" t="n">
         <v>3</v>
       </c>
-      <c r="CO17" t="n">
+      <c r="CS17" t="n">
         <v>1.33</v>
       </c>
-      <c r="CP17" t="n">
+      <c r="CT17" t="n">
         <v>1</v>
       </c>
-      <c r="CQ17" t="n">
+      <c r="CU17" t="n">
         <v>0.5</v>
       </c>
-      <c r="CR17" t="n">
+      <c r="CV17" t="n">
         <v>2.5</v>
       </c>
-      <c r="CS17" t="n">
+      <c r="CW17" t="n">
         <v>27.33</v>
       </c>
-      <c r="CT17" t="n">
+      <c r="CX17" t="n">
         <v>68.5</v>
       </c>
-      <c r="CU17" t="n">
+      <c r="CY17" t="n">
         <v>0.92</v>
       </c>
-      <c r="CV17" t="n">
+      <c r="CZ17" t="n">
         <v>0.17</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0</v>
       </c>
       <c r="DA17" t="n">
         <v>0.17</v>
       </c>
       <c r="DB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DF17" t="n">
         <v>20.33</v>
       </c>
-      <c r="DC17" t="n">
+      <c r="DG17" t="n">
         <v>11.33</v>
       </c>
-      <c r="DD17" t="n">
+      <c r="DH17" t="n">
         <v>9.5</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>3.96</v>
       </c>
       <c r="DI17" t="n">
         <v>3.58</v>
@@ -8066,181 +8066,181 @@
         <v>0.7516666666666666</v>
       </c>
       <c r="BB18" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>3.509166666666667</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>3.9275</v>
+      </c>
+      <c r="BE18" t="n">
         <v>1.326666666666667</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BF18" t="n">
         <v>2.121666666666667</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BG18" t="n">
         <v>3.706666666666667</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BH18" t="n">
         <v>1.873333333333333</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BI18" t="n">
         <v>1.9</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BJ18" t="n">
         <v>2.485833333333333</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BK18" t="n">
         <v>1.941666666666666</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BL18" t="n">
         <v>1.479166666666667</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BM18" t="n">
         <v>1.931666666666667</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BN18" t="n">
         <v>1.4125</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BO18" t="n">
         <v>2.955833333333333</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BP18" t="n">
         <v>2.893333333333333</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BQ18" t="n">
         <v>1.399166666666667</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BR18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>3.575000000000001</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>3.913333333333334</v>
+      </c>
+      <c r="BU18" t="n">
         <v>1.374</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BV18" t="n">
         <v>2.104166666666667</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BW18" t="n">
         <v>3.098333333333333</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BX18" t="n">
         <v>1.8975</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BY18" t="n">
         <v>2.001666666666666</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BZ18" t="n">
         <v>2.3</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="CA18" t="n">
         <v>1.949166666666667</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="CB18" t="n">
         <v>1.59</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="CC18" t="n">
         <v>1.885833333333333</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="CD18" t="n">
         <v>1.4475</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="CE18" t="n">
         <v>2.905</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="CF18" t="n">
         <v>2.825</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CG18" t="n">
         <v>1.463333333333333</v>
       </c>
-      <c r="CB18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="CC18" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="CD18" t="n">
+      <c r="CH18" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CI18" t="n">
         <v>0.83</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CJ18" t="n">
         <v>6</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CK18" t="n">
         <v>2.83</v>
       </c>
-      <c r="CH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI18" t="n">
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
         <v>4.67</v>
       </c>
-      <c r="CJ18" t="n">
+      <c r="CN18" t="n">
         <v>8.5</v>
       </c>
-      <c r="CK18" t="n">
+      <c r="CO18" t="n">
         <v>13.17</v>
       </c>
-      <c r="CL18" t="n">
+      <c r="CP18" t="n">
         <v>16</v>
       </c>
-      <c r="CM18" t="n">
+      <c r="CQ18" t="n">
         <v>45.67</v>
       </c>
-      <c r="CN18" t="n">
+      <c r="CR18" t="n">
         <v>2.83</v>
       </c>
-      <c r="CO18" t="n">
+      <c r="CS18" t="n">
         <v>3.17</v>
       </c>
-      <c r="CP18" t="n">
+      <c r="CT18" t="n">
         <v>2.83</v>
       </c>
-      <c r="CQ18" t="n">
+      <c r="CU18" t="n">
         <v>1.5</v>
       </c>
-      <c r="CR18" t="n">
+      <c r="CV18" t="n">
         <v>1.33</v>
       </c>
-      <c r="CS18" t="n">
+      <c r="CW18" t="n">
         <v>44.67</v>
       </c>
-      <c r="CT18" t="n">
+      <c r="CX18" t="n">
         <v>94.17</v>
       </c>
-      <c r="CU18" t="n">
+      <c r="CY18" t="n">
         <v>1.48</v>
       </c>
-      <c r="CV18" t="n">
+      <c r="CZ18" t="n">
         <v>0.17</v>
-      </c>
-      <c r="CW18" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>0.5</v>
       </c>
       <c r="DA18" t="n">
         <v>0.17</v>
       </c>
       <c r="DB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DF18" t="n">
         <v>19</v>
       </c>
-      <c r="DC18" t="n">
+      <c r="DG18" t="n">
         <v>7.83</v>
       </c>
-      <c r="DD18" t="n">
+      <c r="DH18" t="n">
         <v>7.83</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>3.57</v>
       </c>
       <c r="DI18" t="n">
         <v>6.5</v>
@@ -8483,181 +8483,181 @@
         <v>0.6649999999999999</v>
       </c>
       <c r="BB19" t="n">
+        <v>2.3575</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>3.5175</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>4.1875</v>
+      </c>
+      <c r="BE19" t="n">
         <v>1.349166666666667</v>
       </c>
-      <c r="BC19" t="n">
+      <c r="BF19" t="n">
         <v>2.088333333333333</v>
       </c>
-      <c r="BD19" t="n">
+      <c r="BG19" t="n">
         <v>3.674166666666667</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BH19" t="n">
         <v>1.921666666666667</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BI19" t="n">
         <v>1.8975</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BJ19" t="n">
         <v>2.3325</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BK19" t="n">
         <v>1.825833333333333</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BL19" t="n">
         <v>1.559166666666667</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BM19" t="n">
         <v>1.995</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BN19" t="n">
         <v>1.415833333333333</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BO19" t="n">
         <v>2.988333333333333</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BP19" t="n">
         <v>2.829166666666667</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BQ19" t="n">
         <v>1.403333333333333</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BR19" t="n">
+        <v>2.4725</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>3.663333333333334</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>4.315833333333334</v>
+      </c>
+      <c r="BU19" t="n">
         <v>1.409</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BV19" t="n">
         <v>2.185833333333333</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BW19" t="n">
         <v>3.10625</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BX19" t="n">
         <v>1.983333333333333</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="BY19" t="n">
         <v>1.93</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="BZ19" t="n">
         <v>2.269</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="CA19" t="n">
         <v>1.839166666666667</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="CB19" t="n">
         <v>1.65</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="CC19" t="n">
         <v>2.025</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="CD19" t="n">
         <v>1.4825</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="CE19" t="n">
         <v>3.088333333333333</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="CF19" t="n">
         <v>2.70125</v>
       </c>
-      <c r="CA19" t="n">
+      <c r="CG19" t="n">
         <v>1.403333333333333</v>
       </c>
-      <c r="CB19" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="CD19" t="n">
+      <c r="CH19" t="n">
         <v>1.5</v>
       </c>
-      <c r="CE19" t="n">
+      <c r="CI19" t="n">
         <v>1.33</v>
       </c>
-      <c r="CF19" t="n">
+      <c r="CJ19" t="n">
         <v>4.17</v>
       </c>
-      <c r="CG19" t="n">
+      <c r="CK19" t="n">
         <v>3</v>
       </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
         <v>2.83</v>
       </c>
-      <c r="CJ19" t="n">
+      <c r="CN19" t="n">
         <v>6.17</v>
       </c>
-      <c r="CK19" t="n">
+      <c r="CO19" t="n">
         <v>9</v>
       </c>
-      <c r="CL19" t="n">
+      <c r="CP19" t="n">
         <v>14.33</v>
       </c>
-      <c r="CM19" t="n">
+      <c r="CQ19" t="n">
         <v>49.33</v>
       </c>
-      <c r="CN19" t="n">
+      <c r="CR19" t="n">
         <v>3</v>
       </c>
-      <c r="CO19" t="n">
+      <c r="CS19" t="n">
         <v>2.33</v>
       </c>
-      <c r="CP19" t="n">
+      <c r="CT19" t="n">
         <v>1.83</v>
       </c>
-      <c r="CQ19" t="n">
+      <c r="CU19" t="n">
         <v>0.83</v>
       </c>
-      <c r="CR19" t="n">
+      <c r="CV19" t="n">
         <v>2.17</v>
       </c>
-      <c r="CS19" t="n">
+      <c r="CW19" t="n">
         <v>31.5</v>
       </c>
-      <c r="CT19" t="n">
+      <c r="CX19" t="n">
         <v>84.83</v>
       </c>
-      <c r="CU19" t="n">
+      <c r="CY19" t="n">
         <v>1</v>
       </c>
-      <c r="CV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="n">
         <v>0.17</v>
       </c>
-      <c r="CZ19" t="n">
+      <c r="DD19" t="n">
         <v>0.83</v>
       </c>
-      <c r="DA19" t="n">
+      <c r="DE19" t="n">
         <v>0.17</v>
       </c>
-      <c r="DB19" t="n">
+      <c r="DF19" t="n">
         <v>19.83</v>
       </c>
-      <c r="DC19" t="n">
+      <c r="DG19" t="n">
         <v>12.17</v>
       </c>
-      <c r="DD19" t="n">
+      <c r="DH19" t="n">
         <v>6.33</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>3.66</v>
       </c>
       <c r="DI19" t="n">
         <v>4.67</v>
@@ -8900,155 +8900,155 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="BB20" t="n">
+        <v>2.233636363636364</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>3.748181818181819</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>4.720909090909092</v>
+      </c>
+      <c r="BE20" t="n">
         <v>1.344545454545455</v>
       </c>
-      <c r="BC20" t="n">
+      <c r="BF20" t="n">
         <v>2.129090909090909</v>
       </c>
-      <c r="BD20" t="n">
+      <c r="BG20" t="n">
         <v>3.878181818181818</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BH20" t="n">
         <v>1.915454545454546</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BI20" t="n">
         <v>1.831818181818182</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BJ20" t="n">
         <v>2.444545454545455</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BK20" t="n">
         <v>1.929090909090909</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BL20" t="n">
         <v>1.507272727272727</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BM20" t="n">
         <v>1.939090909090909</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BN20" t="n">
         <v>1.42</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BO20" t="n">
         <v>3.042727272727273</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BP20" t="n">
         <v>2.887272727272727</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BQ20" t="n">
         <v>1.406363636363636</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BR20" t="n">
+        <v>2.360909090909091</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>3.999090909090909</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>5.381818181818182</v>
+      </c>
+      <c r="BU20" t="n">
         <v>1.421818181818182</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BV20" t="n">
         <v>2.206363636363637</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BW20" t="n">
         <v>2.868181818181818</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BX20" t="n">
         <v>1.999090909090909</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="BY20" t="n">
         <v>1.902727272727273</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="BZ20" t="n">
         <v>2.302727272727273</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="CA20" t="n">
         <v>1.970454545454545</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="CB20" t="n">
         <v>1.626363636363636</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="CC20" t="n">
         <v>1.905</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="CD20" t="n">
         <v>1.499545454545454</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="CE20" t="n">
         <v>2.947090909090909</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CF20" t="n">
         <v>2.673181818181818</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CG20" t="n">
         <v>1.470363636363636</v>
       </c>
-      <c r="CB20" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="CD20" t="n">
+      <c r="CH20" t="n">
         <v>2.5</v>
       </c>
-      <c r="CE20" t="n">
+      <c r="CI20" t="n">
         <v>0.5</v>
       </c>
-      <c r="CF20" t="n">
+      <c r="CJ20" t="n">
         <v>3.17</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CK20" t="n">
         <v>1.67</v>
       </c>
-      <c r="CH20" t="n">
+      <c r="CL20" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI20" t="n">
+      <c r="CM20" t="n">
         <v>2.17</v>
       </c>
-      <c r="CJ20" t="n">
+      <c r="CN20" t="n">
         <v>4.33</v>
       </c>
-      <c r="CK20" t="n">
+      <c r="CO20" t="n">
         <v>6.5</v>
       </c>
-      <c r="CL20" t="n">
+      <c r="CP20" t="n">
         <v>11.5</v>
       </c>
-      <c r="CM20" t="n">
+      <c r="CQ20" t="n">
         <v>40.5</v>
       </c>
-      <c r="CN20" t="n">
+      <c r="CR20" t="n">
         <v>2</v>
       </c>
-      <c r="CO20" t="n">
+      <c r="CS20" t="n">
         <v>1</v>
       </c>
-      <c r="CP20" t="n">
+      <c r="CT20" t="n">
         <v>2.17</v>
       </c>
-      <c r="CQ20" t="n">
+      <c r="CU20" t="n">
         <v>0.67</v>
       </c>
-      <c r="CR20" t="n">
+      <c r="CV20" t="n">
         <v>1.17</v>
       </c>
-      <c r="CS20" t="n">
+      <c r="CW20" t="n">
         <v>29.5</v>
       </c>
-      <c r="CT20" t="n">
+      <c r="CX20" t="n">
         <v>79.17</v>
       </c>
-      <c r="CU20" t="n">
+      <c r="CY20" t="n">
         <v>0.78</v>
       </c>
-      <c r="CV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0</v>
-      </c>
       <c r="CZ20" t="n">
         <v>0</v>
       </c>
@@ -9056,25 +9056,25 @@
         <v>0</v>
       </c>
       <c r="DB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF20" t="n">
         <v>17.33</v>
       </c>
-      <c r="DC20" t="n">
+      <c r="DG20" t="n">
         <v>12</v>
       </c>
-      <c r="DD20" t="n">
+      <c r="DH20" t="n">
         <v>9.17</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>4</v>
       </c>
       <c r="DI20" t="n">
         <v>4.73</v>
@@ -9317,181 +9317,181 @@
         <v>0.415</v>
       </c>
       <c r="BB21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>3.808333333333334</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>4.365833333333334</v>
+      </c>
+      <c r="BE21" t="n">
         <v>1.235833333333333</v>
       </c>
-      <c r="BC21" t="n">
+      <c r="BF21" t="n">
         <v>1.8175</v>
       </c>
-      <c r="BD21" t="n">
+      <c r="BG21" t="n">
         <v>2.899166666666666</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BH21" t="n">
         <v>1.716666666666667</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BI21" t="n">
         <v>2.108333333333333</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BJ21" t="n">
         <v>2.336666666666666</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BK21" t="n">
         <v>1.8175</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BL21" t="n">
         <v>1.5325</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BM21" t="n">
         <v>1.996666666666667</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BN21" t="n">
         <v>1.3375</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BO21" t="n">
         <v>2.588333333333333</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BP21" t="n">
         <v>3.086666666666667</v>
       </c>
-      <c r="BN21" t="n">
+      <c r="BQ21" t="n">
         <v>1.479166666666667</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BR21" t="n">
+        <v>2.283333333333334</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>3.895833333333333</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>4.563333333333333</v>
+      </c>
+      <c r="BU21" t="n">
         <v>1.286</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BV21" t="n">
         <v>1.833333333333333</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BW21" t="n">
         <v>2.981666666666667</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BX21" t="n">
         <v>1.774166666666667</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="BY21" t="n">
         <v>2.175</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="BZ21" t="n">
         <v>2.36</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="CA21" t="n">
         <v>1.904</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="CB21" t="n">
         <v>1.58875</v>
       </c>
-      <c r="BW21" t="n">
+      <c r="CC21" t="n">
         <v>1.938</v>
       </c>
-      <c r="BX21" t="n">
+      <c r="CD21" t="n">
         <v>1.374</v>
       </c>
-      <c r="BY21" t="n">
+      <c r="CE21" t="n">
         <v>2.73</v>
       </c>
-      <c r="BZ21" t="n">
+      <c r="CF21" t="n">
         <v>3.141</v>
       </c>
-      <c r="CA21" t="n">
+      <c r="CG21" t="n">
         <v>1.485833333333333</v>
       </c>
-      <c r="CB21" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="CD21" t="n">
+      <c r="CH21" t="n">
         <v>1.17</v>
       </c>
-      <c r="CE21" t="n">
+      <c r="CI21" t="n">
         <v>1.33</v>
       </c>
-      <c r="CF21" t="n">
+      <c r="CJ21" t="n">
         <v>3</v>
       </c>
-      <c r="CG21" t="n">
+      <c r="CK21" t="n">
         <v>2.83</v>
       </c>
-      <c r="CH21" t="n">
+      <c r="CL21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CI21" t="n">
+      <c r="CM21" t="n">
         <v>3.17</v>
       </c>
-      <c r="CJ21" t="n">
+      <c r="CN21" t="n">
         <v>6.5</v>
       </c>
-      <c r="CK21" t="n">
+      <c r="CO21" t="n">
         <v>9.67</v>
       </c>
-      <c r="CL21" t="n">
+      <c r="CP21" t="n">
         <v>12.33</v>
       </c>
-      <c r="CM21" t="n">
+      <c r="CQ21" t="n">
         <v>37.83</v>
       </c>
-      <c r="CN21" t="n">
+      <c r="CR21" t="n">
         <v>3</v>
       </c>
-      <c r="CO21" t="n">
+      <c r="CS21" t="n">
         <v>1.33</v>
       </c>
-      <c r="CP21" t="n">
+      <c r="CT21" t="n">
         <v>1.67</v>
       </c>
-      <c r="CQ21" t="n">
+      <c r="CU21" t="n">
         <v>1</v>
       </c>
-      <c r="CR21" t="n">
+      <c r="CV21" t="n">
         <v>2</v>
       </c>
-      <c r="CS21" t="n">
+      <c r="CW21" t="n">
         <v>34.5</v>
       </c>
-      <c r="CT21" t="n">
+      <c r="CX21" t="n">
         <v>75.33</v>
       </c>
-      <c r="CU21" t="n">
+      <c r="CY21" t="n">
         <v>1.08</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CW21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>0</v>
       </c>
       <c r="CZ21" t="n">
         <v>0.17</v>
       </c>
       <c r="DA21" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="DB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF21" t="n">
         <v>16.33</v>
       </c>
-      <c r="DC21" t="n">
+      <c r="DG21" t="n">
         <v>11.67</v>
       </c>
-      <c r="DD21" t="n">
+      <c r="DH21" t="n">
         <v>7.67</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>3.9</v>
       </c>
       <c r="DI21" t="n">
         <v>4.75</v>

--- a/data/teams/leagues_total/all_leagues_combined.xlsx
+++ b/data/teams/leagues_total/all_leagues_combined.xlsx
@@ -440,9 +440,9 @@
     <col width="14.4" customWidth="1" min="5" max="5"/>
     <col width="27.6" customWidth="1" min="6" max="6"/>
     <col width="30" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="19.2" customWidth="1" min="8" max="8"/>
     <col width="21.6" customWidth="1" min="9" max="9"/>
-    <col width="26.4" customWidth="1" min="10" max="10"/>
+    <col width="21.6" customWidth="1" min="10" max="10"/>
     <col width="27.6" customWidth="1" min="11" max="11"/>
     <col width="24" customWidth="1" min="12" max="12"/>
     <col width="28.8" customWidth="1" min="13" max="13"/>
@@ -451,25 +451,25 @@
     <col width="19.2" customWidth="1" min="16" max="16"/>
     <col width="25.2" customWidth="1" min="17" max="17"/>
     <col width="24" customWidth="1" min="18" max="18"/>
-    <col width="26.4" customWidth="1" min="19" max="19"/>
-    <col width="25.2" customWidth="1" min="20" max="20"/>
-    <col width="25.2" customWidth="1" min="21" max="21"/>
-    <col width="26.4" customWidth="1" min="22" max="22"/>
-    <col width="26.4" customWidth="1" min="23" max="23"/>
-    <col width="24" customWidth="1" min="24" max="24"/>
-    <col width="24" customWidth="1" min="25" max="25"/>
+    <col width="21.6" customWidth="1" min="19" max="19"/>
+    <col width="20.4" customWidth="1" min="20" max="20"/>
+    <col width="20.4" customWidth="1" min="21" max="21"/>
+    <col width="21.6" customWidth="1" min="22" max="22"/>
+    <col width="21.6" customWidth="1" min="23" max="23"/>
+    <col width="18" customWidth="1" min="24" max="24"/>
+    <col width="15.6" customWidth="1" min="25" max="25"/>
     <col width="25.2" customWidth="1" min="26" max="26"/>
     <col width="25.2" customWidth="1" min="27" max="27"/>
-    <col width="25.2" customWidth="1" min="28" max="28"/>
-    <col width="25.2" customWidth="1" min="29" max="29"/>
+    <col width="20.4" customWidth="1" min="28" max="28"/>
+    <col width="20.4" customWidth="1" min="29" max="29"/>
     <col width="22.8" customWidth="1" min="30" max="30"/>
     <col width="22.8" customWidth="1" min="31" max="31"/>
-    <col width="24" customWidth="1" min="32" max="32"/>
-    <col width="24" customWidth="1" min="33" max="33"/>
+    <col width="19.2" customWidth="1" min="32" max="32"/>
+    <col width="19.2" customWidth="1" min="33" max="33"/>
     <col width="33.6" customWidth="1" min="34" max="34"/>
     <col width="21.6" customWidth="1" min="35" max="35"/>
     <col width="15.6" customWidth="1" min="36" max="36"/>
-    <col width="24" customWidth="1" min="37" max="37"/>
+    <col width="12" customWidth="1" min="37" max="37"/>
     <col width="28.8" customWidth="1" min="38" max="38"/>
     <col width="28.8" customWidth="1" min="39" max="39"/>
     <col width="30" customWidth="1" min="40" max="40"/>
@@ -479,72 +479,72 @@
     <col width="22.8" customWidth="1" min="44" max="44"/>
     <col width="24" customWidth="1" min="45" max="45"/>
     <col width="24" customWidth="1" min="46" max="46"/>
-    <col width="24" customWidth="1" min="47" max="47"/>
-    <col width="24" customWidth="1" min="48" max="48"/>
-    <col width="25.2" customWidth="1" min="49" max="49"/>
-    <col width="25.2" customWidth="1" min="50" max="50"/>
-    <col width="25.2" customWidth="1" min="51" max="51"/>
-    <col width="25.2" customWidth="1" min="52" max="52"/>
-    <col width="25.2" customWidth="1" min="53" max="53"/>
-    <col width="24" customWidth="1" min="54" max="54"/>
-    <col width="24" customWidth="1" min="55" max="55"/>
-    <col width="24" customWidth="1" min="56" max="56"/>
-    <col width="28.8" customWidth="1" min="57" max="57"/>
-    <col width="28.8" customWidth="1" min="58" max="58"/>
-    <col width="28.8" customWidth="1" min="59" max="59"/>
-    <col width="27.6" customWidth="1" min="60" max="60"/>
-    <col width="26.4" customWidth="1" min="61" max="61"/>
-    <col width="37.2" customWidth="1" min="62" max="62"/>
-    <col width="37.2" customWidth="1" min="63" max="63"/>
-    <col width="36" customWidth="1" min="64" max="64"/>
-    <col width="36" customWidth="1" min="65" max="65"/>
-    <col width="36" customWidth="1" min="66" max="66"/>
-    <col width="36" customWidth="1" min="67" max="67"/>
-    <col width="37.2" customWidth="1" min="68" max="68"/>
-    <col width="37.2" customWidth="1" min="69" max="69"/>
-    <col width="24" customWidth="1" min="70" max="70"/>
-    <col width="24" customWidth="1" min="71" max="71"/>
-    <col width="24" customWidth="1" min="72" max="72"/>
-    <col width="28.8" customWidth="1" min="73" max="73"/>
-    <col width="28.8" customWidth="1" min="74" max="74"/>
-    <col width="28.8" customWidth="1" min="75" max="75"/>
-    <col width="27.6" customWidth="1" min="76" max="76"/>
-    <col width="26.4" customWidth="1" min="77" max="77"/>
-    <col width="37.2" customWidth="1" min="78" max="78"/>
-    <col width="37.2" customWidth="1" min="79" max="79"/>
-    <col width="36" customWidth="1" min="80" max="80"/>
-    <col width="36" customWidth="1" min="81" max="81"/>
-    <col width="36" customWidth="1" min="82" max="82"/>
-    <col width="36" customWidth="1" min="83" max="83"/>
-    <col width="37.2" customWidth="1" min="84" max="84"/>
-    <col width="37.2" customWidth="1" min="85" max="85"/>
-    <col width="30" customWidth="1" min="86" max="86"/>
-    <col width="27.6" customWidth="1" min="87" max="87"/>
-    <col width="21.6" customWidth="1" min="88" max="88"/>
-    <col width="27.6" customWidth="1" min="89" max="89"/>
-    <col width="24" customWidth="1" min="90" max="90"/>
-    <col width="28.8" customWidth="1" min="91" max="91"/>
-    <col width="30" customWidth="1" min="92" max="92"/>
-    <col width="19.2" customWidth="1" min="93" max="93"/>
-    <col width="19.2" customWidth="1" min="94" max="94"/>
-    <col width="25.2" customWidth="1" min="95" max="95"/>
-    <col width="24" customWidth="1" min="96" max="96"/>
-    <col width="25.2" customWidth="1" min="97" max="97"/>
-    <col width="25.2" customWidth="1" min="98" max="98"/>
-    <col width="22.8" customWidth="1" min="99" max="99"/>
-    <col width="22.8" customWidth="1" min="100" max="100"/>
-    <col width="33.6" customWidth="1" min="101" max="101"/>
-    <col width="21.6" customWidth="1" min="102" max="102"/>
-    <col width="15.6" customWidth="1" min="103" max="103"/>
-    <col width="28.8" customWidth="1" min="104" max="104"/>
-    <col width="28.8" customWidth="1" min="105" max="105"/>
-    <col width="30" customWidth="1" min="106" max="106"/>
-    <col width="30" customWidth="1" min="107" max="107"/>
-    <col width="32.4" customWidth="1" min="108" max="108"/>
-    <col width="30" customWidth="1" min="109" max="109"/>
-    <col width="22.8" customWidth="1" min="110" max="110"/>
-    <col width="24" customWidth="1" min="111" max="111"/>
-    <col width="24" customWidth="1" min="112" max="112"/>
+    <col width="9.6" customWidth="1" min="47" max="47"/>
+    <col width="9.6" customWidth="1" min="48" max="48"/>
+    <col width="9.6" customWidth="1" min="49" max="49"/>
+    <col width="9.6" customWidth="1" min="50" max="50"/>
+    <col width="9.6" customWidth="1" min="51" max="51"/>
+    <col width="9.6" customWidth="1" min="52" max="52"/>
+    <col width="7.199999999999999" customWidth="1" min="53" max="53"/>
+    <col width="18" customWidth="1" min="54" max="54"/>
+    <col width="18" customWidth="1" min="55" max="55"/>
+    <col width="22.8" customWidth="1" min="56" max="56"/>
+    <col width="21.6" customWidth="1" min="57" max="57"/>
+    <col width="32.4" customWidth="1" min="58" max="58"/>
+    <col width="32.4" customWidth="1" min="59" max="59"/>
+    <col width="31.2" customWidth="1" min="60" max="60"/>
+    <col width="31.2" customWidth="1" min="61" max="61"/>
+    <col width="31.2" customWidth="1" min="62" max="62"/>
+    <col width="31.2" customWidth="1" min="63" max="63"/>
+    <col width="18" customWidth="1" min="64" max="64"/>
+    <col width="18" customWidth="1" min="65" max="65"/>
+    <col width="22.8" customWidth="1" min="66" max="66"/>
+    <col width="21.6" customWidth="1" min="67" max="67"/>
+    <col width="32.4" customWidth="1" min="68" max="68"/>
+    <col width="32.4" customWidth="1" min="69" max="69"/>
+    <col width="31.2" customWidth="1" min="70" max="70"/>
+    <col width="31.2" customWidth="1" min="71" max="71"/>
+    <col width="31.2" customWidth="1" min="72" max="72"/>
+    <col width="31.2" customWidth="1" min="73" max="73"/>
+    <col width="30" customWidth="1" min="74" max="74"/>
+    <col width="27.6" customWidth="1" min="75" max="75"/>
+    <col width="21.6" customWidth="1" min="76" max="76"/>
+    <col width="27.6" customWidth="1" min="77" max="77"/>
+    <col width="24" customWidth="1" min="78" max="78"/>
+    <col width="28.8" customWidth="1" min="79" max="79"/>
+    <col width="30" customWidth="1" min="80" max="80"/>
+    <col width="19.2" customWidth="1" min="81" max="81"/>
+    <col width="19.2" customWidth="1" min="82" max="82"/>
+    <col width="25.2" customWidth="1" min="83" max="83"/>
+    <col width="24" customWidth="1" min="84" max="84"/>
+    <col width="25.2" customWidth="1" min="85" max="85"/>
+    <col width="25.2" customWidth="1" min="86" max="86"/>
+    <col width="22.8" customWidth="1" min="87" max="87"/>
+    <col width="22.8" customWidth="1" min="88" max="88"/>
+    <col width="33.6" customWidth="1" min="89" max="89"/>
+    <col width="21.6" customWidth="1" min="90" max="90"/>
+    <col width="15.6" customWidth="1" min="91" max="91"/>
+    <col width="28.8" customWidth="1" min="92" max="92"/>
+    <col width="28.8" customWidth="1" min="93" max="93"/>
+    <col width="30" customWidth="1" min="94" max="94"/>
+    <col width="30" customWidth="1" min="95" max="95"/>
+    <col width="32.4" customWidth="1" min="96" max="96"/>
+    <col width="30" customWidth="1" min="97" max="97"/>
+    <col width="22.8" customWidth="1" min="98" max="98"/>
+    <col width="24" customWidth="1" min="99" max="99"/>
+    <col width="24" customWidth="1" min="100" max="100"/>
+    <col width="18" customWidth="1" min="101" max="101"/>
+    <col width="24" customWidth="1" min="102" max="102"/>
+    <col width="24" customWidth="1" min="103" max="103"/>
+    <col width="24" customWidth="1" min="104" max="104"/>
+    <col width="32.4" customWidth="1" min="105" max="105"/>
+    <col width="32.4" customWidth="1" min="106" max="106"/>
+    <col width="18" customWidth="1" min="107" max="107"/>
+    <col width="24" customWidth="1" min="108" max="108"/>
+    <col width="24" customWidth="1" min="109" max="109"/>
+    <col width="24" customWidth="1" min="110" max="110"/>
+    <col width="32.4" customWidth="1" min="111" max="111"/>
+    <col width="32.4" customWidth="1" min="112" max="112"/>
     <col width="22.8" customWidth="1" min="113" max="113"/>
     <col width="28.8" customWidth="1" min="114" max="114"/>
     <col width="25.2" customWidth="1" min="115" max="115"/>
@@ -610,7 +610,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>avg_totalGoalCount</t>
+          <t>totalGoalCount</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>avg_totalCornerCount</t>
+          <t>totalCornerCount</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -665,37 +665,37 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>avg_overallGoalCount</t>
+          <t>overallGoalCount</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>avg_ht_goals_team_a</t>
+          <t>ht_goals_team_a</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>avg_ht_goals_team_b</t>
+          <t>ht_goals_team_b</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>avg_goals_2hg_team_a</t>
+          <t>goals_2hg_team_a</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>avg_goals_2hg_team_b</t>
+          <t>goals_2hg_team_b</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>avg_GoalCount_2hg</t>
+          <t>GoalCount_2hg</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>avg_HTGoalCount</t>
+          <t>HTGoalCount</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>avg_corner_fh_count</t>
+          <t>corner_fh_count</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>avg_corner_2h_count</t>
+          <t>corner_2h_count</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
@@ -730,12 +730,12 @@
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>avg_total_fh_cards</t>
+          <t>total_fh_cards</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>avg_total_2h_cards</t>
+          <t>total_2h_cards</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>avg_total_xg</t>
+          <t>total_xg</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
@@ -805,332 +805,332 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>avg_over05</t>
+          <t>over05</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>avg_over15</t>
+          <t>over15</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>avg_over25</t>
+          <t>over25</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>avg_over35</t>
+          <t>over35</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>avg_over45</t>
+          <t>over45</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>avg_over55</t>
+          <t>over55</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>avg_btts</t>
+          <t>btts</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_1</t>
+          <t>avg_odds_ft_1</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_x</t>
+          <t>avg_odds_ft_x</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_2</t>
+          <t>avg_odds_btts_yes</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_over15</t>
+          <t>avg_odds_btts_no</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_over25</t>
+          <t>avg_odds_corners_under_85</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_ft_over35</t>
+          <t>avg_odds_corners_under_95</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_btts_yes</t>
+          <t>avg_odds_corners_over_85</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_btts_no</t>
+          <t>avg_odds_corners_over_95</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_corners_under_85</t>
+          <t>avg_odds_1st_half_over05</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_corners_under_95</t>
+          <t>avg_odds_1st_half_over15</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_corners_over_85</t>
+          <t>pinnacle_ft_1</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_corners_over_95</t>
+          <t>pinnacle_ft_x</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_1st_half_over05</t>
+          <t>pinnacle_btts_yes</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_1st_half_over15</t>
+          <t>pinnacle_btts_no</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_1st_half_under05</t>
+          <t>pinnacle_corners_under_85</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>avg_avg_odds_1st_half_under15</t>
+          <t>pinnacle_corners_under_95</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_1</t>
+          <t>pinnacle_corners_over_85</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_x</t>
+          <t>pinnacle_corners_over_95</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_2</t>
+          <t>pinnacle_1st_half_over05</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_over15</t>
+          <t>pinnacle_1st_half_over15</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_over25</t>
+          <t>away_avg_goals_conceded</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_ft_over35</t>
+          <t>away_avg_goals_scored</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_btts_yes</t>
+          <t>away_avg_corners</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_btts_no</t>
+          <t>away_avg_yellow_cards</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_corners_under_85</t>
+          <t>away_avg_red_cards</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_corners_under_95</t>
+          <t>away_avg_shotsOnTarget</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_corners_over_85</t>
+          <t>away_avg_shotsOffTarget</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_corners_over_95</t>
+          <t>away_avg_shots</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_1st_half_over05</t>
+          <t>away_avg_fouls</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_1st_half_over15</t>
+          <t>away_avg_possession</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_1st_half_under05</t>
+          <t>away_avg_cards_num</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>avg_pinnacle_1st_half_under15</t>
+          <t>away_avg_fh_corners</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_goals_conceded</t>
+          <t>away_avg_2h_corners</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_goals_scored</t>
+          <t>away_avg_fh_cards</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_corners</t>
+          <t>away_avg_2h_cards</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_yellow_cards</t>
+          <t>away_avg_dangerous_attacks</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_red_cards</t>
+          <t>away_avg_attacks</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_shotsOnTarget</t>
+          <t>away_avg_xg</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_shotsOffTarget</t>
+          <t>away_avg_penalties_won</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_shots</t>
+          <t>away_avg_penalty_goals</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_fouls</t>
+          <t>away_avg_penalty_missed</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_possession</t>
+          <t>away_avg_0_10_min_goals</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_cards_num</t>
+          <t>away_avg_corners_0_10_min</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_fh_corners</t>
+          <t>away_avg_cards_0_10_min</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_2h_corners</t>
+          <t>away_avg_throwins</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_fh_cards</t>
+          <t>away_avg_freekicks</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_2h_cards</t>
+          <t>away_avg_goalkicks</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_dangerous_attacks</t>
+          <t>avg_odds_ft_2</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_attacks</t>
+          <t>avg_odds_ft_over15</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_xg</t>
+          <t>avg_odds_ft_over25</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_penalties_won</t>
+          <t>avg_odds_ft_over35</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_penalty_goals</t>
+          <t>avg_odds_1st_half_under05</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_penalty_missed</t>
+          <t>avg_odds_1st_half_under15</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_0_10_min_goals</t>
+          <t>pinnacle_ft_2</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_corners_0_10_min</t>
+          <t>pinnacle_ft_over15</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_cards_0_10_min</t>
+          <t>pinnacle_ft_over25</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_throwins</t>
+          <t>pinnacle_ft_over35</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_freekicks</t>
+          <t>pinnacle_1st_half_under05</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>away_avg_goalkicks</t>
+          <t>pinnacle_1st_half_under15</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
@@ -1286,13 +1286,13 @@
         <v>0.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.083333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>9.915833333333333</v>
+        <v>10.4</v>
       </c>
       <c r="K2" t="n">
         <v>1.43</v>
@@ -1319,25 +1319,25 @@
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.083333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4158333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="U2" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8325</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6641666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="X2" t="n">
-        <v>1.5025</v>
+        <v>1.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.5808333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="Z2" t="n">
         <v>3.71</v>
@@ -1346,10 +1346,10 @@
         <v>2.29</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.4975</v>
+        <v>5.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.418333333333333</v>
+        <v>5.2</v>
       </c>
       <c r="AD2" t="n">
         <v>0.43</v>
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.085833333333333</v>
+        <v>0.8</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.248333333333334</v>
+        <v>3.4</v>
       </c>
       <c r="AH2" t="n">
         <v>54.86</v>
@@ -1373,7 +1373,7 @@
         <v>1.61</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.554166666666667</v>
+        <v>2.69</v>
       </c>
       <c r="AL2" t="n">
         <v>0.43</v>
@@ -1403,200 +1403,200 @@
         <v>4.14</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.5008333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.3358333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.4175</v>
+        <v>0.4</v>
       </c>
       <c r="BB2" t="n">
-        <v>2.121666666666667</v>
+        <v>1.58</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.570833333333333</v>
+        <v>3.83</v>
       </c>
       <c r="BD2" t="n">
-        <v>4.936666666666667</v>
+        <v>1.89</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.393333333333333</v>
+        <v>1.88</v>
       </c>
       <c r="BF2" t="n">
-        <v>2.265</v>
+        <v>2.22</v>
       </c>
       <c r="BG2" t="n">
-        <v>4.119166666666668</v>
+        <v>1.76</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.105</v>
+        <v>1.58</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.735</v>
+        <v>2.16</v>
       </c>
       <c r="BJ2" t="n">
-        <v>2.265</v>
+        <v>1.43</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.781666666666667</v>
+        <v>3.13</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.564166666666667</v>
+        <v>1.62</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.070833333333333</v>
+        <v>3.81</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.446666666666667</v>
+        <v>1.98</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.119166666666667</v>
+        <v>1.9</v>
       </c>
       <c r="BP2" t="n">
-        <v>2.631666666666667</v>
+        <v>2.22</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.330833333333334</v>
+        <v>1.76</v>
       </c>
       <c r="BR2" t="n">
-        <v>2.284166666666667</v>
+        <v>1.66</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.556666666666667</v>
+        <v>2.09</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.048333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.42625</v>
+        <v>3.24</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.345416666666667</v>
-      </c>
-      <c r="BW2" t="inlineStr"/>
+        <v>1.4</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.8</v>
+      </c>
       <c r="BX2" t="n">
-        <v>2.1775</v>
+        <v>5</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.765833333333333</v>
+        <v>2.2</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.266666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.775416666666667</v>
+        <v>4</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.643541666666667</v>
+        <v>7.4</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.0725</v>
+        <v>11.4</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.48625</v>
+        <v>10.8</v>
       </c>
       <c r="CE2" t="n">
-        <v>3.269166666666667</v>
+        <v>48.8</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.689166666666666</v>
+        <v>3</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.348611111111111</v>
+        <v>2</v>
       </c>
       <c r="CH2" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>21</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="CX2" t="n">
         <v>1.4</v>
       </c>
-      <c r="CI2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>5</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>4</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>2</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>99.59999999999999</v>
-      </c>
       <c r="CY2" t="n">
-        <v>1.34</v>
+        <v>2.26</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="DA2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="DB2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="DC2" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.2</v>
+        <v>1.44</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>21</v>
-      </c>
+        <v>2.4</v>
+      </c>
+      <c r="DF2" t="inlineStr"/>
       <c r="DG2" t="n">
-        <v>13.8</v>
+        <v>2.66</v>
       </c>
       <c r="DH2" t="n">
-        <v>6.8</v>
+        <v>1.35</v>
       </c>
       <c r="DI2" t="n">
         <v>5.58</v>
@@ -1701,13 +1701,13 @@
         <v>0.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9175</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
         <v>9.57</v>
       </c>
       <c r="J3" t="n">
-        <v>10.50166666666667</v>
+        <v>7.2</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -1734,25 +1734,25 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.9175</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>0.585</v>
+        <v>0.2</v>
       </c>
       <c r="U3" t="n">
-        <v>0.8308333333333332</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.330833333333333</v>
+        <v>0.8</v>
       </c>
       <c r="W3" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="X3" t="n">
-        <v>1.501666666666667</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.415833333333333</v>
+        <v>1.2</v>
       </c>
       <c r="Z3" t="n">
         <v>5.71</v>
@@ -1761,10 +1761,10 @@
         <v>3.86</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.749166666666667</v>
+        <v>3.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.7525</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
         <v>0.57</v>
@@ -1773,10 +1773,10 @@
         <v>1.43</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.083333333333333</v>
+        <v>1.2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.498333333333333</v>
+        <v>2.6</v>
       </c>
       <c r="AH3" t="n">
         <v>62.14</v>
@@ -1788,7 +1788,7 @@
         <v>1.95</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.825000000000001</v>
+        <v>2.82</v>
       </c>
       <c r="AL3" t="n">
         <v>0.29</v>
@@ -1821,199 +1821,199 @@
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.9183333333333333</v>
+        <v>1</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.4158333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.2508333333333333</v>
+        <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1691666666666667</v>
+        <v>0</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.08166666666666668</v>
+        <v>0</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.6658333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="BB3" t="n">
-        <v>3.041666666666667</v>
+        <v>1.62</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.408333333333333</v>
+        <v>4.98</v>
       </c>
       <c r="BD3" t="n">
-        <v>5.408333333333334</v>
+        <v>1.91</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.26</v>
+        <v>1.89</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.874166666666667</v>
+        <v>2.16</v>
       </c>
       <c r="BG3" t="n">
-        <v>3.105833333333333</v>
+        <v>1.73</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.916666666666667</v>
+        <v>1.63</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.895833333333333</v>
+        <v>2.14</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2.341666666666667</v>
+        <v>1.43</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.829166666666666</v>
+        <v>2.95</v>
       </c>
       <c r="BL3" t="n">
-        <v>1.5525</v>
+        <v>1.68</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.978333333333333</v>
+        <v>5.06</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.358333333333333</v>
+        <v>1.96</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.676666666666667</v>
+        <v>1.95</v>
       </c>
       <c r="BP3" t="n">
-        <v>3.098333333333333</v>
+        <v>2.24</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.464166666666667</v>
+        <v>1.77</v>
       </c>
       <c r="BR3" t="n">
-        <v>3.056666666666667</v>
+        <v>1.65</v>
       </c>
       <c r="BS3" t="n">
-        <v>4.498333333333332</v>
+        <v>2.07</v>
       </c>
       <c r="BT3" t="n">
-        <v>5.614999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="BU3" t="n">
-        <v>1.308333333333333</v>
+        <v>3.04</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.908333333333333</v>
+        <v>1</v>
       </c>
       <c r="BW3" t="n">
-        <v>3.094166666666667</v>
+        <v>1.2</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.0025</v>
+        <v>4.6</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.914166666666667</v>
+        <v>1.8</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2.34125</v>
+        <v>0.4</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.852708333333333</v>
+        <v>4.4</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.603333333333333</v>
+        <v>7</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.993125</v>
+        <v>11.4</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.380625</v>
+        <v>12.4</v>
       </c>
       <c r="CE3" t="n">
-        <v>2.755208333333333</v>
+        <v>52.2</v>
       </c>
       <c r="CF3" t="n">
-        <v>3.120625</v>
+        <v>2.4</v>
       </c>
       <c r="CG3" t="n">
-        <v>1.474791666666667</v>
+        <v>2</v>
       </c>
       <c r="CH3" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="CI3" t="n">
         <v>1</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CJ3" t="n">
         <v>1.2</v>
       </c>
-      <c r="CJ3" t="n">
-        <v>4.6</v>
-      </c>
       <c r="CK3" t="n">
-        <v>1.8</v>
+        <v>48.4</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.4</v>
+        <v>101.6</v>
       </c>
       <c r="CM3" t="n">
-        <v>4.4</v>
+        <v>1.38</v>
       </c>
       <c r="CN3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>11.4</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>52.2</v>
+        <v>0.6</v>
       </c>
       <c r="CR3" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="CS3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>2.6</v>
+        <v>16</v>
       </c>
       <c r="CU3" t="n">
-        <v>1</v>
+        <v>10.2</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.2</v>
+        <v>9.4</v>
       </c>
       <c r="CW3" t="n">
-        <v>48.4</v>
+        <v>1.88</v>
       </c>
       <c r="CX3" t="n">
-        <v>101.6</v>
+        <v>1.32</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.38</v>
+        <v>2.05</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="DA3" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="DB3" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.6</v>
+        <v>1.83</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.6</v>
+        <v>1.35</v>
       </c>
       <c r="DE3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="DF3" t="n">
-        <v>16</v>
+        <v>3.38</v>
       </c>
       <c r="DG3" t="n">
-        <v>10.2</v>
+        <v>2.9</v>
       </c>
       <c r="DH3" t="n">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="DI3" t="n">
         <v>7.5</v>
@@ -2118,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.29</v>
       </c>
       <c r="I4" t="n">
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>7.25</v>
+        <v>7.43</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -2151,25 +2151,25 @@
         <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.833333333333333</v>
+        <v>1.29</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.29</v>
       </c>
       <c r="U4" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.86</v>
       </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.86</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.43</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
@@ -2178,10 +2178,10 @@
         <v>0.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.083333333333333</v>
+        <v>3.29</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.416666666666667</v>
+        <v>4.14</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -2190,10 +2190,10 @@
         <v>1.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.5</v>
+        <v>2.43</v>
       </c>
       <c r="AH4" t="n">
         <v>50.4</v>
@@ -2205,7 +2205,7 @@
         <v>1.42</v>
       </c>
       <c r="AK4" t="n">
-        <v>2.656666666666667</v>
+        <v>2.66</v>
       </c>
       <c r="AL4" t="n">
         <v>0.2</v>
@@ -2235,200 +2235,202 @@
         <v>7</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.86</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="BB4" t="n">
-        <v>2.060833333333333</v>
+        <v>2.26</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.645</v>
+        <v>3.03</v>
       </c>
       <c r="BD4" t="n">
-        <v>4.860833333333333</v>
+        <v>1.95</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.391666666666667</v>
+        <v>1.82</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.195833333333333</v>
+        <v>2.43</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.9575</v>
+        <v>1.86</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.999166666666667</v>
+        <v>1.51</v>
       </c>
       <c r="BI4" t="n">
-        <v>1.784166666666667</v>
+        <v>1.88</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2.2575</v>
+        <v>1.39</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.785</v>
+        <v>2.84</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.589166666666667</v>
+        <v>2.34</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.991666666666667</v>
+        <v>3.14</v>
       </c>
       <c r="BN4" t="n">
-        <v>1.454166666666667</v>
+        <v>2.03</v>
       </c>
       <c r="BO4" t="n">
-        <v>3.063333333333333</v>
+        <v>1.85</v>
       </c>
       <c r="BP4" t="n">
-        <v>2.7575</v>
+        <v>2.38</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.355</v>
+        <v>1.93</v>
       </c>
       <c r="BR4" t="n">
-        <v>2.1575</v>
+        <v>1.57</v>
       </c>
       <c r="BS4" t="n">
-        <v>3.743333333333334</v>
+        <v>1.92</v>
       </c>
       <c r="BT4" t="n">
-        <v>5.0925</v>
+        <v>1.44</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.432222222222222</v>
+        <v>2.82</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.313333333333333</v>
-      </c>
-      <c r="BW4" t="inlineStr"/>
+        <v>1.14</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>0.14</v>
+      </c>
       <c r="BX4" t="n">
-        <v>2.083333333333333</v>
+        <v>2.57</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.825833333333333</v>
+        <v>1.86</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.26625</v>
+        <v>0.29</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.8275</v>
+        <v>2.43</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.666805555555555</v>
+        <v>6</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.0525</v>
+        <v>8.43</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.487</v>
+        <v>12.14</v>
       </c>
       <c r="CE4" t="n">
-        <v>3.045</v>
+        <v>44</v>
       </c>
       <c r="CF4" t="n">
-        <v>2.723</v>
+        <v>2.29</v>
       </c>
       <c r="CG4" t="n">
-        <v>1.418166666666667</v>
+        <v>1.43</v>
       </c>
       <c r="CH4" t="n">
         <v>1.14</v>
       </c>
       <c r="CI4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>35.57</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CN4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CJ4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="CL4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>6</v>
-      </c>
       <c r="CO4" t="n">
-        <v>8.43</v>
+        <v>0.14</v>
       </c>
       <c r="CP4" t="n">
-        <v>12.14</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.29</v>
+        <v>0.14</v>
       </c>
       <c r="CS4" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>1.14</v>
+        <v>16.71</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.71</v>
+        <v>12.29</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.43</v>
+        <v>10</v>
       </c>
       <c r="CW4" t="n">
-        <v>35.57</v>
+        <v>5.81</v>
       </c>
       <c r="CX4" t="n">
-        <v>80.56999999999999</v>
+        <v>1.32</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.97</v>
+        <v>2.02</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.14</v>
+        <v>3.44</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.14</v>
+        <v>2.98</v>
       </c>
       <c r="DB4" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="DC4" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.14</v>
+        <v>1.38</v>
       </c>
       <c r="DE4" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="DF4" t="n">
-        <v>16.71</v>
+        <v>3.05</v>
       </c>
       <c r="DG4" t="n">
-        <v>12.29</v>
+        <v>2.87</v>
       </c>
       <c r="DH4" t="n">
-        <v>10</v>
+        <v>1.47</v>
       </c>
       <c r="DI4" t="n">
         <v>2.67</v>
@@ -2533,13 +2535,13 @@
         <v>1.17</v>
       </c>
       <c r="H5" t="n">
-        <v>2.454545454545455</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>6.17</v>
       </c>
       <c r="J5" t="n">
-        <v>9.816363636363636</v>
+        <v>8.6</v>
       </c>
       <c r="K5" t="n">
         <v>1.5</v>
@@ -2566,25 +2568,25 @@
         <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>2.454545454545455</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3654545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8</v>
       </c>
       <c r="V5" t="n">
-        <v>0.729090909090909</v>
+        <v>0.8</v>
       </c>
       <c r="W5" t="n">
-        <v>0.729090909090909</v>
+        <v>0.8</v>
       </c>
       <c r="X5" t="n">
-        <v>1.452727272727273</v>
+        <v>1.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.001818181818182</v>
+        <v>1.4</v>
       </c>
       <c r="Z5" t="n">
         <v>1.83</v>
@@ -2593,10 +2595,10 @@
         <v>4.33</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.543636363636364</v>
+        <v>3.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.454545454545454</v>
+        <v>3.6</v>
       </c>
       <c r="AD5" t="n">
         <v>0.33</v>
@@ -2605,10 +2607,10 @@
         <v>1.33</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.547272727272727</v>
+        <v>1.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>3.089090909090909</v>
+        <v>4</v>
       </c>
       <c r="AH5" t="n">
         <v>59.17</v>
@@ -2620,7 +2622,7 @@
         <v>1.52</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.814545454545454</v>
+        <v>2.9</v>
       </c>
       <c r="AL5" t="n">
         <v>0.17</v>
@@ -2656,196 +2658,196 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.2</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.9072727272727273</v>
+        <v>1</v>
       </c>
       <c r="BB5" t="n">
-        <v>2.659090909090909</v>
+        <v>2.59</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.413636363636364</v>
+        <v>3.55</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.246363636363637</v>
+        <v>1.82</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.316363636363636</v>
+        <v>1.99</v>
       </c>
       <c r="BF5" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="BG5" t="n">
-        <v>3.47090909090909</v>
+        <v>1.74</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.830909090909091</v>
+        <v>1.64</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.983636363636364</v>
+        <v>2.09</v>
       </c>
       <c r="BJ5" t="n">
-        <v>2.139090909090909</v>
+        <v>1.44</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.734545454545454</v>
+        <v>3</v>
       </c>
       <c r="BL5" t="n">
-        <v>1.641818181818182</v>
+        <v>2.64</v>
       </c>
       <c r="BM5" t="n">
-        <v>2.180909090909091</v>
+        <v>3.59</v>
       </c>
       <c r="BN5" t="n">
-        <v>1.419090909090909</v>
+        <v>1.8</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.947272727272727</v>
+        <v>2.1</v>
       </c>
       <c r="BP5" t="n">
-        <v>2.810909090909091</v>
+        <v>2.23</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.390909090909091</v>
+        <v>1.76</v>
       </c>
       <c r="BR5" t="n">
-        <v>2.718181818181818</v>
+        <v>1.68</v>
       </c>
       <c r="BS5" t="n">
-        <v>3.49</v>
+        <v>2.12</v>
       </c>
       <c r="BT5" t="n">
-        <v>3.376363636363636</v>
+        <v>1.42</v>
       </c>
       <c r="BU5" t="n">
-        <v>1.331818181818182</v>
+        <v>3.1</v>
       </c>
       <c r="BV5" t="n">
-        <v>2.045454545454545</v>
+        <v>1.4</v>
       </c>
       <c r="BW5" t="n">
-        <v>3.223030303030303</v>
+        <v>1.6</v>
       </c>
       <c r="BX5" t="n">
-        <v>1.832727272727273</v>
+        <v>3.8</v>
       </c>
       <c r="BY5" t="n">
-        <v>2.090909090909091</v>
+        <v>2.8</v>
       </c>
       <c r="BZ5" t="n">
-        <v>2.225681818181819</v>
+        <v>0</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.750227272727273</v>
+        <v>4</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.686590909090909</v>
+        <v>7.2</v>
       </c>
       <c r="CC5" t="n">
-        <v>2.129772727272727</v>
+        <v>11.2</v>
       </c>
       <c r="CD5" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="CG5" t="n">
         <v>1.4</v>
       </c>
-      <c r="CE5" t="n">
-        <v>2.974545454545455</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>3.005454545454546</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>1.409090909090909</v>
-      </c>
       <c r="CH5" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="CI5" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="CJ5" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.8</v>
+        <v>37.8</v>
       </c>
       <c r="CL5" t="n">
-        <v>0</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="CM5" t="n">
-        <v>4</v>
+        <v>1.27</v>
       </c>
       <c r="CN5" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="CO5" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>2.8</v>
+        <v>-0.2</v>
       </c>
       <c r="CS5" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>1.6</v>
+        <v>19.2</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.8</v>
+        <v>10.4</v>
       </c>
       <c r="CV5" t="n">
-        <v>2</v>
+        <v>9.4</v>
       </c>
       <c r="CW5" t="n">
-        <v>37.8</v>
+        <v>2.74</v>
       </c>
       <c r="CX5" t="n">
-        <v>83.59999999999999</v>
+        <v>1.34</v>
       </c>
       <c r="CY5" t="n">
-        <v>1.27</v>
+        <v>2.1</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="DA5" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="DB5" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="DC5" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.2</v>
+        <v>1.33</v>
       </c>
       <c r="DE5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="DF5" t="n">
-        <v>19.2</v>
+        <v>3.29</v>
       </c>
       <c r="DG5" t="n">
-        <v>10.4</v>
+        <v>2.92</v>
       </c>
       <c r="DH5" t="n">
-        <v>9.4</v>
+        <v>1.38</v>
       </c>
       <c r="DI5" t="n">
         <v>5.09</v>
@@ -2950,13 +2952,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="I6" t="n">
         <v>6.17</v>
       </c>
       <c r="J6" t="n">
-        <v>9.751666666666667</v>
+        <v>9.83</v>
       </c>
       <c r="K6" t="n">
         <v>1.67</v>
@@ -2983,25 +2985,25 @@
         <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.833333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6649999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="U6" t="n">
-        <v>0.165</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0.5016666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="W6" t="n">
-        <v>0.5016666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9983333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.835</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" t="n">
         <v>2.5</v>
@@ -3010,10 +3012,10 @@
         <v>3.67</v>
       </c>
       <c r="AB6" t="n">
-        <v>4.668333333333333</v>
+        <v>5.17</v>
       </c>
       <c r="AC6" t="n">
-        <v>5.083333333333333</v>
+        <v>4.67</v>
       </c>
       <c r="AD6" t="n">
         <v>0.83</v>
@@ -3022,10 +3024,10 @@
         <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.831666666666667</v>
+        <v>1.83</v>
       </c>
       <c r="AG6" t="n">
-        <v>2.831666666666667</v>
+        <v>2.83</v>
       </c>
       <c r="AH6" t="n">
         <v>46</v>
@@ -3037,7 +3039,7 @@
         <v>1.44</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.571666666666667</v>
+        <v>2.56</v>
       </c>
       <c r="AL6" t="n">
         <v>0.5</v>
@@ -3067,16 +3069,16 @@
         <v>6.33</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.4983333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.335</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
@@ -3085,182 +3087,182 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.4983333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.4425</v>
+        <v>2.79</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.1225</v>
+        <v>3.09</v>
       </c>
       <c r="BD6" t="n">
-        <v>3.69</v>
+        <v>2.23</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.506666666666667</v>
+        <v>1.64</v>
       </c>
       <c r="BF6" t="n">
-        <v>2.548333333333333</v>
+        <v>2.19</v>
       </c>
       <c r="BG6" t="n">
-        <v>5.168333333333333</v>
+        <v>1.74</v>
       </c>
       <c r="BH6" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2.245833333333333</v>
+        <v>1.61</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.770833333333333</v>
+        <v>3.54</v>
       </c>
       <c r="BL6" t="n">
-        <v>1.593333333333333</v>
+        <v>2.88</v>
       </c>
       <c r="BM6" t="n">
-        <v>2.2</v>
+        <v>3.18</v>
       </c>
       <c r="BN6" t="n">
-        <v>1.565</v>
+        <v>2.33</v>
       </c>
       <c r="BO6" t="n">
-        <v>3.4675</v>
+        <v>1.68</v>
       </c>
       <c r="BP6" t="n">
-        <v>2.4025</v>
+        <v>2.17</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.275833333333333</v>
+        <v>1.72</v>
       </c>
       <c r="BR6" t="n">
-        <v>2.49</v>
+        <v>1.73</v>
       </c>
       <c r="BS6" t="n">
-        <v>3.216666666666667</v>
+        <v>2.18</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.974166666666667</v>
+        <v>1.48</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.521666666666667</v>
+        <v>3.35</v>
       </c>
       <c r="BV6" t="n">
-        <v>2.633333333333333</v>
-      </c>
-      <c r="BW6" t="inlineStr"/>
+        <v>0.83</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.33</v>
+      </c>
       <c r="BX6" t="n">
-        <v>2.235</v>
+        <v>4.83</v>
       </c>
       <c r="BY6" t="n">
-        <v>1.726666666666667</v>
+        <v>3</v>
       </c>
       <c r="BZ6" t="n">
-        <v>2.254166666666667</v>
+        <v>0</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.7775</v>
+        <v>3.5</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.665833333333333</v>
+        <v>7</v>
       </c>
       <c r="CC6" t="n">
-        <v>2.091666666666666</v>
+        <v>10.5</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.52</v>
+        <v>17</v>
       </c>
       <c r="CE6" t="n">
-        <v>3.313333333333333</v>
+        <v>50.33</v>
       </c>
       <c r="CF6" t="n">
-        <v>2.61</v>
+        <v>3</v>
       </c>
       <c r="CG6" t="n">
-        <v>1.341666666666667</v>
+        <v>2.67</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.83</v>
+        <v>2.17</v>
       </c>
       <c r="CI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>41.83</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>98.67</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>0.33</v>
       </c>
-      <c r="CJ6" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>3</v>
-      </c>
-      <c r="CL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="CN6" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>3</v>
-      </c>
       <c r="CS6" t="n">
-        <v>2.67</v>
+        <v>0</v>
       </c>
       <c r="CT6" t="n">
-        <v>2.17</v>
+        <v>19.83</v>
       </c>
       <c r="CU6" t="n">
-        <v>1</v>
+        <v>12.83</v>
       </c>
       <c r="CV6" t="n">
-        <v>2</v>
+        <v>8.83</v>
       </c>
       <c r="CW6" t="n">
-        <v>41.83</v>
+        <v>4.23</v>
       </c>
       <c r="CX6" t="n">
-        <v>98.67</v>
+        <v>1.55</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.22</v>
+        <v>2.63</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="DA6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="DB6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="DC6" t="n">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.33</v>
+        <v>1.55</v>
       </c>
       <c r="DE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF6" t="n">
-        <v>19.83</v>
-      </c>
+        <v>2.72</v>
+      </c>
+      <c r="DF6" t="inlineStr"/>
       <c r="DG6" t="n">
-        <v>12.83</v>
+        <v>2.72</v>
       </c>
       <c r="DH6" t="n">
-        <v>8.83</v>
+        <v>1.34</v>
       </c>
       <c r="DI6" t="n">
         <v>5.5</v>
@@ -3365,13 +3367,13 @@
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.251666666666666</v>
+        <v>2.83</v>
       </c>
       <c r="I7" t="n">
         <v>3.67</v>
       </c>
       <c r="J7" t="n">
-        <v>7.585</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
         <v>1.5</v>
@@ -3398,25 +3400,25 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.251666666666666</v>
+        <v>2.83</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5816666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="U7" t="n">
-        <v>0.3316666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="V7" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4183333333333333</v>
+        <v>0.67</v>
       </c>
       <c r="X7" t="n">
-        <v>1.333333333333333</v>
+        <v>1.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9183333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="Z7" t="n">
         <v>2.5</v>
@@ -3425,10 +3427,10 @@
         <v>1.17</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.583333333333333</v>
+        <v>5.67</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.001666666666666</v>
+        <v>3.33</v>
       </c>
       <c r="AD7" t="n">
         <v>0.67</v>
@@ -3437,10 +3439,10 @@
         <v>0.83</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.751666666666667</v>
+        <v>2.33</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.335</v>
+        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>55.5</v>
@@ -3452,7 +3454,7 @@
         <v>1.59</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.6125</v>
+        <v>2.58</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -3482,16 +3484,16 @@
         <v>6.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.7516666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.335</v>
+        <v>0.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
@@ -3500,184 +3502,184 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="BB7" t="n">
-        <v>2.233333333333333</v>
+        <v>2.74</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.6825</v>
+        <v>3.1</v>
       </c>
       <c r="BD7" t="n">
-        <v>4.774999999999999</v>
+        <v>2.02</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.383333333333334</v>
+        <v>1.75</v>
       </c>
       <c r="BF7" t="n">
-        <v>2.173333333333333</v>
+        <v>2.22</v>
       </c>
       <c r="BG7" t="n">
-        <v>3.903333333333334</v>
+        <v>1.75</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.9725</v>
+        <v>1.62</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.796666666666667</v>
+        <v>2.06</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2.191666666666667</v>
+        <v>1.41</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.734166666666667</v>
+        <v>2.9</v>
       </c>
       <c r="BL7" t="n">
-        <v>1.630833333333333</v>
+        <v>3.01</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.064166666666666</v>
+        <v>3.24</v>
       </c>
       <c r="BN7" t="n">
-        <v>1.446666666666667</v>
+        <v>2.16</v>
       </c>
       <c r="BO7" t="n">
-        <v>3.0425</v>
+        <v>1.76</v>
       </c>
       <c r="BP7" t="n">
-        <v>2.734166666666667</v>
+        <v>2.15</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.38</v>
+        <v>1.82</v>
       </c>
       <c r="BR7" t="n">
-        <v>2.384166666666667</v>
+        <v>1.71</v>
       </c>
       <c r="BS7" t="n">
-        <v>3.888333333333333</v>
+        <v>2.04</v>
       </c>
       <c r="BT7" t="n">
-        <v>5.119166666666666</v>
+        <v>1.47</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.409</v>
+        <v>2.88</v>
       </c>
       <c r="BV7" t="n">
-        <v>2.208333333333333</v>
+        <v>1.83</v>
       </c>
       <c r="BW7" t="n">
-        <v>2.82</v>
+        <v>1</v>
       </c>
       <c r="BX7" t="n">
-        <v>2.054</v>
+        <v>2.67</v>
       </c>
       <c r="BY7" t="n">
-        <v>1.841</v>
+        <v>2</v>
       </c>
       <c r="BZ7" t="n">
-        <v>2.168333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.7775</v>
+        <v>3</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.693333333333333</v>
+        <v>5.5</v>
       </c>
       <c r="CC7" t="n">
-        <v>2.08625</v>
+        <v>8.5</v>
       </c>
       <c r="CD7" t="n">
-        <v>1.482</v>
+        <v>13.17</v>
       </c>
       <c r="CE7" t="n">
-        <v>3.12</v>
+        <v>53.5</v>
       </c>
       <c r="CF7" t="n">
-        <v>2.723</v>
+        <v>2.33</v>
       </c>
       <c r="CG7" t="n">
-        <v>1.417</v>
+        <v>1.17</v>
       </c>
       <c r="CH7" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="CI7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CJ7" t="n">
         <v>1</v>
       </c>
-      <c r="CJ7" t="n">
-        <v>2.67</v>
-      </c>
       <c r="CK7" t="n">
-        <v>2</v>
+        <v>34.5</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.17</v>
+        <v>88.83</v>
       </c>
       <c r="CM7" t="n">
-        <v>3</v>
+        <v>1.01</v>
       </c>
       <c r="CN7" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="CO7" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="CP7" t="n">
-        <v>13.17</v>
+        <v>0</v>
       </c>
       <c r="CQ7" t="n">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="CR7" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="CS7" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>1.5</v>
+        <v>16.67</v>
       </c>
       <c r="CU7" t="n">
-        <v>1.17</v>
+        <v>15.83</v>
       </c>
       <c r="CV7" t="n">
-        <v>1</v>
+        <v>7.17</v>
       </c>
       <c r="CW7" t="n">
-        <v>34.5</v>
+        <v>6.6</v>
       </c>
       <c r="CX7" t="n">
-        <v>88.83</v>
+        <v>1.35</v>
       </c>
       <c r="CY7" t="n">
-        <v>1.01</v>
+        <v>2.07</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0</v>
+        <v>3.66</v>
       </c>
       <c r="DA7" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="DB7" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="DC7" t="n">
-        <v>0</v>
+        <v>7.31</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.33</v>
+        <v>1.42</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="DF7" t="n">
-        <v>16.67</v>
+        <v>2.3</v>
       </c>
       <c r="DG7" t="n">
-        <v>15.83</v>
+        <v>2.77</v>
       </c>
       <c r="DH7" t="n">
-        <v>7.17</v>
+        <v>1.49</v>
       </c>
       <c r="DI7" t="n">
         <v>3.17</v>
@@ -3782,13 +3784,13 @@
         <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.727272727272727</v>
+        <v>3.67</v>
       </c>
       <c r="I8" t="n">
         <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>11.72727272727273</v>
+        <v>12.83</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -3815,22 +3817,22 @@
         <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>3.727272727272727</v>
+        <v>3.67</v>
       </c>
       <c r="T8" t="n">
-        <v>1.272727272727273</v>
+        <v>1.17</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.83</v>
       </c>
       <c r="V8" t="n">
-        <v>1.090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0.6363636363636364</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
-        <v>1.727272727272727</v>
+        <v>1.67</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
@@ -3842,10 +3844,10 @@
         <v>2.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.545454545454546</v>
+        <v>6.67</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.181818181818182</v>
+        <v>6.17</v>
       </c>
       <c r="AD8" t="n">
         <v>0.2</v>
@@ -3854,10 +3856,10 @@
         <v>0.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.181818181818182</v>
+        <v>2.83</v>
       </c>
       <c r="AG8" t="n">
-        <v>2.636363636363636</v>
+        <v>3.67</v>
       </c>
       <c r="AH8" t="n">
         <v>60.4</v>
@@ -3869,7 +3871,7 @@
         <v>2.37</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.336363636363636</v>
+        <v>3.48</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -3905,186 +3907,186 @@
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.83</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.33</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.83</v>
       </c>
       <c r="BB8" t="n">
-        <v>4.480909090909091</v>
+        <v>1.23</v>
       </c>
       <c r="BC8" t="n">
-        <v>5.800000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="BD8" t="n">
-        <v>5.61</v>
+        <v>1.68</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.102727272727273</v>
+        <v>2.3</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.394545454545455</v>
+        <v>2.76</v>
       </c>
       <c r="BG8" t="n">
-        <v>2.057272727272727</v>
+        <v>2.14</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.712727272727273</v>
+        <v>1.43</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.17090909090909</v>
+        <v>1.69</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.780909090909091</v>
+        <v>1.21</v>
       </c>
       <c r="BK8" t="n">
-        <v>2.102727272727273</v>
+        <v>2.04</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.674545454545455</v>
+        <v>6.54</v>
       </c>
       <c r="BN8" t="n">
-        <v>1.211818181818182</v>
+        <v>1.7</v>
       </c>
       <c r="BO8" t="n">
-        <v>2.033636363636363</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>4.147272727272727</v>
-      </c>
+        <v>2.41</v>
+      </c>
+      <c r="BP8" t="inlineStr"/>
       <c r="BQ8" t="n">
-        <v>1.818181818181818</v>
-      </c>
-      <c r="BR8" t="n">
-        <v>4.909090909090909</v>
-      </c>
+        <v>2.16</v>
+      </c>
+      <c r="BR8" t="inlineStr"/>
       <c r="BS8" t="n">
-        <v>6.169090909090909</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>6.041818181818183</v>
-      </c>
-      <c r="BU8" t="inlineStr"/>
+        <v>1.71</v>
+      </c>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="n">
+        <v>2.07</v>
+      </c>
       <c r="BV8" t="n">
-        <v>1.418181818181818</v>
+        <v>1.67</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.029090909090909</v>
+        <v>2</v>
       </c>
       <c r="BX8" t="n">
-        <v>1.730909090909091</v>
+        <v>6.67</v>
       </c>
       <c r="BY8" t="n">
-        <v>2.280909090909091</v>
-      </c>
-      <c r="BZ8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0.17</v>
+      </c>
       <c r="CA8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="CB8" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>69.67</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>62.17</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>115.33</v>
+      </c>
+      <c r="CM8" t="n">
         <v>2.19</v>
       </c>
-      <c r="CB8" t="inlineStr"/>
-      <c r="CC8" t="n">
-        <v>1.686363636363636</v>
-      </c>
-      <c r="CD8" t="inlineStr"/>
-      <c r="CE8" t="n">
-        <v>2.036818181818182</v>
-      </c>
-      <c r="CF8" t="inlineStr"/>
-      <c r="CG8" t="n">
-        <v>1.811818181818182</v>
-      </c>
-      <c r="CH8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CI8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CJ8" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL8" t="n">
+      <c r="CN8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>11.83</v>
-      </c>
       <c r="CO8" t="n">
-        <v>19.33</v>
+        <v>0.17</v>
       </c>
       <c r="CP8" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>69.67</v>
+        <v>0.17</v>
       </c>
       <c r="CR8" t="n">
-        <v>2.17</v>
+        <v>0.83</v>
       </c>
       <c r="CS8" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>3.83</v>
+        <v>18.33</v>
       </c>
       <c r="CU8" t="n">
-        <v>1</v>
+        <v>12.67</v>
       </c>
       <c r="CV8" t="n">
-        <v>1.17</v>
+        <v>4.5</v>
       </c>
       <c r="CW8" t="n">
-        <v>62.17</v>
+        <v>1.66</v>
       </c>
       <c r="CX8" t="n">
-        <v>115.33</v>
+        <v>1.11</v>
       </c>
       <c r="CY8" t="n">
-        <v>2.19</v>
+        <v>1.42</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.17</v>
+        <v>2.14</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.17</v>
+        <v>4.06</v>
       </c>
       <c r="DB8" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DD8" t="n">
-        <v>0.83</v>
-      </c>
+        <v>1.74</v>
+      </c>
+      <c r="DD8" t="inlineStr"/>
       <c r="DE8" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="DF8" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="DG8" t="n">
-        <v>12.67</v>
-      </c>
+        <v>2.05</v>
+      </c>
+      <c r="DG8" t="inlineStr"/>
       <c r="DH8" t="n">
-        <v>4.5</v>
+        <v>1.78</v>
       </c>
       <c r="DI8" t="n">
         <v>7</v>
@@ -4189,13 +4191,13 @@
         <v>0.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.272727272727273</v>
+        <v>2.5</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>8.363636363636363</v>
+        <v>8.67</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -4222,25 +4224,25 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.272727272727273</v>
+        <v>2.5</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.83</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.33</v>
       </c>
       <c r="V9" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.67</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.67</v>
       </c>
       <c r="X9" t="n">
-        <v>1.363636363636364</v>
+        <v>1.33</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.17</v>
       </c>
       <c r="Z9" t="n">
         <v>0.8</v>
@@ -4249,10 +4251,10 @@
         <v>2.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.181818181818182</v>
+        <v>3.67</v>
       </c>
       <c r="AC9" t="n">
-        <v>4.363636363636363</v>
+        <v>5</v>
       </c>
       <c r="AD9" t="n">
         <v>0.8</v>
@@ -4261,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.272727272727273</v>
+        <v>1.33</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.636363636363636</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
         <v>40.2</v>
@@ -4276,7 +4278,7 @@
         <v>1.08</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.315454545454545</v>
+        <v>2.25</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -4309,10 +4311,10 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.83</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.67</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -4324,181 +4326,181 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.33</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.427272727272727</v>
+        <v>3.1</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.41</v>
+        <v>3.26</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.708181818181818</v>
+        <v>2.36</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.522727272727273</v>
+        <v>1.59</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.634545454545455</v>
+        <v>1.98</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.125454545454546</v>
+        <v>1.57</v>
       </c>
       <c r="BH9" t="n">
-        <v>2.314545454545454</v>
+        <v>1.77</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.602727272727273</v>
+        <v>2.48</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.925454545454546</v>
+        <v>1.55</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.553636363636364</v>
+        <v>3.53</v>
       </c>
       <c r="BL9" t="n">
-        <v>1.827272727272727</v>
+        <v>3.2</v>
       </c>
       <c r="BM9" t="n">
-        <v>2.567272727272727</v>
+        <v>3.32</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.566363636363636</v>
+        <v>2.44</v>
       </c>
       <c r="BO9" t="n">
-        <v>3.536363636363637</v>
+        <v>1.62</v>
       </c>
       <c r="BP9" t="n">
-        <v>2.440909090909091</v>
+        <v>1.86</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="BR9" t="n">
-        <v>2.481818181818182</v>
+        <v>1.99</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.579090909090909</v>
+        <v>2.39</v>
       </c>
       <c r="BT9" t="n">
-        <v>5.154545454545455</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>1.643454545454546</v>
-      </c>
+        <v>1.66</v>
+      </c>
+      <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="n">
-        <v>2.832727272727273</v>
+        <v>1.5</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.75</v>
+        <v>1</v>
       </c>
       <c r="BX9" t="n">
-        <v>2.445454545454545</v>
+        <v>4.17</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.617272727272727</v>
+        <v>2.5</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.872545454545455</v>
+        <v>0</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.577272727272727</v>
+        <v>2.83</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.970727272727273</v>
+        <v>5</v>
       </c>
       <c r="CC9" t="n">
-        <v>2.421818181818182</v>
+        <v>7.83</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.606818181818182</v>
-      </c>
-      <c r="CE9" t="inlineStr"/>
+        <v>15.33</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>36</v>
+      </c>
       <c r="CF9" t="n">
-        <v>2.404090909090909</v>
-      </c>
-      <c r="CG9" t="inlineStr"/>
+        <v>2.5</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>1.67</v>
+      </c>
       <c r="CH9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>37.67</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>89.83</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>23.83</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>13</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="CX9" t="n">
         <v>1.5</v>
       </c>
-      <c r="CI9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>36</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>37.67</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>89.83</v>
-      </c>
       <c r="CY9" t="n">
-        <v>0.97</v>
+        <v>2.59</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0</v>
+        <v>4.86</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>6.19</v>
       </c>
       <c r="DD9" t="n">
-        <v>0.33</v>
+        <v>1.64</v>
       </c>
       <c r="DE9" t="n">
-        <v>0.17</v>
+        <v>2.7</v>
       </c>
       <c r="DF9" t="n">
-        <v>23.83</v>
+        <v>2.15</v>
       </c>
       <c r="DG9" t="n">
-        <v>13</v>
-      </c>
-      <c r="DH9" t="n">
-        <v>7.67</v>
-      </c>
+        <v>2.26</v>
+      </c>
+      <c r="DH9" t="inlineStr"/>
       <c r="DI9" t="n">
         <v>4.18</v>
       </c>
@@ -4602,13 +4604,13 @@
         <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>2.918333333333333</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>6.14</v>
       </c>
       <c r="J10" t="n">
-        <v>10.66666666666667</v>
+        <v>11.6</v>
       </c>
       <c r="K10" t="n">
         <v>1.57</v>
@@ -4635,25 +4637,25 @@
         <v>2.71</v>
       </c>
       <c r="S10" t="n">
-        <v>2.918333333333333</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5858333333333333</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7516666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9141666666666666</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="X10" t="n">
-        <v>1.580833333333333</v>
+        <v>1.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.331666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="Z10" t="n">
         <v>3.14</v>
@@ -4662,10 +4664,10 @@
         <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.584166666666667</v>
+        <v>4.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.0825</v>
+        <v>6.8</v>
       </c>
       <c r="AD10" t="n">
         <v>0.86</v>
@@ -4674,10 +4676,10 @@
         <v>1.43</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.9991666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.499166666666667</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
         <v>48.86</v>
@@ -4689,7 +4691,7 @@
         <v>1.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>2.960833333333333</v>
+        <v>3.16</v>
       </c>
       <c r="AL10" t="n">
         <v>0.29</v>
@@ -4719,202 +4721,202 @@
         <v>6.86</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.9183333333333333</v>
+        <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.8308333333333332</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.5825</v>
+        <v>0.6</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.3341666666666667</v>
+        <v>0.2</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.165</v>
+        <v>0.2</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.08166666666666668</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.5841666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.9425</v>
+        <v>2.21</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.809166666666667</v>
+        <v>3.2</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.938333333333333</v>
+        <v>1.87</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.294166666666667</v>
+        <v>1.9</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.973333333333333</v>
+        <v>2.27</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.464166666666667</v>
+        <v>1.77</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.811666666666667</v>
+        <v>1.62</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.299166666666666</v>
+        <v>1.34</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.803333333333333</v>
+        <v>2.66</v>
       </c>
       <c r="BL10" t="n">
-        <v>1.568333333333333</v>
+        <v>2.28</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.010833333333334</v>
+        <v>3.39</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.385</v>
+        <v>1.91</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.805</v>
+        <v>1.97</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.976666666666667</v>
+        <v>2.11</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.440833333333333</v>
+        <v>1.85</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.009166666666667</v>
+        <v>1.77</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.8875</v>
+        <v>2.06</v>
       </c>
       <c r="BT10" t="n">
-        <v>5.115833333333334</v>
+        <v>1.44</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.322916666666667</v>
+        <v>2.73</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.9275</v>
+        <v>2.2</v>
       </c>
       <c r="BW10" t="n">
-        <v>3.076111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.870833333333334</v>
+        <v>2.6</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.024166666666666</v>
+        <v>2</v>
       </c>
       <c r="BZ10" t="n">
-        <v>2.260277777777778</v>
+        <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.855833333333334</v>
+        <v>4.2</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.659166666666667</v>
+        <v>4.4</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.013333333333333</v>
+        <v>8.6</v>
       </c>
       <c r="CD10" t="n">
-        <v>1.434166666666667</v>
+        <v>11</v>
       </c>
       <c r="CE10" t="n">
-        <v>2.945833333333333</v>
+        <v>42.4</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.911666666666667</v>
+        <v>2</v>
       </c>
       <c r="CG10" t="n">
-        <v>1.423333333333333</v>
+        <v>1.4</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="CK10" t="n">
-        <v>2</v>
+        <v>28.2</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>70.8</v>
       </c>
       <c r="CM10" t="n">
-        <v>4.2</v>
+        <v>1.05</v>
       </c>
       <c r="CN10" t="n">
-        <v>4.4</v>
+        <v>0.2</v>
       </c>
       <c r="CO10" t="n">
-        <v>8.6</v>
+        <v>0.2</v>
       </c>
       <c r="CP10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CQ10" t="n">
-        <v>42.4</v>
+        <v>0.2</v>
       </c>
       <c r="CR10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.2</v>
+        <v>14.4</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.2</v>
+        <v>12</v>
       </c>
       <c r="CV10" t="n">
-        <v>1.8</v>
+        <v>13.4</v>
       </c>
       <c r="CW10" t="n">
-        <v>28.2</v>
+        <v>6.91</v>
       </c>
       <c r="CX10" t="n">
-        <v>70.8</v>
+        <v>1.24</v>
       </c>
       <c r="CY10" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.2</v>
+        <v>3.06</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.2</v>
+        <v>3.28</v>
       </c>
       <c r="DB10" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.2</v>
+        <v>7.17</v>
       </c>
       <c r="DD10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="DE10" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="DF10" t="n">
-        <v>14.4</v>
+        <v>2.71</v>
       </c>
       <c r="DG10" t="n">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="DH10" t="n">
-        <v>13.4</v>
+        <v>1.47</v>
       </c>
       <c r="DI10" t="n">
         <v>4.66</v>
@@ -5019,13 +5021,13 @@
         <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>2.71</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>11.5</v>
+        <v>11.43</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -5052,25 +5054,25 @@
         <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>3.25</v>
+        <v>2.71</v>
       </c>
       <c r="T11" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="U11" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.71</v>
       </c>
       <c r="V11" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.083333333333333</v>
+        <v>0.71</v>
       </c>
       <c r="X11" t="n">
-        <v>1.833333333333333</v>
+        <v>1.71</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.416666666666667</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>1.6</v>
@@ -5079,10 +5081,10 @@
         <v>2.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.666666666666667</v>
+        <v>5.57</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.833333333333333</v>
+        <v>5.86</v>
       </c>
       <c r="AD11" t="n">
         <v>0.4</v>
@@ -5091,10 +5093,10 @@
         <v>1.8</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.583333333333333</v>
+        <v>2.14</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.583333333333333</v>
+        <v>2.29</v>
       </c>
       <c r="AH11" t="n">
         <v>36</v>
@@ -5106,7 +5108,7 @@
         <v>1.12</v>
       </c>
       <c r="AK11" t="n">
-        <v>3.169166666666667</v>
+        <v>2.93</v>
       </c>
       <c r="AL11" t="n">
         <v>0.2</v>
@@ -5142,196 +5144,196 @@
         <v>1</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.43</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.29</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.1666666666666667</v>
+        <v>0</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.57</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.3675</v>
+        <v>5.37</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.055833333333333</v>
+        <v>4.44</v>
       </c>
       <c r="BD11" t="n">
-        <v>3.615833333333333</v>
+        <v>1.91</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.2725</v>
+        <v>1.85</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.936666666666667</v>
+        <v>2.36</v>
       </c>
       <c r="BG11" t="n">
-        <v>3.370833333333334</v>
+        <v>1.84</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.835833333333333</v>
+        <v>1.54</v>
       </c>
       <c r="BI11" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="BN11" t="n">
         <v>1.96</v>
       </c>
-      <c r="BJ11" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>1.910833333333333</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>1.495833333333333</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>1.930833333333333</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>1.364166666666667</v>
-      </c>
       <c r="BO11" t="n">
-        <v>2.685833333333333</v>
+        <v>1.94</v>
       </c>
       <c r="BP11" t="n">
-        <v>3.0575</v>
+        <v>2.27</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.473333333333333</v>
+        <v>1.79</v>
       </c>
       <c r="BR11" t="n">
-        <v>3.574166666666667</v>
+        <v>1.65</v>
       </c>
       <c r="BS11" t="n">
-        <v>4.2475</v>
+        <v>2.08</v>
       </c>
       <c r="BT11" t="n">
-        <v>3.783333333333334</v>
+        <v>1.45</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.340166666666667</v>
+        <v>2.89</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.894166666666667</v>
+        <v>1.29</v>
       </c>
       <c r="BW11" t="n">
-        <v>2.941333333333333</v>
+        <v>1.43</v>
       </c>
       <c r="BX11" t="n">
-        <v>1.85</v>
+        <v>2.86</v>
       </c>
       <c r="BY11" t="n">
-        <v>2.0625</v>
+        <v>1.86</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.375138888888889</v>
+        <v>0</v>
       </c>
       <c r="CA11" t="n">
-        <v>1.9025</v>
+        <v>3.86</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.591666666666667</v>
+        <v>7</v>
       </c>
       <c r="CC11" t="n">
-        <v>1.962083333333333</v>
+        <v>10.86</v>
       </c>
       <c r="CD11" t="n">
-        <v>1.413666666666667</v>
+        <v>13.14</v>
       </c>
       <c r="CE11" t="n">
-        <v>2.662</v>
+        <v>41.14</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.007166666666667</v>
+        <v>1.86</v>
       </c>
       <c r="CG11" t="n">
-        <v>1.552333333333333</v>
+        <v>1.14</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.43</v>
+        <v>0.86</v>
       </c>
       <c r="CJ11" t="n">
-        <v>2.86</v>
+        <v>1</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.86</v>
+        <v>39</v>
       </c>
       <c r="CL11" t="n">
-        <v>0</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="CM11" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>18</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>11</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>11.14</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="CZ11" t="n">
         <v>3.86</v>
       </c>
-      <c r="CN11" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>41.14</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>39</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>85.56999999999999</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>0</v>
-      </c>
       <c r="DA11" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.29</v>
+        <v>1.38</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.14</v>
+        <v>2.04</v>
       </c>
       <c r="DF11" t="n">
-        <v>18</v>
+        <v>3.13</v>
       </c>
       <c r="DG11" t="n">
-        <v>11</v>
+        <v>2.85</v>
       </c>
       <c r="DH11" t="n">
-        <v>11.14</v>
+        <v>1.45</v>
       </c>
       <c r="DI11" t="n">
         <v>3.33</v>
@@ -5436,13 +5438,13 @@
         <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>2.4975</v>
+        <v>2.2</v>
       </c>
       <c r="I12" t="n">
         <v>4.57</v>
       </c>
       <c r="J12" t="n">
-        <v>8.417499999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -5469,22 +5471,22 @@
         <v>2.29</v>
       </c>
       <c r="S12" t="n">
-        <v>2.4975</v>
+        <v>2.2</v>
       </c>
       <c r="T12" t="n">
-        <v>0.5008333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4991666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="V12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6641666666666667</v>
+        <v>0.6</v>
       </c>
       <c r="X12" t="n">
-        <v>1.4975</v>
+        <v>1.2</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -5496,10 +5498,10 @@
         <v>1.43</v>
       </c>
       <c r="AB12" t="n">
-        <v>4.415</v>
+        <v>3.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.0025</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -5508,10 +5510,10 @@
         <v>1.14</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.666666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="AG12" t="n">
-        <v>2.665</v>
+        <v>2</v>
       </c>
       <c r="AH12" t="n">
         <v>53.14</v>
@@ -5523,7 +5525,7 @@
         <v>1.6</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.055833333333334</v>
+        <v>3.18</v>
       </c>
       <c r="AL12" t="n">
         <v>0.14</v>
@@ -5553,202 +5555,202 @@
         <v>6.14</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.7474999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.4991666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2525</v>
+        <v>0.2</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.08166666666666668</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.4991666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="BB12" t="n">
-        <v>2.655833333333333</v>
+        <v>3.01</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.6425</v>
+        <v>3.37</v>
       </c>
       <c r="BD12" t="n">
-        <v>3.949166666666667</v>
+        <v>1.96</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.336666666666667</v>
+        <v>1.79</v>
       </c>
       <c r="BF12" t="n">
-        <v>2.101666666666667</v>
+        <v>2.51</v>
       </c>
       <c r="BG12" t="n">
-        <v>3.713333333333333</v>
+        <v>1.9</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.8725</v>
+        <v>1.49</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.9025</v>
+        <v>1.88</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.410833333333333</v>
+        <v>1.43</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.86</v>
+        <v>2.88</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.52</v>
+        <v>2.98</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.920833333333333</v>
+        <v>3.36</v>
       </c>
       <c r="BN12" t="n">
-        <v>1.4175</v>
+        <v>1.92</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.901666666666667</v>
+        <v>1.95</v>
       </c>
       <c r="BP12" t="n">
-        <v>2.8425</v>
+        <v>2.37</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.395833333333333</v>
+        <v>1.94</v>
       </c>
       <c r="BR12" t="n">
-        <v>2.6675</v>
+        <v>1.55</v>
       </c>
       <c r="BS12" t="n">
-        <v>3.646666666666667</v>
+        <v>1.89</v>
       </c>
       <c r="BT12" t="n">
-        <v>4.179166666666666</v>
+        <v>1.48</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.385833333333333</v>
+        <v>3.16</v>
       </c>
       <c r="BV12" t="n">
-        <v>2.1625</v>
+        <v>1.2</v>
       </c>
       <c r="BW12" t="n">
-        <v>3.236944444444445</v>
+        <v>1</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.925833333333333</v>
+        <v>4</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.961666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2.30375</v>
+        <v>0</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.846666666666667</v>
+        <v>4.2</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.603541666666667</v>
+        <v>11.6</v>
       </c>
       <c r="CC12" t="n">
-        <v>1.994166666666667</v>
+        <v>15.8</v>
       </c>
       <c r="CD12" t="n">
-        <v>1.460416666666666</v>
+        <v>13.8</v>
       </c>
       <c r="CE12" t="n">
-        <v>3.125</v>
+        <v>38.2</v>
       </c>
       <c r="CF12" t="n">
-        <v>2.797291666666666</v>
+        <v>1.2</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.380277777777778</v>
+        <v>2</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="CI12" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="CJ12" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.2</v>
+        <v>46</v>
       </c>
       <c r="CL12" t="n">
-        <v>0</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="CM12" t="n">
-        <v>4.2</v>
+        <v>1.62</v>
       </c>
       <c r="CN12" t="n">
-        <v>11.6</v>
+        <v>0.2</v>
       </c>
       <c r="CO12" t="n">
-        <v>15.8</v>
+        <v>0.2</v>
       </c>
       <c r="CP12" t="n">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="CQ12" t="n">
-        <v>38.2</v>
+        <v>0.2</v>
       </c>
       <c r="CR12" t="n">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="CS12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>2</v>
+        <v>20.8</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.6</v>
+        <v>11.4</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.6</v>
+        <v>7.2</v>
       </c>
       <c r="CW12" t="n">
-        <v>46</v>
+        <v>5.43</v>
       </c>
       <c r="CX12" t="n">
-        <v>90.40000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.62</v>
+        <v>2.13</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.2</v>
+        <v>3.77</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.2</v>
+        <v>2.93</v>
       </c>
       <c r="DB12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.2</v>
+        <v>5.73</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.2</v>
+        <v>1.38</v>
       </c>
       <c r="DE12" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="DF12" t="n">
-        <v>20.8</v>
+        <v>3.04</v>
       </c>
       <c r="DG12" t="n">
-        <v>11.4</v>
+        <v>2.74</v>
       </c>
       <c r="DH12" t="n">
-        <v>7.2</v>
+        <v>1.37</v>
       </c>
       <c r="DI12" t="n">
         <v>4.33</v>
@@ -5853,13 +5855,13 @@
         <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.636363636363636</v>
+        <v>3.17</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>9.909090909090908</v>
+        <v>10.5</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -5886,25 +5888,25 @@
         <v>2.8</v>
       </c>
       <c r="S13" t="n">
-        <v>2.636363636363636</v>
+        <v>3.17</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.33</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="W13" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.83</v>
       </c>
       <c r="X13" t="n">
-        <v>1.181818181818182</v>
+        <v>1.33</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.454545454545455</v>
+        <v>1.83</v>
       </c>
       <c r="Z13" t="n">
         <v>1.4</v>
@@ -5913,10 +5915,10 @@
         <v>2.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.090909090909091</v>
+        <v>4.67</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.818181818181818</v>
+        <v>5.83</v>
       </c>
       <c r="AD13" t="n">
         <v>2</v>
@@ -5925,10 +5927,10 @@
         <v>0.6</v>
       </c>
       <c r="AF13" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.545454545454545</v>
+        <v>3</v>
       </c>
       <c r="AH13" t="n">
         <v>39.6</v>
@@ -5940,7 +5942,7 @@
         <v>1.21</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.915454545454546</v>
+        <v>2.98</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -5973,199 +5975,199 @@
         <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.83</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.83</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.33</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.17</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.67</v>
       </c>
       <c r="BB13" t="n">
-        <v>2.844545454545454</v>
+        <v>4.26</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.94090909090909</v>
+        <v>3.75</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.626363636363636</v>
+        <v>2</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.345454545454545</v>
+        <v>1.76</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.114545454545454</v>
+        <v>2.48</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.823636363636364</v>
+        <v>1.94</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.995454545454545</v>
+        <v>1.47</v>
       </c>
       <c r="BI13" t="n">
-        <v>1.785454545454545</v>
+        <v>1.8</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2.407272727272727</v>
+        <v>1.39</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.873636363636364</v>
+        <v>2.87</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.524545454545454</v>
+        <v>4.4</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.864545454545454</v>
+        <v>3.8</v>
       </c>
       <c r="BN13" t="n">
-        <v>1.411818181818182</v>
+        <v>2.11</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.965454545454545</v>
+        <v>1.8</v>
       </c>
       <c r="BP13" t="n">
-        <v>2.829090909090909</v>
+        <v>2.37</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.402727272727273</v>
+        <v>2</v>
       </c>
       <c r="BR13" t="n">
-        <v>2.937272727272727</v>
+        <v>1.6</v>
       </c>
       <c r="BS13" t="n">
-        <v>4.100909090909092</v>
+        <v>1.88</v>
       </c>
       <c r="BT13" t="n">
-        <v>5.022727272727272</v>
+        <v>1.45</v>
       </c>
       <c r="BU13" t="n">
-        <v>1.413818181818182</v>
+        <v>2.91</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.130909090909091</v>
+        <v>2</v>
       </c>
       <c r="BW13" t="n">
-        <v>2.700909090909091</v>
+        <v>1.17</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.062727272727273</v>
+        <v>4.17</v>
       </c>
       <c r="BY13" t="n">
-        <v>1.848181818181818</v>
+        <v>2</v>
       </c>
       <c r="BZ13" t="n">
-        <v>2.260909090909091</v>
+        <v>0.17</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.895454545454546</v>
+        <v>4.5</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.665454545454546</v>
+        <v>6.67</v>
       </c>
       <c r="CC13" t="n">
-        <v>1.986363636363637</v>
+        <v>11.17</v>
       </c>
       <c r="CD13" t="n">
-        <v>1.444363636363636</v>
+        <v>12</v>
       </c>
       <c r="CE13" t="n">
-        <v>2.904363636363636</v>
+        <v>46.33</v>
       </c>
       <c r="CF13" t="n">
-        <v>2.831090909090909</v>
+        <v>2.17</v>
       </c>
       <c r="CG13" t="n">
-        <v>1.451090909090909</v>
+        <v>1.33</v>
       </c>
       <c r="CH13" t="n">
-        <v>2</v>
+        <v>2.83</v>
       </c>
       <c r="CI13" t="n">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="CJ13" t="n">
-        <v>4.17</v>
+        <v>1.33</v>
       </c>
       <c r="CK13" t="n">
-        <v>2</v>
+        <v>35.67</v>
       </c>
       <c r="CL13" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="CN13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="CN13" t="n">
-        <v>6.67</v>
-      </c>
       <c r="CO13" t="n">
-        <v>11.17</v>
+        <v>0.17</v>
       </c>
       <c r="CP13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CQ13" t="n">
-        <v>46.33</v>
+        <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>2.17</v>
+        <v>0.33</v>
       </c>
       <c r="CS13" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="CW13" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="CX13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="DC13" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="DD13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="DG13" t="n">
         <v>2.83</v>
       </c>
-      <c r="CU13" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CW13" t="n">
-        <v>35.67</v>
-      </c>
-      <c r="CX13" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>17.33</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>12.33</v>
-      </c>
       <c r="DH13" t="n">
-        <v>7.67</v>
+        <v>1.45</v>
       </c>
       <c r="DI13" t="n">
         <v>3.91</v>
@@ -6270,13 +6272,13 @@
         <v>0.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.166666666666667</v>
+        <v>2.86</v>
       </c>
       <c r="I14" t="n">
         <v>7.6</v>
       </c>
       <c r="J14" t="n">
-        <v>11.58333333333333</v>
+        <v>10.43</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -6303,25 +6305,25 @@
         <v>2.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.166666666666667</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="U14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.86</v>
       </c>
       <c r="V14" t="n">
-        <v>0.9166666666666666</v>
+        <v>1.14</v>
       </c>
       <c r="W14" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.43</v>
       </c>
       <c r="X14" t="n">
-        <v>1.333333333333333</v>
+        <v>1.57</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.8333333333333334</v>
+        <v>1.29</v>
       </c>
       <c r="Z14" t="n">
         <v>3.6</v>
@@ -6330,10 +6332,10 @@
         <v>4</v>
       </c>
       <c r="AB14" t="n">
-        <v>5.833333333333333</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.75</v>
+        <v>4.43</v>
       </c>
       <c r="AD14" t="n">
         <v>1.8</v>
@@ -6342,10 +6344,10 @@
         <v>0.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.166666666666667</v>
+        <v>2.29</v>
       </c>
       <c r="AH14" t="n">
         <v>54.8</v>
@@ -6357,7 +6359,7 @@
         <v>1.66</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.841666666666667</v>
+        <v>2.79</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -6387,202 +6389,202 @@
         <v>8.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.71</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.57</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.14</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.29</v>
       </c>
       <c r="BB14" t="n">
-        <v>2.726666666666667</v>
+        <v>3.65</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.576666666666667</v>
+        <v>3.78</v>
       </c>
       <c r="BD14" t="n">
-        <v>3.576666666666667</v>
+        <v>1.85</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.3</v>
+        <v>1.93</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.988333333333333</v>
+        <v>2.52</v>
       </c>
       <c r="BG14" t="n">
-        <v>3.468333333333334</v>
+        <v>1.95</v>
       </c>
       <c r="BH14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BI14" t="n">
         <v>1.84</v>
       </c>
-      <c r="BI14" t="n">
-        <v>1.945</v>
-      </c>
       <c r="BJ14" t="n">
-        <v>2.525833333333333</v>
+        <v>1.4</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.954166666666667</v>
+        <v>2.9</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.4525</v>
+        <v>3.91</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.8625</v>
+        <v>4.07</v>
       </c>
       <c r="BN14" t="n">
-        <v>1.395833333333333</v>
+        <v>1.93</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.835833333333333</v>
+        <v>1.97</v>
       </c>
       <c r="BP14" t="n">
-        <v>2.924166666666666</v>
+        <v>2.48</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.4125</v>
+        <v>1.99</v>
       </c>
       <c r="BR14" t="n">
-        <v>2.910833333333333</v>
+        <v>1.52</v>
       </c>
       <c r="BS14" t="n">
-        <v>3.745833333333334</v>
+        <v>1.85</v>
       </c>
       <c r="BT14" t="n">
-        <v>3.785833333333333</v>
+        <v>1.44</v>
       </c>
       <c r="BU14" t="n">
-        <v>1.390277777777778</v>
+        <v>3.06</v>
       </c>
       <c r="BV14" t="n">
-        <v>2.076666666666667</v>
+        <v>1.57</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.194166666666667</v>
+        <v>1.29</v>
       </c>
       <c r="BX14" t="n">
-        <v>1.9025</v>
+        <v>5.14</v>
       </c>
       <c r="BY14" t="n">
-        <v>2.008333333333333</v>
+        <v>2.29</v>
       </c>
       <c r="BZ14" t="n">
-        <v>2.447833333333334</v>
+        <v>0</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.970833333333333</v>
+        <v>3.57</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.537833333333333</v>
+        <v>7.86</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.87</v>
+        <v>11.43</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.421388888888889</v>
+        <v>14</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.032777777777778</v>
+        <v>52.29</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.955555555555555</v>
+        <v>2.29</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.405138888888889</v>
+        <v>3.14</v>
       </c>
       <c r="CH14" t="n">
+        <v>2</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CJ14" t="n">
         <v>1.57</v>
       </c>
-      <c r="CI14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="CJ14" t="n">
-        <v>5.14</v>
-      </c>
       <c r="CK14" t="n">
-        <v>2.29</v>
+        <v>38.57</v>
       </c>
       <c r="CL14" t="n">
-        <v>0</v>
+        <v>90.86</v>
       </c>
       <c r="CM14" t="n">
-        <v>3.57</v>
+        <v>1.26</v>
       </c>
       <c r="CN14" t="n">
-        <v>7.86</v>
+        <v>0.14</v>
       </c>
       <c r="CO14" t="n">
-        <v>11.43</v>
+        <v>0.14</v>
       </c>
       <c r="CP14" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>52.29</v>
+        <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>2.29</v>
+        <v>0.71</v>
       </c>
       <c r="CS14" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
-        <v>2</v>
+        <v>18.14</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.71</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="CV14" t="n">
-        <v>1.57</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="CW14" t="n">
-        <v>38.57</v>
+        <v>4.17</v>
       </c>
       <c r="CX14" t="n">
-        <v>90.86</v>
+        <v>1.31</v>
       </c>
       <c r="CY14" t="n">
-        <v>1.26</v>
+        <v>2.02</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.14</v>
+        <v>3.56</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.14</v>
+        <v>2.78</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="DC14" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.71</v>
+        <v>1.38</v>
       </c>
       <c r="DE14" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="DF14" t="n">
-        <v>18.14</v>
+        <v>3.34</v>
       </c>
       <c r="DG14" t="n">
-        <v>9.289999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="DH14" t="n">
-        <v>8.859999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="DI14" t="n">
         <v>6.16</v>
@@ -6687,13 +6689,13 @@
         <v>0.83</v>
       </c>
       <c r="H15" t="n">
-        <v>2.727272727272727</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>3.83</v>
       </c>
       <c r="J15" t="n">
-        <v>10.45636363636364</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
         <v>1.17</v>
@@ -6720,25 +6722,25 @@
         <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>2.727272727272727</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.001818181818182</v>
+        <v>0.8</v>
       </c>
       <c r="U15" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="W15" t="n">
-        <v>0.6345454545454546</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>1.18</v>
+        <v>1.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.547272727272727</v>
+        <v>1.4</v>
       </c>
       <c r="Z15" t="n">
         <v>2</v>
@@ -6747,10 +6749,10 @@
         <v>1.83</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.729090909090909</v>
+        <v>5.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.727272727272728</v>
+        <v>6.6</v>
       </c>
       <c r="AD15" t="n">
         <v>0.17</v>
@@ -6759,10 +6761,10 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.092727272727273</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>3.092727272727272</v>
+        <v>3</v>
       </c>
       <c r="AH15" t="n">
         <v>48</v>
@@ -6774,7 +6776,7 @@
         <v>1.67</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.903636363636363</v>
+        <v>2.78</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -6807,13 +6809,13 @@
         <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.9072727272727273</v>
+        <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.2745454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
@@ -6822,184 +6824,184 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.6345454545454546</v>
+        <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>2.420909090909091</v>
+        <v>2.24</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.447272727272727</v>
+        <v>3.52</v>
       </c>
       <c r="BD15" t="n">
-        <v>3.442727272727272</v>
+        <v>1.7</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.287272727272727</v>
+        <v>2.18</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.920909090909091</v>
+        <v>2.39</v>
       </c>
       <c r="BG15" t="n">
-        <v>3.282727272727273</v>
+        <v>1.87</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.777272727272727</v>
+        <v>1.5</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.050909090909091</v>
+        <v>1.89</v>
       </c>
       <c r="BJ15" t="n">
-        <v>2.384545454545454</v>
+        <v>1.37</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.859090909090909</v>
+        <v>2.71</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.511818181818182</v>
+        <v>2.34</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.005454545454546</v>
+        <v>3.66</v>
       </c>
       <c r="BN15" t="n">
-        <v>1.376363636363636</v>
+        <v>1.67</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.716363636363637</v>
+        <v>2.34</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.898181818181818</v>
+        <v>2.4</v>
       </c>
       <c r="BQ15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BT15" t="n">
         <v>1.41</v>
       </c>
-      <c r="BR15" t="n">
-        <v>2.568181818181818</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>3.562727272727273</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>3.423636363636364</v>
-      </c>
       <c r="BU15" t="n">
-        <v>1.31</v>
+        <v>3.01</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.930909090909091</v>
+        <v>1.4</v>
       </c>
       <c r="BW15" t="n">
-        <v>2.993181818181818</v>
+        <v>1.6</v>
       </c>
       <c r="BX15" t="n">
-        <v>1.760909090909091</v>
+        <v>6</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.193636363636363</v>
+        <v>2.4</v>
       </c>
       <c r="BZ15" t="n">
-        <v>2.397727272727273</v>
+        <v>0</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.889545454545455</v>
+        <v>4.2</v>
       </c>
       <c r="CB15" t="n">
-        <v>1.574545454545454</v>
+        <v>10.8</v>
       </c>
       <c r="CC15" t="n">
-        <v>1.960454545454545</v>
+        <v>15</v>
       </c>
       <c r="CD15" t="n">
-        <v>1.415454545454546</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="CE15" t="n">
-        <v>3.026363636363636</v>
+        <v>52.4</v>
       </c>
       <c r="CF15" t="n">
-        <v>2.988787878787879</v>
+        <v>2.4</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.411515151515151</v>
+        <v>3.2</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="CI15" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>50</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>92</v>
+      </c>
+      <c r="CM15" t="n">
         <v>1.6</v>
       </c>
-      <c r="CJ15" t="n">
-        <v>6</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="CN15" t="n">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
         <v>15</v>
       </c>
-      <c r="CP15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="CT15" t="n">
+      <c r="CU15" t="n">
+        <v>15</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="CW15" t="n">
         <v>2.8</v>
       </c>
-      <c r="CU15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="CW15" t="n">
-        <v>50</v>
-      </c>
       <c r="CX15" t="n">
-        <v>92</v>
+        <v>1.27</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="DB15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="DC15" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="DE15" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="DF15" t="n">
-        <v>15</v>
+        <v>2.86</v>
       </c>
       <c r="DG15" t="n">
-        <v>15</v>
+        <v>3.02</v>
       </c>
       <c r="DH15" t="n">
-        <v>8.6</v>
+        <v>1.41</v>
       </c>
       <c r="DI15" t="n">
         <v>4.82</v>
@@ -7104,13 +7106,13 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>2.998333333333334</v>
+        <v>3.17</v>
       </c>
       <c r="I16" t="n">
         <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>9.418333333333333</v>
+        <v>10.17</v>
       </c>
       <c r="K16" t="n">
         <v>2.17</v>
@@ -7137,25 +7139,25 @@
         <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.998333333333334</v>
+        <v>3.17</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="U16" t="n">
-        <v>0.7483333333333334</v>
+        <v>1.17</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="W16" t="n">
-        <v>0.5016666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="X16" t="n">
-        <v>1.418333333333333</v>
+        <v>1.67</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.585</v>
+        <v>1.5</v>
       </c>
       <c r="Z16" t="n">
         <v>3.17</v>
@@ -7164,10 +7166,10 @@
         <v>3.33</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.833333333333333</v>
+        <v>5.67</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.585</v>
+        <v>4.5</v>
       </c>
       <c r="AD16" t="n">
         <v>0.83</v>
@@ -7176,10 +7178,10 @@
         <v>1.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.498333333333333</v>
+        <v>1.67</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.998333333333334</v>
+        <v>3.17</v>
       </c>
       <c r="AH16" t="n">
         <v>80.5</v>
@@ -7191,7 +7193,7 @@
         <v>2.38</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.345833333333333</v>
+        <v>3.4</v>
       </c>
       <c r="AL16" t="n">
         <v>0.5</v>
@@ -7221,192 +7223,202 @@
         <v>4.17</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.6683333333333333</v>
+        <v>0.67</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.3316666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="BA16" t="n">
         <v>0.5</v>
       </c>
       <c r="BB16" t="n">
-        <v>3.860833333333334</v>
+        <v>1.28</v>
       </c>
       <c r="BC16" t="n">
-        <v>5.404166666666666</v>
+        <v>6.23</v>
       </c>
       <c r="BD16" t="n">
-        <v>6.079166666666667</v>
+        <v>1.8</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.145</v>
+        <v>1.97</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.5275</v>
+        <v>2.77</v>
       </c>
       <c r="BG16" t="n">
-        <v>2.3575</v>
+        <v>2.1</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.7975</v>
+        <v>1.44</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.039166666666667</v>
+        <v>1.8</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.814166666666666</v>
+        <v>1.3</v>
       </c>
       <c r="BK16" t="n">
-        <v>2.159166666666667</v>
+        <v>2.36</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.4175</v>
+        <v>1.34</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.7025</v>
+        <v>6.9</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.253333333333333</v>
+        <v>1.89</v>
       </c>
       <c r="BO16" t="n">
-        <v>2.196666666666667</v>
+        <v>2.04</v>
       </c>
       <c r="BP16" t="n">
-        <v>3.704166666666667</v>
+        <v>2.38</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.663333333333333</v>
+        <v>2</v>
       </c>
       <c r="BR16" t="n">
-        <v>4.1125</v>
+        <v>1.59</v>
       </c>
       <c r="BS16" t="n">
-        <v>5.843333333333334</v>
+        <v>1.85</v>
       </c>
       <c r="BT16" t="n">
-        <v>6.960833333333333</v>
-      </c>
-      <c r="BU16" t="inlineStr"/>
+        <v>1.34</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2.5</v>
+      </c>
       <c r="BV16" t="n">
-        <v>1.563333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="BW16" t="n">
-        <v>2.410833333333333</v>
+        <v>2</v>
       </c>
       <c r="BX16" t="n">
-        <v>1.883333333333333</v>
+        <v>5.67</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.126666666666666</v>
-      </c>
-      <c r="BZ16" t="inlineStr"/>
+        <v>1.67</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0.17</v>
+      </c>
       <c r="CA16" t="n">
-        <v>2.13875</v>
-      </c>
-      <c r="CB16" t="inlineStr"/>
+        <v>7.17</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>12.17</v>
+      </c>
       <c r="CC16" t="n">
-        <v>1.73625</v>
-      </c>
-      <c r="CD16" t="inlineStr"/>
+        <v>19.33</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>9.17</v>
+      </c>
       <c r="CE16" t="n">
-        <v>2.285</v>
-      </c>
-      <c r="CF16" t="inlineStr"/>
+        <v>59.5</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>2</v>
+      </c>
       <c r="CG16" t="n">
-        <v>1.683</v>
+        <v>3.33</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.17</v>
+        <v>2.33</v>
       </c>
       <c r="CI16" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="CJ16" t="n">
-        <v>5.67</v>
+        <v>1.33</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.67</v>
+        <v>56.5</v>
       </c>
       <c r="CL16" t="n">
+        <v>120.5</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="CN16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM16" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>12.17</v>
-      </c>
       <c r="CO16" t="n">
-        <v>19.33</v>
+        <v>0.17</v>
       </c>
       <c r="CP16" t="n">
-        <v>9.17</v>
+        <v>0</v>
       </c>
       <c r="CQ16" t="n">
-        <v>59.5</v>
+        <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="CS16" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>2.33</v>
+        <v>17.17</v>
       </c>
       <c r="CU16" t="n">
-        <v>0.5</v>
+        <v>17</v>
       </c>
       <c r="CV16" t="n">
-        <v>1.33</v>
+        <v>8.83</v>
       </c>
       <c r="CW16" t="n">
-        <v>56.5</v>
+        <v>1.58</v>
       </c>
       <c r="CX16" t="n">
-        <v>120.5</v>
+        <v>1.2</v>
       </c>
       <c r="CY16" t="n">
-        <v>2.13</v>
+        <v>1.68</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.17</v>
+        <v>2.67</v>
       </c>
       <c r="DA16" t="n">
-        <v>0.17</v>
+        <v>3.34</v>
       </c>
       <c r="DB16" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="DC16" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="DD16" t="n">
-        <v>0.33</v>
+        <v>1.28</v>
       </c>
       <c r="DE16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="DF16" t="n">
-        <v>17.17</v>
+        <v>2.8</v>
       </c>
       <c r="DG16" t="n">
-        <v>17</v>
+        <v>3.28</v>
       </c>
       <c r="DH16" t="n">
-        <v>8.83</v>
+        <v>1.58</v>
       </c>
       <c r="DI16" t="n">
         <v>6.08</v>
@@ -7511,13 +7523,13 @@
         <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>10.08166666666667</v>
+        <v>9.83</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -7544,25 +7556,25 @@
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T17" t="n">
-        <v>0.7483333333333334</v>
+        <v>1.17</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2483333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="V17" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="W17" t="n">
-        <v>0.9983333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="X17" t="n">
-        <v>1.248333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.001666666666667</v>
+        <v>1.33</v>
       </c>
       <c r="Z17" t="n">
         <v>1.5</v>
@@ -7571,10 +7583,10 @@
         <v>2.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>5.333333333333333</v>
+        <v>5.17</v>
       </c>
       <c r="AC17" t="n">
-        <v>3.915</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="n">
         <v>0.5</v>
@@ -7583,10 +7595,10 @@
         <v>1.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.083333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.833333333333333</v>
+        <v>3.67</v>
       </c>
       <c r="AH17" t="n">
         <v>35.5</v>
@@ -7598,7 +7610,7 @@
         <v>1.01</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.961666666666667</v>
+        <v>2.78</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -7628,202 +7640,202 @@
         <v>7.17</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.6683333333333333</v>
+        <v>0.67</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.3316666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.1683333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.2516666666666666</v>
+        <v>0.33</v>
       </c>
       <c r="BB17" t="n">
-        <v>3.5225</v>
+        <v>5.37</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.785</v>
+        <v>4.02</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.086666666666667</v>
+        <v>2.2</v>
       </c>
       <c r="BE17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>42.17</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>3</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="DH17" t="n">
         <v>1.38</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>2.191666666666666</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>4.013333333333333</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>2.0875</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>1.7375</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>2.351666666666667</v>
-      </c>
-      <c r="BK17" t="n">
-        <v>1.853333333333333</v>
-      </c>
-      <c r="BL17" t="n">
-        <v>1.5425</v>
-      </c>
-      <c r="BM17" t="n">
-        <v>2.023333333333333</v>
-      </c>
-      <c r="BN17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BO17" t="n">
-        <v>3.038333333333334</v>
-      </c>
-      <c r="BP17" t="n">
-        <v>2.753333333333333</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>1.358333333333333</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>3.799166666666667</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>3.955833333333333</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>4.149166666666667</v>
-      </c>
-      <c r="BU17" t="n">
-        <v>1.415</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>2.243333333333333</v>
-      </c>
-      <c r="BW17" t="n">
-        <v>3.215</v>
-      </c>
-      <c r="BX17" t="n">
-        <v>2.164166666666667</v>
-      </c>
-      <c r="BY17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BZ17" t="n">
-        <v>2.243</v>
-      </c>
-      <c r="CA17" t="n">
-        <v>1.814166666666667</v>
-      </c>
-      <c r="CB17" t="n">
-        <v>1.652</v>
-      </c>
-      <c r="CC17" t="n">
-        <v>2.035</v>
-      </c>
-      <c r="CD17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="CE17" t="n">
-        <v>2.9575</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>2.765833333333333</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>1.4375</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>7.67</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>27.33</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>68.5</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>20.33</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>11.33</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>9.5</v>
       </c>
       <c r="DI17" t="n">
         <v>3.58</v>
@@ -7928,13 +7940,13 @@
         <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>2.581666666666667</v>
+        <v>2.33</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>10.66666666666667</v>
+        <v>10.33</v>
       </c>
       <c r="K18" t="n">
         <v>1.67</v>
@@ -7961,25 +7973,25 @@
         <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.581666666666667</v>
+        <v>2.33</v>
       </c>
       <c r="T18" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="U18" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.33</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="W18" t="n">
-        <v>0.415</v>
+        <v>0.5</v>
       </c>
       <c r="X18" t="n">
-        <v>1.331666666666667</v>
+        <v>1.33</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>3.33</v>
@@ -7988,10 +8000,10 @@
         <v>3.67</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.498333333333334</v>
+        <v>5.17</v>
       </c>
       <c r="AC18" t="n">
-        <v>5.168333333333333</v>
+        <v>5.17</v>
       </c>
       <c r="AD18" t="n">
         <v>0.5</v>
@@ -8000,10 +8012,10 @@
         <v>1.17</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.748333333333333</v>
+        <v>2.17</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.585</v>
+        <v>2.5</v>
       </c>
       <c r="AH18" t="n">
         <v>49.5</v>
@@ -8015,7 +8027,7 @@
         <v>1.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.819166666666666</v>
+        <v>3.04</v>
       </c>
       <c r="AL18" t="n">
         <v>0.33</v>
@@ -8048,199 +8060,199 @@
         <v>1</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7516666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.5016666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.2483333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ18" t="n">
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.7516666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="BB18" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BF18" t="n">
         <v>2.41</v>
       </c>
-      <c r="BC18" t="n">
-        <v>3.509166666666667</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>3.9275</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>1.326666666666667</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>2.121666666666667</v>
-      </c>
       <c r="BG18" t="n">
-        <v>3.706666666666667</v>
+        <v>1.87</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.873333333333333</v>
+        <v>1.52</v>
       </c>
       <c r="BI18" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2.485833333333333</v>
+        <v>1.42</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.941666666666666</v>
+        <v>2.96</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.479166666666667</v>
+        <v>2.71</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.931666666666667</v>
+        <v>3.54</v>
       </c>
       <c r="BN18" t="n">
-        <v>1.4125</v>
+        <v>1.88</v>
       </c>
       <c r="BO18" t="n">
-        <v>2.955833333333333</v>
+        <v>2.03</v>
       </c>
       <c r="BP18" t="n">
-        <v>2.893333333333333</v>
+        <v>2.3</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.399166666666667</v>
+        <v>1.91</v>
       </c>
       <c r="BR18" t="n">
-        <v>2.57</v>
+        <v>1.62</v>
       </c>
       <c r="BS18" t="n">
-        <v>3.575000000000001</v>
+        <v>1.94</v>
       </c>
       <c r="BT18" t="n">
-        <v>3.913333333333334</v>
+        <v>1.46</v>
       </c>
       <c r="BU18" t="n">
-        <v>1.374</v>
+        <v>2.83</v>
       </c>
       <c r="BV18" t="n">
-        <v>2.104166666666667</v>
+        <v>1.5</v>
       </c>
       <c r="BW18" t="n">
-        <v>3.098333333333333</v>
+        <v>0.83</v>
       </c>
       <c r="BX18" t="n">
-        <v>1.8975</v>
+        <v>6</v>
       </c>
       <c r="BY18" t="n">
-        <v>2.001666666666666</v>
+        <v>2.83</v>
       </c>
       <c r="BZ18" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.949166666666667</v>
+        <v>4.67</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.59</v>
+        <v>8.5</v>
       </c>
       <c r="CC18" t="n">
-        <v>1.885833333333333</v>
+        <v>13.17</v>
       </c>
       <c r="CD18" t="n">
-        <v>1.4475</v>
+        <v>16</v>
       </c>
       <c r="CE18" t="n">
-        <v>2.905</v>
+        <v>45.67</v>
       </c>
       <c r="CF18" t="n">
-        <v>2.825</v>
+        <v>2.83</v>
       </c>
       <c r="CG18" t="n">
-        <v>1.463333333333333</v>
+        <v>3.17</v>
       </c>
       <c r="CH18" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CI18" t="n">
         <v>1.5</v>
       </c>
-      <c r="CI18" t="n">
-        <v>0.83</v>
-      </c>
       <c r="CJ18" t="n">
-        <v>6</v>
+        <v>1.33</v>
       </c>
       <c r="CK18" t="n">
-        <v>2.83</v>
+        <v>44.67</v>
       </c>
       <c r="CL18" t="n">
-        <v>0</v>
+        <v>94.17</v>
       </c>
       <c r="CM18" t="n">
-        <v>4.67</v>
+        <v>1.48</v>
       </c>
       <c r="CN18" t="n">
-        <v>8.5</v>
+        <v>0.17</v>
       </c>
       <c r="CO18" t="n">
-        <v>13.17</v>
+        <v>0.17</v>
       </c>
       <c r="CP18" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="CQ18" t="n">
-        <v>45.67</v>
+        <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>2.83</v>
+        <v>0.5</v>
       </c>
       <c r="CS18" t="n">
-        <v>3.17</v>
+        <v>0.17</v>
       </c>
       <c r="CT18" t="n">
-        <v>2.83</v>
+        <v>19</v>
       </c>
       <c r="CU18" t="n">
-        <v>1.5</v>
+        <v>7.83</v>
       </c>
       <c r="CV18" t="n">
-        <v>1.33</v>
+        <v>7.83</v>
       </c>
       <c r="CW18" t="n">
-        <v>44.67</v>
+        <v>4.26</v>
       </c>
       <c r="CX18" t="n">
-        <v>94.17</v>
+        <v>1.31</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.48</v>
+        <v>2.14</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.17</v>
+        <v>3.63</v>
       </c>
       <c r="DA18" t="n">
-        <v>0.17</v>
+        <v>3</v>
       </c>
       <c r="DB18" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="DC18" t="n">
-        <v>0</v>
+        <v>4.13</v>
       </c>
       <c r="DD18" t="n">
-        <v>0.5</v>
+        <v>1.39</v>
       </c>
       <c r="DE18" t="n">
-        <v>0.17</v>
+        <v>2.1</v>
       </c>
       <c r="DF18" t="n">
-        <v>19</v>
+        <v>2.82</v>
       </c>
       <c r="DG18" t="n">
-        <v>7.83</v>
+        <v>2.75</v>
       </c>
       <c r="DH18" t="n">
-        <v>7.83</v>
+        <v>1.52</v>
       </c>
       <c r="DI18" t="n">
         <v>6.5</v>
@@ -8345,13 +8357,13 @@
         <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>3.081666666666667</v>
+        <v>2.83</v>
       </c>
       <c r="I19" t="n">
         <v>5.17</v>
       </c>
       <c r="J19" t="n">
-        <v>10.415</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
         <v>3.83</v>
@@ -8378,25 +8390,25 @@
         <v>3.83</v>
       </c>
       <c r="S19" t="n">
-        <v>3.081666666666667</v>
+        <v>2.83</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="U19" t="n">
         <v>0.5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="W19" t="n">
-        <v>1.001666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="X19" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.331666666666667</v>
+        <v>1.33</v>
       </c>
       <c r="Z19" t="n">
         <v>2</v>
@@ -8405,10 +8417,10 @@
         <v>3.17</v>
       </c>
       <c r="AB19" t="n">
-        <v>5.165</v>
+        <v>6</v>
       </c>
       <c r="AC19" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -8417,10 +8429,10 @@
         <v>2.83</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.835</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="n">
         <v>51.67</v>
@@ -8432,7 +8444,7 @@
         <v>1.37</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.581666666666667</v>
+        <v>2.55</v>
       </c>
       <c r="AL19" t="n">
         <v>0.33</v>
@@ -8465,199 +8477,199 @@
         <v>1</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.8316666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.67</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AY19" t="n">
-        <v>0.1683333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AZ19" t="n">
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.6649999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="BB19" t="n">
-        <v>2.3575</v>
+        <v>2.77</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.5175</v>
+        <v>3.5</v>
       </c>
       <c r="BD19" t="n">
-        <v>4.1875</v>
+        <v>1.93</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.349166666666667</v>
+        <v>1.84</v>
       </c>
       <c r="BF19" t="n">
-        <v>2.088333333333333</v>
+        <v>2.39</v>
       </c>
       <c r="BG19" t="n">
-        <v>3.674166666666667</v>
+        <v>1.86</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.921666666666667</v>
+        <v>1.51</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.8975</v>
+        <v>2.01</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.3325</v>
+        <v>1.4</v>
       </c>
       <c r="BK19" t="n">
-        <v>1.825833333333333</v>
+        <v>3.01</v>
       </c>
       <c r="BL19" t="n">
-        <v>1.559166666666667</v>
+        <v>2.96</v>
       </c>
       <c r="BM19" t="n">
-        <v>1.995</v>
+        <v>3.62</v>
       </c>
       <c r="BN19" t="n">
-        <v>1.415833333333333</v>
+        <v>2.01</v>
       </c>
       <c r="BO19" t="n">
-        <v>2.988333333333333</v>
+        <v>1.89</v>
       </c>
       <c r="BP19" t="n">
-        <v>2.829166666666667</v>
+        <v>2.39</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.403333333333333</v>
+        <v>1.91</v>
       </c>
       <c r="BR19" t="n">
-        <v>2.4725</v>
+        <v>1.57</v>
       </c>
       <c r="BS19" t="n">
-        <v>3.663333333333334</v>
+        <v>1.93</v>
       </c>
       <c r="BT19" t="n">
-        <v>4.315833333333334</v>
+        <v>1.48</v>
       </c>
       <c r="BU19" t="n">
-        <v>1.409</v>
+        <v>3.26</v>
       </c>
       <c r="BV19" t="n">
-        <v>2.185833333333333</v>
+        <v>1.5</v>
       </c>
       <c r="BW19" t="n">
-        <v>3.10625</v>
+        <v>1.33</v>
       </c>
       <c r="BX19" t="n">
-        <v>1.983333333333333</v>
+        <v>4.17</v>
       </c>
       <c r="BY19" t="n">
-        <v>1.93</v>
+        <v>3</v>
       </c>
       <c r="BZ19" t="n">
-        <v>2.269</v>
+        <v>0</v>
       </c>
       <c r="CA19" t="n">
-        <v>1.839166666666667</v>
+        <v>2.83</v>
       </c>
       <c r="CB19" t="n">
-        <v>1.65</v>
+        <v>6.17</v>
       </c>
       <c r="CC19" t="n">
-        <v>2.025</v>
+        <v>9</v>
       </c>
       <c r="CD19" t="n">
-        <v>1.4825</v>
+        <v>14.33</v>
       </c>
       <c r="CE19" t="n">
-        <v>3.088333333333333</v>
+        <v>49.33</v>
       </c>
       <c r="CF19" t="n">
-        <v>2.70125</v>
+        <v>3</v>
       </c>
       <c r="CG19" t="n">
-        <v>1.403333333333333</v>
+        <v>2.33</v>
       </c>
       <c r="CH19" t="n">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="CI19" t="n">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="CJ19" t="n">
-        <v>4.17</v>
+        <v>2.17</v>
       </c>
       <c r="CK19" t="n">
-        <v>3</v>
+        <v>31.5</v>
       </c>
       <c r="CL19" t="n">
-        <v>0</v>
+        <v>84.83</v>
       </c>
       <c r="CM19" t="n">
-        <v>2.83</v>
+        <v>1</v>
       </c>
       <c r="CN19" t="n">
-        <v>6.17</v>
+        <v>0</v>
       </c>
       <c r="CO19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CP19" t="n">
-        <v>14.33</v>
+        <v>0</v>
       </c>
       <c r="CQ19" t="n">
-        <v>49.33</v>
+        <v>0.17</v>
       </c>
       <c r="CR19" t="n">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="CS19" t="n">
-        <v>2.33</v>
+        <v>0.17</v>
       </c>
       <c r="CT19" t="n">
-        <v>1.83</v>
+        <v>19.83</v>
       </c>
       <c r="CU19" t="n">
-        <v>0.83</v>
+        <v>12.17</v>
       </c>
       <c r="CV19" t="n">
-        <v>2.17</v>
+        <v>6.33</v>
       </c>
       <c r="CW19" t="n">
-        <v>31.5</v>
+        <v>4.93</v>
       </c>
       <c r="CX19" t="n">
-        <v>84.83</v>
+        <v>1.35</v>
       </c>
       <c r="CY19" t="n">
-        <v>1</v>
+        <v>2.07</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="DA19" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="DB19" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="DC19" t="n">
-        <v>0.17</v>
+        <v>5.14</v>
       </c>
       <c r="DD19" t="n">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="DE19" t="n">
-        <v>0.17</v>
+        <v>2.18</v>
       </c>
       <c r="DF19" t="n">
-        <v>19.83</v>
+        <v>3.36</v>
       </c>
       <c r="DG19" t="n">
-        <v>12.17</v>
+        <v>2.69</v>
       </c>
       <c r="DH19" t="n">
-        <v>6.33</v>
+        <v>1.36</v>
       </c>
       <c r="DI19" t="n">
         <v>4.67</v>
@@ -8762,13 +8774,13 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.727272727272727</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>6.6</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>8.17</v>
       </c>
       <c r="K20" t="n">
         <v>1.4</v>
@@ -8795,25 +8807,25 @@
         <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>2.727272727272727</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7272727272727273</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.17</v>
       </c>
       <c r="V20" t="n">
-        <v>1.272727272727273</v>
+        <v>1.5</v>
       </c>
       <c r="W20" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.33</v>
       </c>
       <c r="X20" t="n">
-        <v>1.818181818181818</v>
+        <v>1.83</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.17</v>
       </c>
       <c r="Z20" t="n">
         <v>2.4</v>
@@ -8822,10 +8834,10 @@
         <v>4</v>
       </c>
       <c r="AB20" t="n">
-        <v>4.454545454545454</v>
+        <v>4</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.454545454545454</v>
+        <v>4.17</v>
       </c>
       <c r="AD20" t="n">
         <v>0.6</v>
@@ -8834,10 +8846,10 @@
         <v>0.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.454545454545455</v>
+        <v>1.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.272727272727273</v>
+        <v>2.17</v>
       </c>
       <c r="AH20" t="n">
         <v>44</v>
@@ -8849,7 +8861,7 @@
         <v>1.46</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.741818181818182</v>
+        <v>2.75</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -8879,202 +8891,202 @@
         <v>7.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.83</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.67</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.67</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.17</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.17</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.33</v>
       </c>
       <c r="BB20" t="n">
-        <v>2.233636363636364</v>
+        <v>2.57</v>
       </c>
       <c r="BC20" t="n">
-        <v>3.748181818181819</v>
+        <v>3.2</v>
       </c>
       <c r="BD20" t="n">
-        <v>4.720909090909092</v>
+        <v>1.84</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.344545454545455</v>
+        <v>1.87</v>
       </c>
       <c r="BF20" t="n">
-        <v>2.129090909090909</v>
+        <v>2.52</v>
       </c>
       <c r="BG20" t="n">
-        <v>3.878181818181818</v>
+        <v>2</v>
       </c>
       <c r="BH20" t="n">
-        <v>1.915454545454546</v>
+        <v>1.5</v>
       </c>
       <c r="BI20" t="n">
-        <v>1.831818181818182</v>
+        <v>1.86</v>
       </c>
       <c r="BJ20" t="n">
-        <v>2.444545454545455</v>
+        <v>1.37</v>
       </c>
       <c r="BK20" t="n">
-        <v>1.929090909090909</v>
+        <v>2.74</v>
       </c>
       <c r="BL20" t="n">
-        <v>1.507272727272727</v>
+        <v>2.82</v>
       </c>
       <c r="BM20" t="n">
-        <v>1.939090909090909</v>
+        <v>3.22</v>
       </c>
       <c r="BN20" t="n">
-        <v>1.42</v>
+        <v>1.92</v>
       </c>
       <c r="BO20" t="n">
-        <v>3.042727272727273</v>
+        <v>1.96</v>
       </c>
       <c r="BP20" t="n">
-        <v>2.887272727272727</v>
+        <v>2.36</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.406363636363636</v>
+        <v>2.09</v>
       </c>
       <c r="BR20" t="n">
-        <v>2.360909090909091</v>
+        <v>1.59</v>
       </c>
       <c r="BS20" t="n">
-        <v>3.999090909090909</v>
+        <v>1.79</v>
       </c>
       <c r="BT20" t="n">
-        <v>5.381818181818182</v>
+        <v>1.48</v>
       </c>
       <c r="BU20" t="n">
-        <v>1.421818181818182</v>
+        <v>2.78</v>
       </c>
       <c r="BV20" t="n">
-        <v>2.206363636363637</v>
+        <v>2.5</v>
       </c>
       <c r="BW20" t="n">
-        <v>2.868181818181818</v>
+        <v>0.5</v>
       </c>
       <c r="BX20" t="n">
-        <v>1.999090909090909</v>
+        <v>3.17</v>
       </c>
       <c r="BY20" t="n">
-        <v>1.902727272727273</v>
+        <v>1.67</v>
       </c>
       <c r="BZ20" t="n">
-        <v>2.302727272727273</v>
+        <v>0.17</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.970454545454545</v>
+        <v>2.17</v>
       </c>
       <c r="CB20" t="n">
-        <v>1.626363636363636</v>
+        <v>4.33</v>
       </c>
       <c r="CC20" t="n">
-        <v>1.905</v>
+        <v>6.5</v>
       </c>
       <c r="CD20" t="n">
-        <v>1.499545454545454</v>
+        <v>11.5</v>
       </c>
       <c r="CE20" t="n">
-        <v>2.947090909090909</v>
+        <v>40.5</v>
       </c>
       <c r="CF20" t="n">
-        <v>2.673181818181818</v>
+        <v>2</v>
       </c>
       <c r="CG20" t="n">
-        <v>1.470363636363636</v>
+        <v>1</v>
       </c>
       <c r="CH20" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="CI20" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="CJ20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>79.17</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>17.33</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="CW20" t="n">
+        <v>5.96</v>
+      </c>
+      <c r="CX20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="DA20" t="n">
         <v>3.17</v>
       </c>
-      <c r="CK20" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="CW20" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="CX20" t="n">
-        <v>79.17</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>0</v>
-      </c>
       <c r="DB20" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DC20" t="n">
-        <v>0</v>
+        <v>7.05</v>
       </c>
       <c r="DD20" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="DE20" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="DF20" t="n">
-        <v>17.33</v>
+        <v>2.55</v>
       </c>
       <c r="DG20" t="n">
-        <v>12</v>
+        <v>2.69</v>
       </c>
       <c r="DH20" t="n">
-        <v>9.17</v>
+        <v>1.55</v>
       </c>
       <c r="DI20" t="n">
         <v>4.73</v>
@@ -9179,13 +9191,13 @@
         <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.835</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
         <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.33</v>
@@ -9212,25 +9224,25 @@
         <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>2.835</v>
+        <v>2.5</v>
       </c>
       <c r="T21" t="n">
-        <v>0.7483333333333334</v>
+        <v>0.17</v>
       </c>
       <c r="U21" t="n">
-        <v>0.335</v>
+        <v>0.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.165</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0.5816666666666667</v>
+        <v>0.83</v>
       </c>
       <c r="X21" t="n">
-        <v>1.751666666666667</v>
+        <v>1.83</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.083333333333333</v>
+        <v>0.67</v>
       </c>
       <c r="Z21" t="n">
         <v>3.67</v>
@@ -9239,10 +9251,10 @@
         <v>2.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>4.083333333333333</v>
+        <v>3.17</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.416666666666667</v>
+        <v>4.33</v>
       </c>
       <c r="AD21" t="n">
         <v>0.5</v>
@@ -9251,10 +9263,10 @@
         <v>0.83</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.498333333333333</v>
+        <v>1.67</v>
       </c>
       <c r="AG21" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AH21" t="n">
         <v>58</v>
@@ -9266,7 +9278,7 @@
         <v>2.01</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.944166666666666</v>
+        <v>2.75</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -9299,199 +9311,199 @@
         <v>1</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.915</v>
+        <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.5016666666666667</v>
+        <v>0.33</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.17</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.08500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ21" t="n">
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.415</v>
+        <v>0.5</v>
       </c>
       <c r="BB21" t="n">
-        <v>2.16</v>
+        <v>1.68</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.808333333333334</v>
+        <v>3.92</v>
       </c>
       <c r="BD21" t="n">
-        <v>4.365833333333334</v>
+        <v>1.64</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.235833333333333</v>
+        <v>2.21</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.8175</v>
+        <v>2.31</v>
       </c>
       <c r="BG21" t="n">
-        <v>2.899166666666666</v>
+        <v>1.8</v>
       </c>
       <c r="BH21" t="n">
-        <v>1.716666666666667</v>
+        <v>1.56</v>
       </c>
       <c r="BI21" t="n">
-        <v>2.108333333333333</v>
+        <v>1.98</v>
       </c>
       <c r="BJ21" t="n">
-        <v>2.336666666666666</v>
+        <v>1.34</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.8175</v>
+        <v>2.55</v>
       </c>
       <c r="BL21" t="n">
-        <v>1.5325</v>
+        <v>1.77</v>
       </c>
       <c r="BM21" t="n">
-        <v>1.996666666666667</v>
+        <v>3.98</v>
       </c>
       <c r="BN21" t="n">
-        <v>1.3375</v>
+        <v>1.7</v>
       </c>
       <c r="BO21" t="n">
-        <v>2.588333333333333</v>
+        <v>2.24</v>
       </c>
       <c r="BP21" t="n">
-        <v>3.086666666666667</v>
+        <v>2.26</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.479166666666667</v>
+        <v>1.85</v>
       </c>
       <c r="BR21" t="n">
-        <v>2.283333333333334</v>
+        <v>1.64</v>
       </c>
       <c r="BS21" t="n">
-        <v>3.895833333333333</v>
+        <v>2</v>
       </c>
       <c r="BT21" t="n">
-        <v>4.563333333333333</v>
+        <v>1.37</v>
       </c>
       <c r="BU21" t="n">
-        <v>1.286</v>
+        <v>2.67</v>
       </c>
       <c r="BV21" t="n">
-        <v>1.833333333333333</v>
+        <v>1.17</v>
       </c>
       <c r="BW21" t="n">
-        <v>2.981666666666667</v>
+        <v>1.33</v>
       </c>
       <c r="BX21" t="n">
-        <v>1.774166666666667</v>
+        <v>3</v>
       </c>
       <c r="BY21" t="n">
-        <v>2.175</v>
+        <v>2.83</v>
       </c>
       <c r="BZ21" t="n">
-        <v>2.36</v>
+        <v>0.17</v>
       </c>
       <c r="CA21" t="n">
-        <v>1.904</v>
+        <v>3.17</v>
       </c>
       <c r="CB21" t="n">
-        <v>1.58875</v>
+        <v>6.5</v>
       </c>
       <c r="CC21" t="n">
-        <v>1.938</v>
+        <v>9.67</v>
       </c>
       <c r="CD21" t="n">
-        <v>1.374</v>
+        <v>12.33</v>
       </c>
       <c r="CE21" t="n">
-        <v>2.73</v>
+        <v>37.83</v>
       </c>
       <c r="CF21" t="n">
-        <v>3.141</v>
+        <v>3</v>
       </c>
       <c r="CG21" t="n">
-        <v>1.485833333333333</v>
+        <v>1.33</v>
       </c>
       <c r="CH21" t="n">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="CI21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="CJ21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="CK21" t="n">
-        <v>2.83</v>
+        <v>34.5</v>
       </c>
       <c r="CL21" t="n">
+        <v>75.33</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="CN21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CM21" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>6.5</v>
-      </c>
       <c r="CO21" t="n">
-        <v>9.67</v>
+        <v>0.17</v>
       </c>
       <c r="CP21" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
       <c r="CQ21" t="n">
-        <v>37.83</v>
+        <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>3</v>
+        <v>0.17</v>
       </c>
       <c r="CS21" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>1.67</v>
+        <v>16.33</v>
       </c>
       <c r="CU21" t="n">
-        <v>1</v>
+        <v>11.67</v>
       </c>
       <c r="CV21" t="n">
-        <v>2</v>
+        <v>7.67</v>
       </c>
       <c r="CW21" t="n">
-        <v>34.5</v>
+        <v>3.27</v>
       </c>
       <c r="CX21" t="n">
-        <v>75.33</v>
+        <v>1.22</v>
       </c>
       <c r="CY21" t="n">
-        <v>1.08</v>
+        <v>1.78</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.17</v>
+        <v>2.88</v>
       </c>
       <c r="DA21" t="n">
-        <v>0.17</v>
+        <v>3.13</v>
       </c>
       <c r="DB21" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="DC21" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="DD21" t="n">
-        <v>0.17</v>
+        <v>1.28</v>
       </c>
       <c r="DE21" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="DF21" t="n">
-        <v>16.33</v>
+        <v>3.02</v>
       </c>
       <c r="DG21" t="n">
-        <v>11.67</v>
+        <v>3.16</v>
       </c>
       <c r="DH21" t="n">
-        <v>7.67</v>
+        <v>1.51</v>
       </c>
       <c r="DI21" t="n">
         <v>4.75</v>

--- a/data/teams/leagues_total/all_leagues_combined.xlsx
+++ b/data/teams/leagues_total/all_leagues_combined.xlsx
@@ -488,63 +488,63 @@
     <col width="7.199999999999999" customWidth="1" min="53" max="53"/>
     <col width="18" customWidth="1" min="54" max="54"/>
     <col width="18" customWidth="1" min="55" max="55"/>
-    <col width="22.8" customWidth="1" min="56" max="56"/>
-    <col width="21.6" customWidth="1" min="57" max="57"/>
-    <col width="32.4" customWidth="1" min="58" max="58"/>
-    <col width="32.4" customWidth="1" min="59" max="59"/>
-    <col width="31.2" customWidth="1" min="60" max="60"/>
-    <col width="31.2" customWidth="1" min="61" max="61"/>
-    <col width="31.2" customWidth="1" min="62" max="62"/>
+    <col width="24" customWidth="1" min="56" max="56"/>
+    <col width="24" customWidth="1" min="57" max="57"/>
+    <col width="24" customWidth="1" min="58" max="58"/>
+    <col width="22.8" customWidth="1" min="59" max="59"/>
+    <col width="21.6" customWidth="1" min="60" max="60"/>
+    <col width="32.4" customWidth="1" min="61" max="61"/>
+    <col width="32.4" customWidth="1" min="62" max="62"/>
     <col width="31.2" customWidth="1" min="63" max="63"/>
-    <col width="18" customWidth="1" min="64" max="64"/>
-    <col width="18" customWidth="1" min="65" max="65"/>
-    <col width="22.8" customWidth="1" min="66" max="66"/>
-    <col width="21.6" customWidth="1" min="67" max="67"/>
+    <col width="31.2" customWidth="1" min="64" max="64"/>
+    <col width="31.2" customWidth="1" min="65" max="65"/>
+    <col width="31.2" customWidth="1" min="66" max="66"/>
+    <col width="32.4" customWidth="1" min="67" max="67"/>
     <col width="32.4" customWidth="1" min="68" max="68"/>
-    <col width="32.4" customWidth="1" min="69" max="69"/>
-    <col width="31.2" customWidth="1" min="70" max="70"/>
-    <col width="31.2" customWidth="1" min="71" max="71"/>
-    <col width="31.2" customWidth="1" min="72" max="72"/>
-    <col width="31.2" customWidth="1" min="73" max="73"/>
-    <col width="30" customWidth="1" min="74" max="74"/>
-    <col width="27.6" customWidth="1" min="75" max="75"/>
-    <col width="21.6" customWidth="1" min="76" max="76"/>
-    <col width="27.6" customWidth="1" min="77" max="77"/>
-    <col width="24" customWidth="1" min="78" max="78"/>
-    <col width="28.8" customWidth="1" min="79" max="79"/>
-    <col width="30" customWidth="1" min="80" max="80"/>
-    <col width="19.2" customWidth="1" min="81" max="81"/>
-    <col width="19.2" customWidth="1" min="82" max="82"/>
-    <col width="25.2" customWidth="1" min="83" max="83"/>
-    <col width="24" customWidth="1" min="84" max="84"/>
-    <col width="25.2" customWidth="1" min="85" max="85"/>
-    <col width="25.2" customWidth="1" min="86" max="86"/>
-    <col width="22.8" customWidth="1" min="87" max="87"/>
-    <col width="22.8" customWidth="1" min="88" max="88"/>
-    <col width="33.6" customWidth="1" min="89" max="89"/>
-    <col width="21.6" customWidth="1" min="90" max="90"/>
-    <col width="15.6" customWidth="1" min="91" max="91"/>
-    <col width="28.8" customWidth="1" min="92" max="92"/>
-    <col width="28.8" customWidth="1" min="93" max="93"/>
-    <col width="30" customWidth="1" min="94" max="94"/>
-    <col width="30" customWidth="1" min="95" max="95"/>
-    <col width="32.4" customWidth="1" min="96" max="96"/>
-    <col width="30" customWidth="1" min="97" max="97"/>
+    <col width="18" customWidth="1" min="69" max="69"/>
+    <col width="18" customWidth="1" min="70" max="70"/>
+    <col width="24" customWidth="1" min="71" max="71"/>
+    <col width="24" customWidth="1" min="72" max="72"/>
+    <col width="24" customWidth="1" min="73" max="73"/>
+    <col width="22.8" customWidth="1" min="74" max="74"/>
+    <col width="21.6" customWidth="1" min="75" max="75"/>
+    <col width="32.4" customWidth="1" min="76" max="76"/>
+    <col width="32.4" customWidth="1" min="77" max="77"/>
+    <col width="31.2" customWidth="1" min="78" max="78"/>
+    <col width="31.2" customWidth="1" min="79" max="79"/>
+    <col width="31.2" customWidth="1" min="80" max="80"/>
+    <col width="31.2" customWidth="1" min="81" max="81"/>
+    <col width="32.4" customWidth="1" min="82" max="82"/>
+    <col width="32.4" customWidth="1" min="83" max="83"/>
+    <col width="30" customWidth="1" min="84" max="84"/>
+    <col width="27.6" customWidth="1" min="85" max="85"/>
+    <col width="21.6" customWidth="1" min="86" max="86"/>
+    <col width="27.6" customWidth="1" min="87" max="87"/>
+    <col width="24" customWidth="1" min="88" max="88"/>
+    <col width="28.8" customWidth="1" min="89" max="89"/>
+    <col width="30" customWidth="1" min="90" max="90"/>
+    <col width="19.2" customWidth="1" min="91" max="91"/>
+    <col width="19.2" customWidth="1" min="92" max="92"/>
+    <col width="25.2" customWidth="1" min="93" max="93"/>
+    <col width="24" customWidth="1" min="94" max="94"/>
+    <col width="25.2" customWidth="1" min="95" max="95"/>
+    <col width="25.2" customWidth="1" min="96" max="96"/>
+    <col width="22.8" customWidth="1" min="97" max="97"/>
     <col width="22.8" customWidth="1" min="98" max="98"/>
-    <col width="24" customWidth="1" min="99" max="99"/>
-    <col width="24" customWidth="1" min="100" max="100"/>
-    <col width="18" customWidth="1" min="101" max="101"/>
-    <col width="24" customWidth="1" min="102" max="102"/>
-    <col width="24" customWidth="1" min="103" max="103"/>
-    <col width="24" customWidth="1" min="104" max="104"/>
-    <col width="32.4" customWidth="1" min="105" max="105"/>
+    <col width="33.6" customWidth="1" min="99" max="99"/>
+    <col width="21.6" customWidth="1" min="100" max="100"/>
+    <col width="15.6" customWidth="1" min="101" max="101"/>
+    <col width="28.8" customWidth="1" min="102" max="102"/>
+    <col width="28.8" customWidth="1" min="103" max="103"/>
+    <col width="30" customWidth="1" min="104" max="104"/>
+    <col width="30" customWidth="1" min="105" max="105"/>
     <col width="32.4" customWidth="1" min="106" max="106"/>
-    <col width="18" customWidth="1" min="107" max="107"/>
-    <col width="24" customWidth="1" min="108" max="108"/>
+    <col width="30" customWidth="1" min="107" max="107"/>
+    <col width="22.8" customWidth="1" min="108" max="108"/>
     <col width="24" customWidth="1" min="109" max="109"/>
     <col width="24" customWidth="1" min="110" max="110"/>
-    <col width="32.4" customWidth="1" min="111" max="111"/>
-    <col width="32.4" customWidth="1" min="112" max="112"/>
+    <col width="18" customWidth="1" min="111" max="111"/>
+    <col width="18" customWidth="1" min="112" max="112"/>
     <col width="22.8" customWidth="1" min="113" max="113"/>
     <col width="28.8" customWidth="1" min="114" max="114"/>
     <col width="25.2" customWidth="1" min="115" max="115"/>
@@ -850,287 +850,287 @@
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
+          <t>avg_odds_ft_over15</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>avg_odds_ft_over25</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>avg_odds_ft_over35</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
           <t>avg_odds_btts_yes</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_btts_no</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_corners_under_85</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_corners_under_95</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_corners_over_85</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_corners_over_95</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_1st_half_over05</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_1st_half_over15</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>avg_odds_1st_half_under05</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>avg_odds_1st_half_under15</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_ft_1</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_ft_x</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over15</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over25</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_ft_over35</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_btts_yes</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_btts_no</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_corners_under_85</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_corners_under_95</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_corners_over_85</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_corners_over_95</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_1st_half_over05</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_1st_half_over15</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_under05</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pinnacle_1st_half_under15</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_conceded</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goals_scored</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>away_avg_yellow_cards</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_red_cards</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOnTarget</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shotsOffTarget</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>away_avg_shots</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fouls</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>away_avg_possession</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_num</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_corners</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_corners</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>away_avg_fh_cards</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>away_avg_2h_cards</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>away_avg_dangerous_attacks</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>away_avg_attacks</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>away_avg_xg</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalties_won</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_goals</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>away_avg_penalty_missed</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>away_avg_0_10_min_goals</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>away_avg_corners_0_10_min</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>away_avg_cards_0_10_min</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>away_avg_throwins</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>away_avg_freekicks</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>away_avg_goalkicks</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>avg_odds_ft_2</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>avg_odds_ft_over15</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>avg_odds_ft_over25</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>avg_odds_ft_over35</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>avg_odds_1st_half_under05</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>avg_odds_1st_half_under15</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>pinnacle_ft_2</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>pinnacle_ft_over15</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>pinnacle_ft_over25</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>pinnacle_ft_over35</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>pinnacle_1st_half_under05</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>pinnacle_1st_half_under15</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
@@ -1427,176 +1427,176 @@
         <v>1.58</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.83</v>
+        <v>3.21</v>
       </c>
       <c r="BD2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="BG2" t="n">
         <v>1.89</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BH2" t="n">
         <v>1.88</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BI2" t="n">
         <v>2.22</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BJ2" t="n">
         <v>1.76</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BK2" t="n">
         <v>1.58</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BL2" t="n">
         <v>2.16</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BM2" t="n">
         <v>1.43</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BN2" t="n">
         <v>3.13</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BO2" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BQ2" t="n">
         <v>1.62</v>
       </c>
-      <c r="BM2" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="BN2" t="n">
+      <c r="BR2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="n">
         <v>1.98</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BW2" t="n">
         <v>1.9</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BX2" t="n">
         <v>2.22</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BY2" t="n">
         <v>1.76</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BZ2" t="n">
         <v>1.66</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="CA2" t="n">
         <v>2.09</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="CB2" t="n">
         <v>1.5</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="CC2" t="n">
         <v>3.24</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="CD2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="CF2" t="n">
         <v>1.4</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="CG2" t="n">
         <v>0.8</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="CH2" t="n">
         <v>5</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="CI2" t="n">
         <v>2.2</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="CJ2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CK2" t="n">
         <v>4</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CL2" t="n">
         <v>7.4</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CM2" t="n">
         <v>11.4</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CN2" t="n">
         <v>10.8</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CO2" t="n">
         <v>48.8</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CP2" t="n">
         <v>3</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CQ2" t="n">
         <v>2</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CR2" t="n">
         <v>3</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CS2" t="n">
         <v>0.4</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CT2" t="n">
         <v>2.2</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CU2" t="n">
         <v>46.6</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CV2" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CW2" t="n">
         <v>1.34</v>
       </c>
-      <c r="CN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR2" t="n">
+      <c r="CX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.2</v>
       </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
+      <c r="DC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD2" t="n">
         <v>21</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="DE2" t="n">
         <v>13.8</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="DF2" t="n">
         <v>6.8</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="DG2" t="n">
         <v>2.62</v>
       </c>
-      <c r="CX2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="DC2" t="n">
+      <c r="DH2" t="n">
         <v>2.75</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="DF2" t="inlineStr"/>
-      <c r="DG2" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>1.35</v>
       </c>
       <c r="DI2" t="n">
         <v>5.58</v>
@@ -1842,178 +1842,178 @@
         <v>1.62</v>
       </c>
       <c r="BC3" t="n">
-        <v>4.98</v>
+        <v>3.61</v>
       </c>
       <c r="BD3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BG3" t="n">
         <v>1.91</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BH3" t="n">
         <v>1.89</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BI3" t="n">
         <v>2.16</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BJ3" t="n">
         <v>1.73</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BK3" t="n">
         <v>1.63</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BL3" t="n">
         <v>2.14</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BM3" t="n">
         <v>1.43</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BN3" t="n">
         <v>2.95</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BO3" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>1.68</v>
       </c>
-      <c r="BM3" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="BN3" t="n">
+      <c r="BR3" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="BV3" t="n">
         <v>1.96</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BW3" t="n">
         <v>1.95</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BX3" t="n">
         <v>2.24</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BY3" t="n">
         <v>1.77</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BZ3" t="n">
         <v>1.65</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="CA3" t="n">
         <v>2.07</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="CB3" t="n">
         <v>1.44</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="CC3" t="n">
         <v>3.04</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="CD3" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CF3" t="n">
         <v>1</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="CG3" t="n">
         <v>1.2</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="CH3" t="n">
         <v>4.6</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="CI3" t="n">
         <v>1.8</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="CJ3" t="n">
         <v>0.4</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CK3" t="n">
         <v>4.4</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CL3" t="n">
         <v>7</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CM3" t="n">
         <v>11.4</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CN3" t="n">
         <v>12.4</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CO3" t="n">
         <v>52.2</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CP3" t="n">
         <v>2.4</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CQ3" t="n">
         <v>2</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CR3" t="n">
         <v>2.6</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CS3" t="n">
         <v>1</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CT3" t="n">
         <v>1.2</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CU3" t="n">
         <v>48.4</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CV3" t="n">
         <v>101.6</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CW3" t="n">
         <v>1.38</v>
       </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ3" t="n">
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
         <v>0.6</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="DB3" t="n">
         <v>0.6</v>
       </c>
-      <c r="CS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT3" t="n">
+      <c r="DC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD3" t="n">
         <v>16</v>
       </c>
-      <c r="CU3" t="n">
+      <c r="DE3" t="n">
         <v>10.2</v>
       </c>
-      <c r="CV3" t="n">
+      <c r="DF3" t="n">
         <v>9.4</v>
       </c>
-      <c r="CW3" t="n">
+      <c r="DG3" t="n">
         <v>1.88</v>
       </c>
-      <c r="CX3" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="DC3" t="n">
+      <c r="DH3" t="n">
         <v>1.83</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>1.4</v>
       </c>
       <c r="DI3" t="n">
         <v>7.5</v>
@@ -2259,178 +2259,178 @@
         <v>2.26</v>
       </c>
       <c r="BC4" t="n">
-        <v>3.03</v>
+        <v>4.08</v>
       </c>
       <c r="BD4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BG4" t="n">
         <v>1.95</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BH4" t="n">
         <v>1.82</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BI4" t="n">
         <v>2.43</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BJ4" t="n">
         <v>1.86</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BK4" t="n">
         <v>1.51</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BL4" t="n">
         <v>1.88</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BM4" t="n">
         <v>1.39</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BN4" t="n">
         <v>2.84</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BO4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>2.34</v>
       </c>
-      <c r="BM4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="BN4" t="n">
+      <c r="BR4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BV4" t="n">
         <v>2.03</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BW4" t="n">
         <v>1.85</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BX4" t="n">
         <v>2.38</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BY4" t="n">
         <v>1.93</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BZ4" t="n">
         <v>1.57</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="CA4" t="n">
         <v>1.92</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="CB4" t="n">
         <v>1.44</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="CC4" t="n">
         <v>2.82</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="CD4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CF4" t="n">
         <v>1.14</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="CG4" t="n">
         <v>0.14</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="CH4" t="n">
         <v>2.57</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="CI4" t="n">
         <v>1.86</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="CJ4" t="n">
         <v>0.29</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CK4" t="n">
         <v>2.43</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CL4" t="n">
         <v>6</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CM4" t="n">
         <v>8.43</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CN4" t="n">
         <v>12.14</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CO4" t="n">
         <v>44</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CP4" t="n">
         <v>2.29</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CQ4" t="n">
         <v>1.43</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CR4" t="n">
         <v>1.14</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CS4" t="n">
         <v>0.71</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CT4" t="n">
         <v>1.43</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CU4" t="n">
         <v>35.57</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CV4" t="n">
         <v>80.56999999999999</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CW4" t="n">
         <v>0.97</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CX4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CY4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" t="n">
+      <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
         <v>0.14</v>
       </c>
-      <c r="CS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" t="n">
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
         <v>16.71</v>
       </c>
-      <c r="CU4" t="n">
+      <c r="DE4" t="n">
         <v>12.29</v>
       </c>
-      <c r="CV4" t="n">
+      <c r="DF4" t="n">
         <v>10</v>
       </c>
-      <c r="CW4" t="n">
+      <c r="DG4" t="n">
         <v>5.81</v>
       </c>
-      <c r="CX4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="DB4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="DC4" t="n">
+      <c r="DH4" t="n">
         <v>6.02</v>
-      </c>
-      <c r="DD4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DE4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="DF4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="DG4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="DH4" t="n">
-        <v>1.47</v>
       </c>
       <c r="DI4" t="n">
         <v>2.67</v>
@@ -2676,178 +2676,178 @@
         <v>2.59</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="BD5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BG5" t="n">
         <v>1.82</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BH5" t="n">
         <v>1.99</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BI5" t="n">
         <v>2.16</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BJ5" t="n">
         <v>1.74</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BK5" t="n">
         <v>1.64</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BL5" t="n">
         <v>2.09</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BM5" t="n">
         <v>1.44</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BN5" t="n">
         <v>3</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BO5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BQ5" t="n">
         <v>2.64</v>
       </c>
-      <c r="BM5" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="BN5" t="n">
+      <c r="BR5" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BV5" t="n">
         <v>1.8</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BW5" t="n">
         <v>2.1</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BX5" t="n">
         <v>2.23</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BY5" t="n">
         <v>1.76</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BZ5" t="n">
         <v>1.68</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="CA5" t="n">
         <v>2.12</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="CB5" t="n">
         <v>1.42</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="CC5" t="n">
         <v>3.1</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="CD5" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CF5" t="n">
         <v>1.4</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="CG5" t="n">
         <v>1.6</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="CH5" t="n">
         <v>3.8</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="CI5" t="n">
         <v>2.8</v>
       </c>
-      <c r="BZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" t="n">
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
         <v>4</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CL5" t="n">
         <v>7.2</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CM5" t="n">
         <v>11.2</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CN5" t="n">
         <v>13.4</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CO5" t="n">
         <v>46.4</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CP5" t="n">
         <v>2.8</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CQ5" t="n">
         <v>1.4</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CR5" t="n">
         <v>1.6</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CS5" t="n">
         <v>0.8</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CT5" t="n">
         <v>2</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CU5" t="n">
         <v>37.8</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CV5" t="n">
         <v>83.59999999999999</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CW5" t="n">
         <v>1.27</v>
       </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
+      <c r="CX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
         <v>-0.2</v>
       </c>
-      <c r="CS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" t="n">
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
         <v>19.2</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="DE5" t="n">
         <v>10.4</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="DF5" t="n">
         <v>9.4</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="DG5" t="n">
         <v>2.74</v>
       </c>
-      <c r="CX5" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="CY5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="CZ5" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DB5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="DC5" t="n">
+      <c r="DH5" t="n">
         <v>2.9</v>
-      </c>
-      <c r="DD5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="DE5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="DF5" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="DG5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DH5" t="n">
-        <v>1.38</v>
       </c>
       <c r="DI5" t="n">
         <v>5.09</v>
@@ -3093,176 +3093,176 @@
         <v>2.79</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="BD6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BG6" t="n">
         <v>2.23</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BH6" t="n">
         <v>1.64</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BI6" t="n">
         <v>2.19</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BJ6" t="n">
         <v>1.74</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BK6" t="n">
         <v>1.62</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BL6" t="n">
         <v>2.3</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BM6" t="n">
         <v>1.61</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BN6" t="n">
         <v>3.54</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BO6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BQ6" t="n">
         <v>2.88</v>
       </c>
-      <c r="BM6" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="BN6" t="n">
+      <c r="BR6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="n">
         <v>2.33</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BW6" t="n">
         <v>1.68</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BX6" t="n">
         <v>2.17</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BY6" t="n">
         <v>1.72</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BZ6" t="n">
         <v>1.73</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="CA6" t="n">
         <v>2.18</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="CB6" t="n">
         <v>1.48</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="CC6" t="n">
         <v>3.35</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="CD6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0.83</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="CG6" t="n">
         <v>0.33</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="CH6" t="n">
         <v>4.83</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="CI6" t="n">
         <v>3</v>
       </c>
-      <c r="BZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA6" t="n">
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
         <v>3.5</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CL6" t="n">
         <v>7</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CM6" t="n">
         <v>10.5</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CN6" t="n">
         <v>17</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CO6" t="n">
         <v>50.33</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CP6" t="n">
         <v>3</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CQ6" t="n">
         <v>2.67</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CR6" t="n">
         <v>2.17</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CS6" t="n">
         <v>1</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CT6" t="n">
         <v>2</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CU6" t="n">
         <v>41.83</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CV6" t="n">
         <v>98.67</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CW6" t="n">
         <v>1.22</v>
       </c>
-      <c r="CN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR6" t="n">
+      <c r="CX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.33</v>
       </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT6" t="n">
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
         <v>19.83</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="DE6" t="n">
         <v>12.83</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="DF6" t="n">
         <v>8.83</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="DG6" t="n">
         <v>4.23</v>
       </c>
-      <c r="CX6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="CY6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="CZ6" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="DB6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="DC6" t="n">
+      <c r="DH6" t="n">
         <v>4.54</v>
-      </c>
-      <c r="DD6" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DE6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="DF6" t="inlineStr"/>
-      <c r="DG6" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="DH6" t="n">
-        <v>1.34</v>
       </c>
       <c r="DI6" t="n">
         <v>5.5</v>
@@ -3508,178 +3508,178 @@
         <v>2.74</v>
       </c>
       <c r="BC7" t="n">
-        <v>3.1</v>
+        <v>4.26</v>
       </c>
       <c r="BD7" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BG7" t="n">
         <v>2.02</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BH7" t="n">
         <v>1.75</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BI7" t="n">
         <v>2.22</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BJ7" t="n">
         <v>1.75</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BK7" t="n">
         <v>1.62</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BL7" t="n">
         <v>2.06</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BM7" t="n">
         <v>1.41</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BN7" t="n">
         <v>2.9</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BO7" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BQ7" t="n">
         <v>3.01</v>
       </c>
-      <c r="BM7" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="BN7" t="n">
+      <c r="BR7" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BV7" t="n">
         <v>2.16</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BW7" t="n">
         <v>1.76</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BX7" t="n">
         <v>2.15</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BY7" t="n">
         <v>1.82</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BZ7" t="n">
         <v>1.71</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="CA7" t="n">
         <v>2.04</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="CB7" t="n">
         <v>1.47</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="CC7" t="n">
         <v>2.88</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="CD7" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="CF7" t="n">
         <v>1.83</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="CG7" t="n">
         <v>1</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="CH7" t="n">
         <v>2.67</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="CI7" t="n">
         <v>2</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CJ7" t="n">
         <v>0.17</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CK7" t="n">
         <v>3</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CL7" t="n">
         <v>5.5</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CM7" t="n">
         <v>8.5</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CN7" t="n">
         <v>13.17</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CO7" t="n">
         <v>53.5</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CP7" t="n">
         <v>2.33</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CQ7" t="n">
         <v>1.17</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CR7" t="n">
         <v>1.5</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CS7" t="n">
         <v>1.17</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CT7" t="n">
         <v>1</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CU7" t="n">
         <v>34.5</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CV7" t="n">
         <v>88.83</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CW7" t="n">
         <v>1.01</v>
       </c>
-      <c r="CN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR7" t="n">
+      <c r="CX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
         <v>0.33</v>
       </c>
-      <c r="CS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT7" t="n">
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
         <v>16.67</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="DE7" t="n">
         <v>15.83</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="DF7" t="n">
         <v>7.17</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="DG7" t="n">
         <v>6.6</v>
       </c>
-      <c r="CX7" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="DC7" t="n">
+      <c r="DH7" t="n">
         <v>7.31</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>1.49</v>
       </c>
       <c r="DI7" t="n">
         <v>3.17</v>
@@ -3925,168 +3925,168 @@
         <v>1.23</v>
       </c>
       <c r="BC8" t="n">
-        <v>6.2</v>
+        <v>5.47</v>
       </c>
       <c r="BD8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BG8" t="n">
         <v>1.68</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BH8" t="n">
         <v>2.3</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BI8" t="n">
         <v>2.76</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BJ8" t="n">
         <v>2.14</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BK8" t="n">
         <v>1.43</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BL8" t="n">
         <v>1.69</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BM8" t="n">
         <v>1.21</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BN8" t="n">
         <v>2.04</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BO8" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BQ8" t="n">
         <v>1.27</v>
       </c>
-      <c r="BM8" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="BN8" t="n">
+      <c r="BR8" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BV8" t="n">
         <v>1.7</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BW8" t="n">
         <v>2.41</v>
       </c>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="n">
+      <c r="BX8" t="inlineStr"/>
+      <c r="BY8" t="n">
         <v>2.16</v>
       </c>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="n">
+      <c r="BZ8" t="inlineStr"/>
+      <c r="CA8" t="n">
         <v>1.71</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="n">
+      <c r="CB8" t="inlineStr"/>
+      <c r="CC8" t="n">
         <v>2.07</v>
       </c>
-      <c r="BV8" t="n">
+      <c r="CD8" t="inlineStr"/>
+      <c r="CE8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="CF8" t="n">
         <v>1.67</v>
       </c>
-      <c r="BW8" t="n">
+      <c r="CG8" t="n">
         <v>2</v>
       </c>
-      <c r="BX8" t="n">
+      <c r="CH8" t="n">
         <v>6.67</v>
       </c>
-      <c r="BY8" t="n">
+      <c r="CI8" t="n">
         <v>2</v>
       </c>
-      <c r="BZ8" t="n">
+      <c r="CJ8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CA8" t="n">
+      <c r="CK8" t="n">
         <v>7.5</v>
       </c>
-      <c r="CB8" t="n">
+      <c r="CL8" t="n">
         <v>11.83</v>
       </c>
-      <c r="CC8" t="n">
+      <c r="CM8" t="n">
         <v>19.33</v>
       </c>
-      <c r="CD8" t="n">
+      <c r="CN8" t="n">
         <v>9.5</v>
       </c>
-      <c r="CE8" t="n">
+      <c r="CO8" t="n">
         <v>69.67</v>
       </c>
-      <c r="CF8" t="n">
+      <c r="CP8" t="n">
         <v>2.17</v>
       </c>
-      <c r="CG8" t="n">
+      <c r="CQ8" t="n">
         <v>2.83</v>
       </c>
-      <c r="CH8" t="n">
+      <c r="CR8" t="n">
         <v>3.83</v>
       </c>
-      <c r="CI8" t="n">
+      <c r="CS8" t="n">
         <v>1</v>
       </c>
-      <c r="CJ8" t="n">
+      <c r="CT8" t="n">
         <v>1.17</v>
       </c>
-      <c r="CK8" t="n">
+      <c r="CU8" t="n">
         <v>62.17</v>
       </c>
-      <c r="CL8" t="n">
+      <c r="CV8" t="n">
         <v>115.33</v>
       </c>
-      <c r="CM8" t="n">
+      <c r="CW8" t="n">
         <v>2.19</v>
       </c>
-      <c r="CN8" t="n">
+      <c r="CX8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO8" t="n">
+      <c r="CY8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ8" t="n">
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA8" t="n">
         <v>0.17</v>
       </c>
-      <c r="CR8" t="n">
+      <c r="DB8" t="n">
         <v>0.83</v>
       </c>
-      <c r="CS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT8" t="n">
+      <c r="DC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD8" t="n">
         <v>18.33</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="DE8" t="n">
         <v>12.67</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="DF8" t="n">
         <v>4.5</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="DG8" t="n">
         <v>1.66</v>
       </c>
-      <c r="CX8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="CY8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="CZ8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="DA8" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="DB8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="DC8" t="n">
+      <c r="DH8" t="n">
         <v>1.74</v>
-      </c>
-      <c r="DD8" t="inlineStr"/>
-      <c r="DE8" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DF8" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="DG8" t="inlineStr"/>
-      <c r="DH8" t="n">
-        <v>1.78</v>
       </c>
       <c r="DI8" t="n">
         <v>7</v>
@@ -4332,175 +4332,175 @@
         <v>3.1</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.26</v>
+        <v>3.54</v>
       </c>
       <c r="BD9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG9" t="n">
         <v>2.36</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BH9" t="n">
         <v>1.59</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BI9" t="n">
         <v>1.98</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BJ9" t="n">
         <v>1.57</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BK9" t="n">
         <v>1.77</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BL9" t="n">
         <v>2.48</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BM9" t="n">
         <v>1.55</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BN9" t="n">
         <v>3.53</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BO9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BQ9" t="n">
         <v>3.2</v>
       </c>
-      <c r="BM9" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="BN9" t="n">
+      <c r="BR9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BV9" t="n">
         <v>2.44</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BW9" t="n">
         <v>1.62</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BX9" t="n">
         <v>1.86</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BY9" t="n">
         <v>1.61</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BZ9" t="n">
         <v>1.99</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="CA9" t="n">
         <v>2.39</v>
       </c>
-      <c r="BT9" t="n">
+      <c r="CB9" t="n">
         <v>1.66</v>
       </c>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="n">
+      <c r="CC9" t="inlineStr"/>
+      <c r="CD9" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="CE9" t="inlineStr"/>
+      <c r="CF9" t="n">
         <v>1.5</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="CG9" t="n">
         <v>1</v>
       </c>
-      <c r="BX9" t="n">
+      <c r="CH9" t="n">
         <v>4.17</v>
       </c>
-      <c r="BY9" t="n">
+      <c r="CI9" t="n">
         <v>2.5</v>
       </c>
-      <c r="BZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA9" t="n">
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
         <v>2.83</v>
       </c>
-      <c r="CB9" t="n">
+      <c r="CL9" t="n">
         <v>5</v>
       </c>
-      <c r="CC9" t="n">
+      <c r="CM9" t="n">
         <v>7.83</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CN9" t="n">
         <v>15.33</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CO9" t="n">
         <v>36</v>
       </c>
-      <c r="CF9" t="n">
+      <c r="CP9" t="n">
         <v>2.5</v>
       </c>
-      <c r="CG9" t="n">
+      <c r="CQ9" t="n">
         <v>1.67</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CR9" t="n">
         <v>2.5</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CS9" t="n">
         <v>0.83</v>
       </c>
-      <c r="CJ9" t="n">
+      <c r="CT9" t="n">
         <v>1.67</v>
       </c>
-      <c r="CK9" t="n">
+      <c r="CU9" t="n">
         <v>37.67</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CV9" t="n">
         <v>89.83</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CW9" t="n">
         <v>0.97</v>
       </c>
-      <c r="CN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR9" t="n">
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
         <v>0.33</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="DC9" t="n">
         <v>0.17</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="DD9" t="n">
         <v>23.83</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="DE9" t="n">
         <v>13</v>
       </c>
-      <c r="CV9" t="n">
+      <c r="DF9" t="n">
         <v>7.67</v>
       </c>
-      <c r="CW9" t="n">
+      <c r="DG9" t="n">
         <v>5.65</v>
       </c>
-      <c r="CX9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="DB9" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="DC9" t="n">
+      <c r="DH9" t="n">
         <v>6.19</v>
       </c>
-      <c r="DD9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="DE9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="DF9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="DG9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="DH9" t="inlineStr"/>
       <c r="DI9" t="n">
         <v>4.18</v>
       </c>
@@ -4745,178 +4745,178 @@
         <v>2.21</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.2</v>
+        <v>4.66</v>
       </c>
       <c r="BD10" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="BG10" t="n">
         <v>1.87</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BH10" t="n">
         <v>1.9</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BI10" t="n">
         <v>2.27</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BJ10" t="n">
         <v>1.77</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BK10" t="n">
         <v>1.62</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BL10" t="n">
         <v>2</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BM10" t="n">
         <v>1.34</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BN10" t="n">
         <v>2.66</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BO10" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>2.28</v>
       </c>
-      <c r="BM10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="BN10" t="n">
+      <c r="BR10" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BV10" t="n">
         <v>1.91</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BW10" t="n">
         <v>1.97</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BX10" t="n">
         <v>2.11</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BY10" t="n">
         <v>1.85</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BZ10" t="n">
         <v>1.77</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="CA10" t="n">
         <v>2.06</v>
       </c>
-      <c r="BT10" t="n">
+      <c r="CB10" t="n">
         <v>1.44</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="CC10" t="n">
         <v>2.73</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="CD10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="CF10" t="n">
         <v>2.2</v>
       </c>
-      <c r="BW10" t="n">
+      <c r="CG10" t="n">
         <v>0.8</v>
       </c>
-      <c r="BX10" t="n">
+      <c r="CH10" t="n">
         <v>2.6</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="CI10" t="n">
         <v>2</v>
       </c>
-      <c r="BZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA10" t="n">
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
         <v>4.2</v>
       </c>
-      <c r="CB10" t="n">
+      <c r="CL10" t="n">
         <v>4.4</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CM10" t="n">
         <v>8.6</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CN10" t="n">
         <v>11</v>
       </c>
-      <c r="CE10" t="n">
+      <c r="CO10" t="n">
         <v>42.4</v>
       </c>
-      <c r="CF10" t="n">
+      <c r="CP10" t="n">
         <v>2</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CQ10" t="n">
         <v>1.4</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CR10" t="n">
         <v>1.2</v>
       </c>
-      <c r="CI10" t="n">
+      <c r="CS10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CJ10" t="n">
+      <c r="CT10" t="n">
         <v>1.8</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CU10" t="n">
         <v>28.2</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CV10" t="n">
         <v>70.8</v>
       </c>
-      <c r="CM10" t="n">
+      <c r="CW10" t="n">
         <v>1.05</v>
       </c>
-      <c r="CN10" t="n">
+      <c r="CX10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CY10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
         <v>0.2</v>
       </c>
-      <c r="CR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT10" t="n">
+      <c r="DB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
         <v>14.4</v>
       </c>
-      <c r="CU10" t="n">
+      <c r="DE10" t="n">
         <v>12</v>
       </c>
-      <c r="CV10" t="n">
+      <c r="DF10" t="n">
         <v>13.4</v>
       </c>
-      <c r="CW10" t="n">
+      <c r="DG10" t="n">
         <v>6.91</v>
       </c>
-      <c r="CX10" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DC10" t="n">
+      <c r="DH10" t="n">
         <v>7.17</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>1.47</v>
       </c>
       <c r="DI10" t="n">
         <v>4.66</v>
@@ -5162,178 +5162,178 @@
         <v>5.37</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.44</v>
+        <v>3.78</v>
       </c>
       <c r="BD11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BG11" t="n">
         <v>1.91</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BH11" t="n">
         <v>1.85</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BI11" t="n">
         <v>2.36</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BJ11" t="n">
         <v>1.84</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BK11" t="n">
         <v>1.54</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BL11" t="n">
         <v>2.07</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BM11" t="n">
         <v>1.42</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BN11" t="n">
         <v>2.92</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BO11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BQ11" t="n">
         <v>5.78</v>
       </c>
-      <c r="BM11" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="BN11" t="n">
+      <c r="BR11" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BV11" t="n">
         <v>1.96</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BW11" t="n">
         <v>1.94</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BX11" t="n">
         <v>2.27</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BY11" t="n">
         <v>1.79</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BZ11" t="n">
         <v>1.65</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="CA11" t="n">
         <v>2.08</v>
       </c>
-      <c r="BT11" t="n">
+      <c r="CB11" t="n">
         <v>1.45</v>
       </c>
-      <c r="BU11" t="n">
+      <c r="CC11" t="n">
         <v>2.89</v>
       </c>
-      <c r="BV11" t="n">
+      <c r="CD11" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="CF11" t="n">
         <v>1.29</v>
       </c>
-      <c r="BW11" t="n">
+      <c r="CG11" t="n">
         <v>1.43</v>
       </c>
-      <c r="BX11" t="n">
+      <c r="CH11" t="n">
         <v>2.86</v>
       </c>
-      <c r="BY11" t="n">
+      <c r="CI11" t="n">
         <v>1.86</v>
       </c>
-      <c r="BZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA11" t="n">
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
         <v>3.86</v>
       </c>
-      <c r="CB11" t="n">
+      <c r="CL11" t="n">
         <v>7</v>
       </c>
-      <c r="CC11" t="n">
+      <c r="CM11" t="n">
         <v>10.86</v>
       </c>
-      <c r="CD11" t="n">
+      <c r="CN11" t="n">
         <v>13.14</v>
       </c>
-      <c r="CE11" t="n">
+      <c r="CO11" t="n">
         <v>41.14</v>
       </c>
-      <c r="CF11" t="n">
+      <c r="CP11" t="n">
         <v>1.86</v>
       </c>
-      <c r="CG11" t="n">
+      <c r="CQ11" t="n">
         <v>1.14</v>
       </c>
-      <c r="CH11" t="n">
+      <c r="CR11" t="n">
         <v>1.71</v>
       </c>
-      <c r="CI11" t="n">
+      <c r="CS11" t="n">
         <v>0.86</v>
       </c>
-      <c r="CJ11" t="n">
+      <c r="CT11" t="n">
         <v>1</v>
       </c>
-      <c r="CK11" t="n">
+      <c r="CU11" t="n">
         <v>39</v>
       </c>
-      <c r="CL11" t="n">
+      <c r="CV11" t="n">
         <v>85.56999999999999</v>
       </c>
-      <c r="CM11" t="n">
+      <c r="CW11" t="n">
         <v>1.24</v>
       </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
         <v>0.29</v>
       </c>
-      <c r="CS11" t="n">
+      <c r="DC11" t="n">
         <v>0.14</v>
       </c>
-      <c r="CT11" t="n">
+      <c r="DD11" t="n">
         <v>18</v>
       </c>
-      <c r="CU11" t="n">
+      <c r="DE11" t="n">
         <v>11</v>
       </c>
-      <c r="CV11" t="n">
+      <c r="DF11" t="n">
         <v>11.14</v>
       </c>
-      <c r="CW11" t="n">
+      <c r="DG11" t="n">
         <v>4.81</v>
       </c>
-      <c r="CX11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DC11" t="n">
+      <c r="DH11" t="n">
         <v>5.1</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="DH11" t="n">
-        <v>1.45</v>
       </c>
       <c r="DI11" t="n">
         <v>3.33</v>
@@ -5579,178 +5579,178 @@
         <v>3.01</v>
       </c>
       <c r="BC12" t="n">
-        <v>3.37</v>
+        <v>4.02</v>
       </c>
       <c r="BD12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="BG12" t="n">
         <v>1.96</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BH12" t="n">
         <v>1.79</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BI12" t="n">
         <v>2.51</v>
       </c>
-      <c r="BG12" t="n">
+      <c r="BJ12" t="n">
         <v>1.9</v>
       </c>
-      <c r="BH12" t="n">
+      <c r="BK12" t="n">
         <v>1.49</v>
       </c>
-      <c r="BI12" t="n">
+      <c r="BL12" t="n">
         <v>1.88</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BM12" t="n">
         <v>1.43</v>
       </c>
-      <c r="BK12" t="n">
+      <c r="BN12" t="n">
         <v>2.88</v>
       </c>
-      <c r="BL12" t="n">
+      <c r="BO12" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BQ12" t="n">
         <v>2.98</v>
       </c>
-      <c r="BM12" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="BN12" t="n">
+      <c r="BR12" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BV12" t="n">
         <v>1.92</v>
       </c>
-      <c r="BO12" t="n">
+      <c r="BW12" t="n">
         <v>1.95</v>
       </c>
-      <c r="BP12" t="n">
+      <c r="BX12" t="n">
         <v>2.37</v>
       </c>
-      <c r="BQ12" t="n">
+      <c r="BY12" t="n">
         <v>1.94</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BZ12" t="n">
         <v>1.55</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="CA12" t="n">
         <v>1.89</v>
       </c>
-      <c r="BT12" t="n">
+      <c r="CB12" t="n">
         <v>1.48</v>
       </c>
-      <c r="BU12" t="n">
+      <c r="CC12" t="n">
         <v>3.16</v>
       </c>
-      <c r="BV12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BW12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX12" t="n">
-        <v>4</v>
-      </c>
-      <c r="BY12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="BZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="CB12" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="CC12" t="n">
-        <v>15.8</v>
-      </c>
       <c r="CD12" t="n">
-        <v>13.8</v>
+        <v>2.74</v>
       </c>
       <c r="CE12" t="n">
-        <v>38.2</v>
+        <v>1.37</v>
       </c>
       <c r="CF12" t="n">
         <v>1.2</v>
       </c>
       <c r="CG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>4</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="CQ12" t="n">
         <v>2</v>
       </c>
-      <c r="CH12" t="n">
+      <c r="CR12" t="n">
         <v>2</v>
       </c>
-      <c r="CI12" t="n">
+      <c r="CS12" t="n">
         <v>0.6</v>
       </c>
-      <c r="CJ12" t="n">
+      <c r="CT12" t="n">
         <v>0.6</v>
       </c>
-      <c r="CK12" t="n">
+      <c r="CU12" t="n">
         <v>46</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="CV12" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="CM12" t="n">
+      <c r="CW12" t="n">
         <v>1.62</v>
       </c>
-      <c r="CN12" t="n">
+      <c r="CX12" t="n">
         <v>0.2</v>
       </c>
-      <c r="CO12" t="n">
+      <c r="CY12" t="n">
         <v>0.2</v>
       </c>
-      <c r="CP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ12" t="n">
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="n">
         <v>0.2</v>
       </c>
-      <c r="CR12" t="n">
+      <c r="DB12" t="n">
         <v>0.2</v>
       </c>
-      <c r="CS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT12" t="n">
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
         <v>20.8</v>
       </c>
-      <c r="CU12" t="n">
+      <c r="DE12" t="n">
         <v>11.4</v>
       </c>
-      <c r="CV12" t="n">
+      <c r="DF12" t="n">
         <v>7.2</v>
       </c>
-      <c r="CW12" t="n">
+      <c r="DG12" t="n">
         <v>5.43</v>
       </c>
-      <c r="CX12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DC12" t="n">
+      <c r="DH12" t="n">
         <v>5.73</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>1.37</v>
       </c>
       <c r="DI12" t="n">
         <v>4.33</v>
@@ -5996,178 +5996,178 @@
         <v>4.26</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="BD13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BG13" t="n">
         <v>2</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BH13" t="n">
         <v>1.76</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BI13" t="n">
         <v>2.48</v>
       </c>
-      <c r="BG13" t="n">
+      <c r="BJ13" t="n">
         <v>1.94</v>
       </c>
-      <c r="BH13" t="n">
+      <c r="BK13" t="n">
         <v>1.47</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BL13" t="n">
         <v>1.8</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BM13" t="n">
         <v>1.39</v>
       </c>
-      <c r="BK13" t="n">
+      <c r="BN13" t="n">
         <v>2.87</v>
       </c>
-      <c r="BL13" t="n">
+      <c r="BO13" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>4.4</v>
       </c>
-      <c r="BM13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="BN13" t="n">
+      <c r="BR13" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BV13" t="n">
         <v>2.11</v>
       </c>
-      <c r="BO13" t="n">
+      <c r="BW13" t="n">
         <v>1.8</v>
       </c>
-      <c r="BP13" t="n">
+      <c r="BX13" t="n">
         <v>2.37</v>
-      </c>
-      <c r="BQ13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BR13" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="BU13" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW13" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="BX13" t="n">
-        <v>4.17</v>
       </c>
       <c r="BY13" t="n">
         <v>2</v>
       </c>
       <c r="BZ13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>2</v>
+      </c>
+      <c r="CJ13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CA13" t="n">
+      <c r="CK13" t="n">
         <v>4.5</v>
       </c>
-      <c r="CB13" t="n">
+      <c r="CL13" t="n">
         <v>6.67</v>
       </c>
-      <c r="CC13" t="n">
+      <c r="CM13" t="n">
         <v>11.17</v>
       </c>
-      <c r="CD13" t="n">
+      <c r="CN13" t="n">
         <v>12</v>
       </c>
-      <c r="CE13" t="n">
+      <c r="CO13" t="n">
         <v>46.33</v>
       </c>
-      <c r="CF13" t="n">
+      <c r="CP13" t="n">
         <v>2.17</v>
       </c>
-      <c r="CG13" t="n">
+      <c r="CQ13" t="n">
         <v>1.33</v>
       </c>
-      <c r="CH13" t="n">
+      <c r="CR13" t="n">
         <v>2.83</v>
       </c>
-      <c r="CI13" t="n">
+      <c r="CS13" t="n">
         <v>0.83</v>
       </c>
-      <c r="CJ13" t="n">
+      <c r="CT13" t="n">
         <v>1.33</v>
       </c>
-      <c r="CK13" t="n">
+      <c r="CU13" t="n">
         <v>35.67</v>
       </c>
-      <c r="CL13" t="n">
+      <c r="CV13" t="n">
         <v>91.5</v>
       </c>
-      <c r="CM13" t="n">
+      <c r="CW13" t="n">
         <v>1.28</v>
       </c>
-      <c r="CN13" t="n">
+      <c r="CX13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO13" t="n">
+      <c r="CY13" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR13" t="n">
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="n">
         <v>0.33</v>
       </c>
-      <c r="CS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT13" t="n">
+      <c r="DC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD13" t="n">
         <v>17.33</v>
       </c>
-      <c r="CU13" t="n">
+      <c r="DE13" t="n">
         <v>12.33</v>
       </c>
-      <c r="CV13" t="n">
+      <c r="DF13" t="n">
         <v>7.67</v>
       </c>
-      <c r="CW13" t="n">
+      <c r="DG13" t="n">
         <v>6.46</v>
       </c>
-      <c r="CX13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="CY13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="CZ13" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="DA13" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="DB13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DC13" t="n">
+      <c r="DH13" t="n">
         <v>7.02</v>
-      </c>
-      <c r="DD13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="DE13" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DF13" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="DG13" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="DH13" t="n">
-        <v>1.45</v>
       </c>
       <c r="DI13" t="n">
         <v>3.91</v>
@@ -6413,178 +6413,178 @@
         <v>3.65</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.78</v>
+        <v>3.43</v>
       </c>
       <c r="BD14" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BG14" t="n">
         <v>1.85</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BH14" t="n">
         <v>1.93</v>
       </c>
-      <c r="BF14" t="n">
+      <c r="BI14" t="n">
         <v>2.52</v>
       </c>
-      <c r="BG14" t="n">
+      <c r="BJ14" t="n">
         <v>1.95</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BK14" t="n">
         <v>1.46</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BL14" t="n">
         <v>1.84</v>
       </c>
-      <c r="BJ14" t="n">
+      <c r="BM14" t="n">
         <v>1.4</v>
       </c>
-      <c r="BK14" t="n">
+      <c r="BN14" t="n">
         <v>2.9</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BO14" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BQ14" t="n">
         <v>3.91</v>
       </c>
-      <c r="BM14" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="BN14" t="n">
+      <c r="BR14" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BV14" t="n">
         <v>1.93</v>
       </c>
-      <c r="BO14" t="n">
+      <c r="BW14" t="n">
         <v>1.97</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BX14" t="n">
         <v>2.48</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BY14" t="n">
         <v>1.99</v>
       </c>
-      <c r="BR14" t="n">
+      <c r="BZ14" t="n">
         <v>1.52</v>
       </c>
-      <c r="BS14" t="n">
+      <c r="CA14" t="n">
         <v>1.85</v>
       </c>
-      <c r="BT14" t="n">
+      <c r="CB14" t="n">
         <v>1.44</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="CC14" t="n">
         <v>3.06</v>
       </c>
-      <c r="BV14" t="n">
+      <c r="CD14" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CF14" t="n">
         <v>1.57</v>
       </c>
-      <c r="BW14" t="n">
+      <c r="CG14" t="n">
         <v>1.29</v>
       </c>
-      <c r="BX14" t="n">
+      <c r="CH14" t="n">
         <v>5.14</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="CI14" t="n">
         <v>2.29</v>
       </c>
-      <c r="BZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA14" t="n">
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
         <v>3.57</v>
       </c>
-      <c r="CB14" t="n">
+      <c r="CL14" t="n">
         <v>7.86</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CM14" t="n">
         <v>11.43</v>
       </c>
-      <c r="CD14" t="n">
+      <c r="CN14" t="n">
         <v>14</v>
       </c>
-      <c r="CE14" t="n">
+      <c r="CO14" t="n">
         <v>52.29</v>
       </c>
-      <c r="CF14" t="n">
+      <c r="CP14" t="n">
         <v>2.29</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CQ14" t="n">
         <v>3.14</v>
       </c>
-      <c r="CH14" t="n">
+      <c r="CR14" t="n">
         <v>2</v>
       </c>
-      <c r="CI14" t="n">
+      <c r="CS14" t="n">
         <v>0.71</v>
       </c>
-      <c r="CJ14" t="n">
+      <c r="CT14" t="n">
         <v>1.57</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="CU14" t="n">
         <v>38.57</v>
       </c>
-      <c r="CL14" t="n">
+      <c r="CV14" t="n">
         <v>90.86</v>
       </c>
-      <c r="CM14" t="n">
+      <c r="CW14" t="n">
         <v>1.26</v>
       </c>
-      <c r="CN14" t="n">
+      <c r="CX14" t="n">
         <v>0.14</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="CY14" t="n">
         <v>0.14</v>
       </c>
-      <c r="CP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR14" t="n">
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
         <v>0.71</v>
       </c>
-      <c r="CS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT14" t="n">
+      <c r="DC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD14" t="n">
         <v>18.14</v>
       </c>
-      <c r="CU14" t="n">
+      <c r="DE14" t="n">
         <v>9.289999999999999</v>
       </c>
-      <c r="CV14" t="n">
+      <c r="DF14" t="n">
         <v>8.859999999999999</v>
       </c>
-      <c r="CW14" t="n">
+      <c r="DG14" t="n">
         <v>4.17</v>
       </c>
-      <c r="CX14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="DA14" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="DB14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DC14" t="n">
+      <c r="DH14" t="n">
         <v>4.35</v>
-      </c>
-      <c r="DD14" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DE14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="DF14" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="DG14" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DH14" t="n">
-        <v>1.4</v>
       </c>
       <c r="DI14" t="n">
         <v>6.16</v>
@@ -6830,178 +6830,178 @@
         <v>2.24</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="BD15" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BG15" t="n">
         <v>1.7</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BH15" t="n">
         <v>2.18</v>
       </c>
-      <c r="BF15" t="n">
+      <c r="BI15" t="n">
         <v>2.39</v>
       </c>
-      <c r="BG15" t="n">
+      <c r="BJ15" t="n">
         <v>1.87</v>
       </c>
-      <c r="BH15" t="n">
+      <c r="BK15" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BL15" t="n">
         <v>1.89</v>
       </c>
-      <c r="BJ15" t="n">
+      <c r="BM15" t="n">
         <v>1.37</v>
       </c>
-      <c r="BK15" t="n">
+      <c r="BN15" t="n">
         <v>2.71</v>
       </c>
-      <c r="BL15" t="n">
+      <c r="BO15" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BQ15" t="n">
         <v>2.34</v>
       </c>
-      <c r="BM15" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="BN15" t="n">
+      <c r="BR15" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BV15" t="n">
         <v>1.67</v>
       </c>
-      <c r="BO15" t="n">
+      <c r="BW15" t="n">
         <v>2.34</v>
       </c>
-      <c r="BP15" t="n">
+      <c r="BX15" t="n">
         <v>2.4</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BY15" t="n">
         <v>1.87</v>
       </c>
-      <c r="BR15" t="n">
+      <c r="BZ15" t="n">
         <v>1.58</v>
       </c>
-      <c r="BS15" t="n">
+      <c r="CA15" t="n">
         <v>1.98</v>
       </c>
-      <c r="BT15" t="n">
+      <c r="CB15" t="n">
         <v>1.41</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="CC15" t="n">
         <v>3.01</v>
       </c>
-      <c r="BV15" t="n">
+      <c r="CD15" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="CF15" t="n">
         <v>1.4</v>
       </c>
-      <c r="BW15" t="n">
+      <c r="CG15" t="n">
         <v>1.6</v>
       </c>
-      <c r="BX15" t="n">
+      <c r="CH15" t="n">
         <v>6</v>
       </c>
-      <c r="BY15" t="n">
+      <c r="CI15" t="n">
         <v>2.4</v>
       </c>
-      <c r="BZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA15" t="n">
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
         <v>4.2</v>
       </c>
-      <c r="CB15" t="n">
+      <c r="CL15" t="n">
         <v>10.8</v>
       </c>
-      <c r="CC15" t="n">
+      <c r="CM15" t="n">
         <v>15</v>
       </c>
-      <c r="CD15" t="n">
+      <c r="CN15" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="CE15" t="n">
+      <c r="CO15" t="n">
         <v>52.4</v>
       </c>
-      <c r="CF15" t="n">
+      <c r="CP15" t="n">
         <v>2.4</v>
       </c>
-      <c r="CG15" t="n">
+      <c r="CQ15" t="n">
         <v>3.2</v>
       </c>
-      <c r="CH15" t="n">
+      <c r="CR15" t="n">
         <v>2.8</v>
       </c>
-      <c r="CI15" t="n">
+      <c r="CS15" t="n">
         <v>0.6</v>
       </c>
-      <c r="CJ15" t="n">
+      <c r="CT15" t="n">
         <v>1.8</v>
       </c>
-      <c r="CK15" t="n">
+      <c r="CU15" t="n">
         <v>50</v>
       </c>
-      <c r="CL15" t="n">
+      <c r="CV15" t="n">
         <v>92</v>
       </c>
-      <c r="CM15" t="n">
+      <c r="CW15" t="n">
         <v>1.6</v>
       </c>
-      <c r="CN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR15" t="n">
+      <c r="CX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
         <v>0.4</v>
       </c>
-      <c r="CS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT15" t="n">
+      <c r="DC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD15" t="n">
         <v>15</v>
       </c>
-      <c r="CU15" t="n">
+      <c r="DE15" t="n">
         <v>15</v>
       </c>
-      <c r="CV15" t="n">
+      <c r="DF15" t="n">
         <v>8.6</v>
       </c>
-      <c r="CW15" t="n">
+      <c r="DG15" t="n">
         <v>2.8</v>
       </c>
-      <c r="CX15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="CY15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="CZ15" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="DA15" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="DB15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DC15" t="n">
+      <c r="DH15" t="n">
         <v>2.8</v>
-      </c>
-      <c r="DD15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="DE15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="DF15" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="DG15" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="DH15" t="n">
-        <v>1.41</v>
       </c>
       <c r="DI15" t="n">
         <v>4.82</v>
@@ -7247,178 +7247,178 @@
         <v>1.28</v>
       </c>
       <c r="BC16" t="n">
-        <v>6.23</v>
+        <v>4.58</v>
       </c>
       <c r="BD16" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG16" t="n">
         <v>1.8</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BH16" t="n">
         <v>1.97</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BI16" t="n">
         <v>2.77</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BJ16" t="n">
         <v>2.1</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BK16" t="n">
         <v>1.44</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BL16" t="n">
         <v>1.8</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BM16" t="n">
         <v>1.3</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BN16" t="n">
         <v>2.36</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BO16" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BQ16" t="n">
         <v>1.34</v>
       </c>
-      <c r="BM16" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="BN16" t="n">
+      <c r="BR16" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BV16" t="n">
         <v>1.89</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BW16" t="n">
         <v>2.04</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BX16" t="n">
         <v>2.38</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BY16" t="n">
         <v>2</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BZ16" t="n">
         <v>1.59</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="CA16" t="n">
         <v>1.85</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="CB16" t="n">
         <v>1.34</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="CC16" t="n">
         <v>2.5</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="CD16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="CF16" t="n">
         <v>1.17</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="CG16" t="n">
         <v>2</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="CH16" t="n">
         <v>5.67</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="CI16" t="n">
         <v>1.67</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CJ16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CK16" t="n">
         <v>7.17</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CL16" t="n">
         <v>12.17</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CM16" t="n">
         <v>19.33</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CN16" t="n">
         <v>9.17</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CO16" t="n">
         <v>59.5</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CP16" t="n">
         <v>2</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CQ16" t="n">
         <v>3.33</v>
       </c>
-      <c r="CH16" t="n">
+      <c r="CR16" t="n">
         <v>2.33</v>
       </c>
-      <c r="CI16" t="n">
+      <c r="CS16" t="n">
         <v>0.5</v>
       </c>
-      <c r="CJ16" t="n">
+      <c r="CT16" t="n">
         <v>1.33</v>
       </c>
-      <c r="CK16" t="n">
+      <c r="CU16" t="n">
         <v>56.5</v>
       </c>
-      <c r="CL16" t="n">
+      <c r="CV16" t="n">
         <v>120.5</v>
       </c>
-      <c r="CM16" t="n">
+      <c r="CW16" t="n">
         <v>2.13</v>
       </c>
-      <c r="CN16" t="n">
+      <c r="CX16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO16" t="n">
+      <c r="CY16" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR16" t="n">
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
         <v>0.33</v>
       </c>
-      <c r="CS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT16" t="n">
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
         <v>17.17</v>
       </c>
-      <c r="CU16" t="n">
+      <c r="DE16" t="n">
         <v>17</v>
       </c>
-      <c r="CV16" t="n">
+      <c r="DF16" t="n">
         <v>8.83</v>
       </c>
-      <c r="CW16" t="n">
+      <c r="DG16" t="n">
         <v>1.58</v>
       </c>
-      <c r="CX16" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="DC16" t="n">
+      <c r="DH16" t="n">
         <v>1.57</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="DH16" t="n">
-        <v>1.58</v>
       </c>
       <c r="DI16" t="n">
         <v>6.08</v>
@@ -7664,178 +7664,178 @@
         <v>5.37</v>
       </c>
       <c r="BC17" t="n">
-        <v>4.02</v>
+        <v>3.55</v>
       </c>
       <c r="BD17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BG17" t="n">
         <v>2.2</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BH17" t="n">
         <v>1.68</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BI17" t="n">
         <v>2.27</v>
       </c>
-      <c r="BG17" t="n">
+      <c r="BJ17" t="n">
         <v>1.82</v>
       </c>
-      <c r="BH17" t="n">
+      <c r="BK17" t="n">
         <v>1.54</v>
       </c>
-      <c r="BI17" t="n">
+      <c r="BL17" t="n">
         <v>2.08</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BM17" t="n">
         <v>1.47</v>
       </c>
-      <c r="BK17" t="n">
+      <c r="BN17" t="n">
         <v>3.14</v>
       </c>
-      <c r="BL17" t="n">
+      <c r="BO17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BQ17" t="n">
         <v>5.84</v>
       </c>
-      <c r="BM17" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="BN17" t="n">
+      <c r="BR17" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="BV17" t="n">
         <v>2.28</v>
       </c>
-      <c r="BO17" t="n">
+      <c r="BW17" t="n">
         <v>1.7</v>
       </c>
-      <c r="BP17" t="n">
+      <c r="BX17" t="n">
         <v>2.26</v>
       </c>
-      <c r="BQ17" t="n">
+      <c r="BY17" t="n">
         <v>1.82</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BZ17" t="n">
         <v>1.65</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="CA17" t="n">
         <v>2.04</v>
       </c>
-      <c r="BT17" t="n">
+      <c r="CB17" t="n">
         <v>1.49</v>
       </c>
-      <c r="BU17" t="n">
+      <c r="CC17" t="n">
         <v>3.12</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="CD17" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="CF17" t="n">
         <v>1.67</v>
       </c>
-      <c r="BW17" t="n">
+      <c r="CG17" t="n">
         <v>0.83</v>
       </c>
-      <c r="BX17" t="n">
+      <c r="CH17" t="n">
         <v>3.17</v>
       </c>
-      <c r="BY17" t="n">
+      <c r="CI17" t="n">
         <v>2.5</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CJ17" t="n">
         <v>0.5</v>
       </c>
-      <c r="CA17" t="n">
+      <c r="CK17" t="n">
         <v>3.33</v>
       </c>
-      <c r="CB17" t="n">
+      <c r="CL17" t="n">
         <v>4.33</v>
       </c>
-      <c r="CC17" t="n">
+      <c r="CM17" t="n">
         <v>7.67</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CN17" t="n">
         <v>13.33</v>
       </c>
-      <c r="CE17" t="n">
+      <c r="CO17" t="n">
         <v>42.17</v>
       </c>
-      <c r="CF17" t="n">
+      <c r="CP17" t="n">
         <v>3</v>
       </c>
-      <c r="CG17" t="n">
+      <c r="CQ17" t="n">
         <v>1.33</v>
       </c>
-      <c r="CH17" t="n">
+      <c r="CR17" t="n">
         <v>1</v>
       </c>
-      <c r="CI17" t="n">
+      <c r="CS17" t="n">
         <v>0.5</v>
       </c>
-      <c r="CJ17" t="n">
+      <c r="CT17" t="n">
         <v>2.5</v>
       </c>
-      <c r="CK17" t="n">
+      <c r="CU17" t="n">
         <v>27.33</v>
       </c>
-      <c r="CL17" t="n">
+      <c r="CV17" t="n">
         <v>68.5</v>
       </c>
-      <c r="CM17" t="n">
+      <c r="CW17" t="n">
         <v>0.92</v>
       </c>
-      <c r="CN17" t="n">
+      <c r="CX17" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO17" t="n">
+      <c r="CY17" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS17" t="n">
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
         <v>0.17</v>
       </c>
-      <c r="CT17" t="n">
+      <c r="DD17" t="n">
         <v>20.33</v>
       </c>
-      <c r="CU17" t="n">
+      <c r="DE17" t="n">
         <v>11.33</v>
       </c>
-      <c r="CV17" t="n">
+      <c r="DF17" t="n">
         <v>9.5</v>
       </c>
-      <c r="CW17" t="n">
+      <c r="DG17" t="n">
         <v>6.06</v>
       </c>
-      <c r="CX17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="DC17" t="n">
+      <c r="DH17" t="n">
         <v>6.06</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>1.38</v>
       </c>
       <c r="DI17" t="n">
         <v>3.58</v>
@@ -8081,178 +8081,178 @@
         <v>2.56</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="BD18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BG18" t="n">
         <v>1.84</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BH18" t="n">
         <v>1.97</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BI18" t="n">
         <v>2.41</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BJ18" t="n">
         <v>1.87</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BK18" t="n">
         <v>1.52</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BL18" t="n">
         <v>1.95</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BM18" t="n">
         <v>1.42</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BN18" t="n">
         <v>2.96</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BO18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BQ18" t="n">
         <v>2.71</v>
       </c>
-      <c r="BM18" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="BN18" t="n">
+      <c r="BR18" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BV18" t="n">
         <v>1.88</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BW18" t="n">
         <v>2.03</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BX18" t="n">
         <v>2.3</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BY18" t="n">
         <v>1.91</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BZ18" t="n">
         <v>1.62</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="CA18" t="n">
         <v>1.94</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="CB18" t="n">
         <v>1.46</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="CC18" t="n">
         <v>2.83</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="CD18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="CF18" t="n">
         <v>1.5</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="CG18" t="n">
         <v>0.83</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="CH18" t="n">
         <v>6</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="CI18" t="n">
         <v>2.83</v>
       </c>
-      <c r="BZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA18" t="n">
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
         <v>4.67</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CL18" t="n">
         <v>8.5</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CM18" t="n">
         <v>13.17</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CN18" t="n">
         <v>16</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CO18" t="n">
         <v>45.67</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CP18" t="n">
         <v>2.83</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CQ18" t="n">
         <v>3.17</v>
       </c>
-      <c r="CH18" t="n">
+      <c r="CR18" t="n">
         <v>2.83</v>
       </c>
-      <c r="CI18" t="n">
+      <c r="CS18" t="n">
         <v>1.5</v>
       </c>
-      <c r="CJ18" t="n">
+      <c r="CT18" t="n">
         <v>1.33</v>
       </c>
-      <c r="CK18" t="n">
+      <c r="CU18" t="n">
         <v>44.67</v>
       </c>
-      <c r="CL18" t="n">
+      <c r="CV18" t="n">
         <v>94.17</v>
       </c>
-      <c r="CM18" t="n">
+      <c r="CW18" t="n">
         <v>1.48</v>
       </c>
-      <c r="CN18" t="n">
+      <c r="CX18" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO18" t="n">
+      <c r="CY18" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR18" t="n">
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="n">
         <v>0.5</v>
       </c>
-      <c r="CS18" t="n">
+      <c r="DC18" t="n">
         <v>0.17</v>
       </c>
-      <c r="CT18" t="n">
+      <c r="DD18" t="n">
         <v>19</v>
       </c>
-      <c r="CU18" t="n">
+      <c r="DE18" t="n">
         <v>7.83</v>
       </c>
-      <c r="CV18" t="n">
+      <c r="DF18" t="n">
         <v>7.83</v>
       </c>
-      <c r="CW18" t="n">
+      <c r="DG18" t="n">
         <v>4.26</v>
       </c>
-      <c r="CX18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB18" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="DC18" t="n">
+      <c r="DH18" t="n">
         <v>4.13</v>
-      </c>
-      <c r="DD18" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="DE18" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="DF18" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="DG18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="DH18" t="n">
-        <v>1.52</v>
       </c>
       <c r="DI18" t="n">
         <v>6.5</v>
@@ -8498,178 +8498,178 @@
         <v>2.77</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.5</v>
+        <v>3.54</v>
       </c>
       <c r="BD19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BG19" t="n">
         <v>1.93</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BH19" t="n">
         <v>1.84</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BI19" t="n">
         <v>2.39</v>
       </c>
-      <c r="BG19" t="n">
+      <c r="BJ19" t="n">
         <v>1.86</v>
       </c>
-      <c r="BH19" t="n">
+      <c r="BK19" t="n">
         <v>1.51</v>
       </c>
-      <c r="BI19" t="n">
+      <c r="BL19" t="n">
         <v>2.01</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BM19" t="n">
         <v>1.4</v>
       </c>
-      <c r="BK19" t="n">
+      <c r="BN19" t="n">
         <v>3.01</v>
       </c>
-      <c r="BL19" t="n">
+      <c r="BO19" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BQ19" t="n">
         <v>2.96</v>
       </c>
-      <c r="BM19" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="BN19" t="n">
+      <c r="BR19" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="BV19" t="n">
         <v>2.01</v>
       </c>
-      <c r="BO19" t="n">
+      <c r="BW19" t="n">
         <v>1.89</v>
       </c>
-      <c r="BP19" t="n">
+      <c r="BX19" t="n">
         <v>2.39</v>
       </c>
-      <c r="BQ19" t="n">
+      <c r="BY19" t="n">
         <v>1.91</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BZ19" t="n">
         <v>1.57</v>
       </c>
-      <c r="BS19" t="n">
+      <c r="CA19" t="n">
         <v>1.93</v>
       </c>
-      <c r="BT19" t="n">
+      <c r="CB19" t="n">
         <v>1.48</v>
       </c>
-      <c r="BU19" t="n">
+      <c r="CC19" t="n">
         <v>3.26</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="CD19" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="CF19" t="n">
         <v>1.5</v>
       </c>
-      <c r="BW19" t="n">
+      <c r="CG19" t="n">
         <v>1.33</v>
       </c>
-      <c r="BX19" t="n">
+      <c r="CH19" t="n">
         <v>4.17</v>
       </c>
-      <c r="BY19" t="n">
+      <c r="CI19" t="n">
         <v>3</v>
       </c>
-      <c r="BZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA19" t="n">
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
         <v>2.83</v>
       </c>
-      <c r="CB19" t="n">
+      <c r="CL19" t="n">
         <v>6.17</v>
       </c>
-      <c r="CC19" t="n">
+      <c r="CM19" t="n">
         <v>9</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CN19" t="n">
         <v>14.33</v>
       </c>
-      <c r="CE19" t="n">
+      <c r="CO19" t="n">
         <v>49.33</v>
       </c>
-      <c r="CF19" t="n">
+      <c r="CP19" t="n">
         <v>3</v>
       </c>
-      <c r="CG19" t="n">
+      <c r="CQ19" t="n">
         <v>2.33</v>
       </c>
-      <c r="CH19" t="n">
+      <c r="CR19" t="n">
         <v>1.83</v>
       </c>
-      <c r="CI19" t="n">
+      <c r="CS19" t="n">
         <v>0.83</v>
       </c>
-      <c r="CJ19" t="n">
+      <c r="CT19" t="n">
         <v>2.17</v>
       </c>
-      <c r="CK19" t="n">
+      <c r="CU19" t="n">
         <v>31.5</v>
       </c>
-      <c r="CL19" t="n">
+      <c r="CV19" t="n">
         <v>84.83</v>
       </c>
-      <c r="CM19" t="n">
+      <c r="CW19" t="n">
         <v>1</v>
       </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
         <v>0.17</v>
       </c>
-      <c r="CR19" t="n">
+      <c r="DB19" t="n">
         <v>0.83</v>
       </c>
-      <c r="CS19" t="n">
+      <c r="DC19" t="n">
         <v>0.17</v>
       </c>
-      <c r="CT19" t="n">
+      <c r="DD19" t="n">
         <v>19.83</v>
       </c>
-      <c r="CU19" t="n">
+      <c r="DE19" t="n">
         <v>12.17</v>
       </c>
-      <c r="CV19" t="n">
+      <c r="DF19" t="n">
         <v>6.33</v>
       </c>
-      <c r="CW19" t="n">
+      <c r="DG19" t="n">
         <v>4.93</v>
       </c>
-      <c r="CX19" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="DB19" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="DC19" t="n">
+      <c r="DH19" t="n">
         <v>5.14</v>
-      </c>
-      <c r="DD19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="DE19" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="DF19" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="DG19" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="DH19" t="n">
-        <v>1.36</v>
       </c>
       <c r="DI19" t="n">
         <v>4.67</v>
@@ -8915,178 +8915,178 @@
         <v>2.57</v>
       </c>
       <c r="BC20" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="BD20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG20" t="n">
         <v>1.84</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BH20" t="n">
         <v>1.87</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BI20" t="n">
         <v>2.52</v>
       </c>
-      <c r="BG20" t="n">
+      <c r="BJ20" t="n">
         <v>2</v>
       </c>
-      <c r="BH20" t="n">
+      <c r="BK20" t="n">
         <v>1.5</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BL20" t="n">
         <v>1.86</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BM20" t="n">
         <v>1.37</v>
       </c>
-      <c r="BK20" t="n">
+      <c r="BN20" t="n">
         <v>2.74</v>
       </c>
-      <c r="BL20" t="n">
+      <c r="BO20" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BQ20" t="n">
         <v>2.82</v>
       </c>
-      <c r="BM20" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="BN20" t="n">
+      <c r="BR20" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BV20" t="n">
         <v>1.92</v>
       </c>
-      <c r="BO20" t="n">
+      <c r="BW20" t="n">
         <v>1.96</v>
       </c>
-      <c r="BP20" t="n">
+      <c r="BX20" t="n">
         <v>2.36</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BY20" t="n">
         <v>2.09</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BZ20" t="n">
         <v>1.59</v>
       </c>
-      <c r="BS20" t="n">
+      <c r="CA20" t="n">
         <v>1.79</v>
       </c>
-      <c r="BT20" t="n">
+      <c r="CB20" t="n">
         <v>1.48</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="CC20" t="n">
         <v>2.78</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="CD20" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="CF20" t="n">
         <v>2.5</v>
       </c>
-      <c r="BW20" t="n">
+      <c r="CG20" t="n">
         <v>0.5</v>
       </c>
-      <c r="BX20" t="n">
+      <c r="CH20" t="n">
         <v>3.17</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="CI20" t="n">
         <v>1.67</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CJ20" t="n">
         <v>0.17</v>
       </c>
-      <c r="CA20" t="n">
+      <c r="CK20" t="n">
         <v>2.17</v>
       </c>
-      <c r="CB20" t="n">
+      <c r="CL20" t="n">
         <v>4.33</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CM20" t="n">
         <v>6.5</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CN20" t="n">
         <v>11.5</v>
       </c>
-      <c r="CE20" t="n">
+      <c r="CO20" t="n">
         <v>40.5</v>
       </c>
-      <c r="CF20" t="n">
+      <c r="CP20" t="n">
         <v>2</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CQ20" t="n">
         <v>1</v>
       </c>
-      <c r="CH20" t="n">
+      <c r="CR20" t="n">
         <v>2.17</v>
       </c>
-      <c r="CI20" t="n">
+      <c r="CS20" t="n">
         <v>0.67</v>
       </c>
-      <c r="CJ20" t="n">
+      <c r="CT20" t="n">
         <v>1.17</v>
       </c>
-      <c r="CK20" t="n">
+      <c r="CU20" t="n">
         <v>29.5</v>
       </c>
-      <c r="CL20" t="n">
+      <c r="CV20" t="n">
         <v>79.17</v>
       </c>
-      <c r="CM20" t="n">
+      <c r="CW20" t="n">
         <v>0.78</v>
       </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="n">
+      <c r="CX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD20" t="n">
         <v>17.33</v>
       </c>
-      <c r="CU20" t="n">
+      <c r="DE20" t="n">
         <v>12</v>
       </c>
-      <c r="CV20" t="n">
+      <c r="DF20" t="n">
         <v>9.17</v>
       </c>
-      <c r="CW20" t="n">
+      <c r="DG20" t="n">
         <v>5.96</v>
       </c>
-      <c r="CX20" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="CY20" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="CZ20" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="DA20" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="DB20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DC20" t="n">
+      <c r="DH20" t="n">
         <v>7.05</v>
-      </c>
-      <c r="DD20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="DE20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="DF20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="DG20" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="DH20" t="n">
-        <v>1.55</v>
       </c>
       <c r="DI20" t="n">
         <v>4.73</v>
@@ -9332,178 +9332,178 @@
         <v>1.68</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.92</v>
+        <v>3.7</v>
       </c>
       <c r="BD21" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BG21" t="n">
         <v>1.64</v>
       </c>
-      <c r="BE21" t="n">
+      <c r="BH21" t="n">
         <v>2.21</v>
       </c>
-      <c r="BF21" t="n">
+      <c r="BI21" t="n">
         <v>2.31</v>
       </c>
-      <c r="BG21" t="n">
+      <c r="BJ21" t="n">
         <v>1.8</v>
       </c>
-      <c r="BH21" t="n">
+      <c r="BK21" t="n">
         <v>1.56</v>
       </c>
-      <c r="BI21" t="n">
+      <c r="BL21" t="n">
         <v>1.98</v>
       </c>
-      <c r="BJ21" t="n">
+      <c r="BM21" t="n">
         <v>1.34</v>
       </c>
-      <c r="BK21" t="n">
+      <c r="BN21" t="n">
         <v>2.55</v>
       </c>
-      <c r="BL21" t="n">
+      <c r="BO21" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BQ21" t="n">
         <v>1.77</v>
       </c>
-      <c r="BM21" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="BN21" t="n">
+      <c r="BR21" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BV21" t="n">
         <v>1.7</v>
       </c>
-      <c r="BO21" t="n">
+      <c r="BW21" t="n">
         <v>2.24</v>
       </c>
-      <c r="BP21" t="n">
+      <c r="BX21" t="n">
         <v>2.26</v>
       </c>
-      <c r="BQ21" t="n">
+      <c r="BY21" t="n">
         <v>1.85</v>
       </c>
-      <c r="BR21" t="n">
+      <c r="BZ21" t="n">
         <v>1.64</v>
       </c>
-      <c r="BS21" t="n">
+      <c r="CA21" t="n">
         <v>2</v>
       </c>
-      <c r="BT21" t="n">
+      <c r="CB21" t="n">
         <v>1.37</v>
       </c>
-      <c r="BU21" t="n">
+      <c r="CC21" t="n">
         <v>2.67</v>
       </c>
-      <c r="BV21" t="n">
+      <c r="CD21" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="CF21" t="n">
         <v>1.17</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="CD21" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="CE21" t="n">
-        <v>37.83</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>3</v>
       </c>
       <c r="CG21" t="n">
         <v>1.33</v>
       </c>
       <c r="CH21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>12.33</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>37.83</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="CR21" t="n">
         <v>1.67</v>
       </c>
-      <c r="CI21" t="n">
+      <c r="CS21" t="n">
         <v>1</v>
       </c>
-      <c r="CJ21" t="n">
+      <c r="CT21" t="n">
         <v>2</v>
       </c>
-      <c r="CK21" t="n">
+      <c r="CU21" t="n">
         <v>34.5</v>
       </c>
-      <c r="CL21" t="n">
+      <c r="CV21" t="n">
         <v>75.33</v>
       </c>
-      <c r="CM21" t="n">
+      <c r="CW21" t="n">
         <v>1.08</v>
       </c>
-      <c r="CN21" t="n">
+      <c r="CX21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CO21" t="n">
+      <c r="CY21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="n">
         <v>0.17</v>
       </c>
-      <c r="CS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT21" t="n">
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
         <v>16.33</v>
       </c>
-      <c r="CU21" t="n">
+      <c r="DE21" t="n">
         <v>11.67</v>
       </c>
-      <c r="CV21" t="n">
+      <c r="DF21" t="n">
         <v>7.67</v>
       </c>
-      <c r="CW21" t="n">
+      <c r="DG21" t="n">
         <v>3.27</v>
       </c>
-      <c r="CX21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="CY21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="CZ21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="DB21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DC21" t="n">
+      <c r="DH21" t="n">
         <v>3.55</v>
-      </c>
-      <c r="DD21" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="DE21" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="DF21" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="DG21" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="DH21" t="n">
-        <v>1.51</v>
       </c>
       <c r="DI21" t="n">
         <v>4.75</v>

--- a/data/teams/leagues_total/all_leagues_combined.xlsx
+++ b/data/teams/leagues_total/all_leagues_combined.xlsx
@@ -1286,13 +1286,13 @@
         <v>0.86</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>10.4</v>
+        <v>9.92</v>
       </c>
       <c r="K2" t="n">
         <v>1.43</v>
@@ -1319,25 +1319,25 @@
         <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>0.83</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="X2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.4</v>
+        <v>0.58</v>
       </c>
       <c r="Z2" t="n">
         <v>3.71</v>
@@ -1346,10 +1346,10 @@
         <v>2.29</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.2</v>
+        <v>4.42</v>
       </c>
       <c r="AD2" t="n">
         <v>0.43</v>
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AH2" t="n">
         <v>54.86</v>
@@ -1373,7 +1373,7 @@
         <v>1.61</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.69</v>
+        <v>2.55</v>
       </c>
       <c r="AL2" t="n">
         <v>0.43</v>
@@ -1403,67 +1403,67 @@
         <v>4.14</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="BB2" t="n">
         <v>1.58</v>
       </c>
       <c r="BC2" t="n">
-        <v>3.21</v>
+        <v>3.57</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BE2" t="n">
         <v>2.26</v>
       </c>
       <c r="BF2" t="n">
-        <v>4.17</v>
+        <v>4.12</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="BI2" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BL2" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="BN2" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="BP2" t="n">
         <v>1.33</v>
@@ -1472,41 +1472,43 @@
         <v>1.62</v>
       </c>
       <c r="BR2" t="n">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BT2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="BU2" t="inlineStr"/>
+        <v>2.34</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>3.25</v>
+      </c>
       <c r="BV2" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="BX2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="CA2" t="n">
-        <v>2.09</v>
+        <v>2.07</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="CD2" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="CE2" t="n">
         <v>1.35</v>
@@ -1701,13 +1703,13 @@
         <v>0.86</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
         <v>9.57</v>
       </c>
       <c r="J3" t="n">
-        <v>7.2</v>
+        <v>10.5</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -1734,25 +1736,25 @@
         <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8</v>
+        <v>1.33</v>
       </c>
       <c r="W3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.2</v>
+        <v>1.42</v>
       </c>
       <c r="Z3" t="n">
         <v>5.71</v>
@@ -1761,10 +1763,10 @@
         <v>3.86</v>
       </c>
       <c r="AB3" t="n">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="AC3" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AD3" t="n">
         <v>0.57</v>
@@ -1773,10 +1775,10 @@
         <v>1.43</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="AH3" t="n">
         <v>62.14</v>
@@ -1788,7 +1790,7 @@
         <v>1.95</v>
       </c>
       <c r="AK3" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AL3" t="n">
         <v>0.29</v>
@@ -1821,112 +1823,112 @@
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2</v>
+        <v>0.42</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="BB3" t="n">
         <v>1.62</v>
       </c>
       <c r="BC3" t="n">
-        <v>3.61</v>
+        <v>4.41</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="BH3" t="n">
         <v>1.89</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="BL3" t="n">
-        <v>2.14</v>
+        <v>1.98</v>
       </c>
       <c r="BM3" t="n">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BN3" t="n">
-        <v>2.95</v>
+        <v>2.68</v>
       </c>
       <c r="BO3" t="n">
-        <v>2.86</v>
+        <v>3.1</v>
       </c>
       <c r="BP3" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="BQ3" t="n">
         <v>1.68</v>
       </c>
       <c r="BR3" t="n">
-        <v>3.71</v>
+        <v>4.5</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="BU3" t="n">
-        <v>3.38</v>
+        <v>3.04</v>
       </c>
       <c r="BV3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="BW3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="BY3" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="CA3" t="n">
-        <v>2.07</v>
+        <v>1.99</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="CC3" t="n">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.9</v>
+        <v>3.11</v>
       </c>
       <c r="CE3" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="CF3" t="n">
         <v>1</v>
@@ -2118,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
         <v>2.8</v>
       </c>
       <c r="J4" t="n">
-        <v>7.43</v>
+        <v>7.25</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -2151,25 +2153,25 @@
         <v>2.2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.29</v>
+        <v>1.83</v>
       </c>
       <c r="T4" t="n">
-        <v>0.29</v>
+        <v>0.67</v>
       </c>
       <c r="U4" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="V4" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X4" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.43</v>
+        <v>0.92</v>
       </c>
       <c r="Z4" t="n">
         <v>1</v>
@@ -2178,10 +2180,10 @@
         <v>0.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.14</v>
+        <v>3.42</v>
       </c>
       <c r="AD4" t="n">
         <v>1</v>
@@ -2190,10 +2192,10 @@
         <v>1.2</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AH4" t="n">
         <v>50.4</v>
@@ -2235,115 +2237,115 @@
         <v>7</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="BB4" t="n">
         <v>2.26</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.08</v>
+        <v>3.64</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="BI4" t="n">
-        <v>2.43</v>
+        <v>2.26</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="BL4" t="n">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="BN4" t="n">
-        <v>2.84</v>
+        <v>3.06</v>
       </c>
       <c r="BO4" t="n">
-        <v>2.98</v>
+        <v>2.76</v>
       </c>
       <c r="BP4" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BQ4" t="n">
         <v>2.34</v>
       </c>
       <c r="BR4" t="n">
-        <v>4.17</v>
+        <v>3.74</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.09</v>
+        <v>2.31</v>
       </c>
       <c r="BU4" t="n">
         <v>3.05</v>
       </c>
       <c r="BV4" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="BW4" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="CC4" t="n">
-        <v>2.82</v>
+        <v>3.06</v>
       </c>
       <c r="CD4" t="n">
-        <v>2.87</v>
+        <v>2.69</v>
       </c>
       <c r="CE4" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="CF4" t="n">
         <v>1.14</v>
@@ -2535,13 +2537,13 @@
         <v>1.17</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="I5" t="n">
         <v>6.17</v>
       </c>
       <c r="J5" t="n">
-        <v>8.6</v>
+        <v>9.82</v>
       </c>
       <c r="K5" t="n">
         <v>1.5</v>
@@ -2568,25 +2570,25 @@
         <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="T5" t="n">
-        <v>0.6</v>
+        <v>0.36</v>
       </c>
       <c r="U5" t="n">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="V5" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X5" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
         <v>1.83</v>
@@ -2595,10 +2597,10 @@
         <v>4.33</v>
       </c>
       <c r="AB5" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.6</v>
+        <v>5.45</v>
       </c>
       <c r="AD5" t="n">
         <v>0.33</v>
@@ -2607,10 +2609,10 @@
         <v>1.33</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.09</v>
       </c>
       <c r="AH5" t="n">
         <v>59.17</v>
@@ -2622,7 +2624,7 @@
         <v>1.52</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.9</v>
+        <v>2.81</v>
       </c>
       <c r="AL5" t="n">
         <v>0.17</v>
@@ -2658,109 +2660,109 @@
         <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.6</v>
+        <v>0.27</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.2</v>
+        <v>0.09</v>
       </c>
       <c r="AZ5" t="n">
         <v>0</v>
       </c>
       <c r="BA5" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="BB5" t="n">
         <v>2.59</v>
       </c>
       <c r="BC5" t="n">
-        <v>3.25</v>
+        <v>3.41</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BE5" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BF5" t="n">
-        <v>3.65</v>
+        <v>3.47</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="BK5" t="n">
         <v>1.64</v>
       </c>
       <c r="BL5" t="n">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BN5" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="BO5" t="n">
-        <v>2.75</v>
+        <v>2.81</v>
       </c>
       <c r="BP5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="BQ5" t="n">
         <v>2.64</v>
       </c>
       <c r="BR5" t="n">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="BS5" t="n">
         <v>1.33</v>
       </c>
       <c r="BT5" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="BU5" t="n">
-        <v>3.29</v>
+        <v>3.22</v>
       </c>
       <c r="BV5" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BW5" t="n">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="BX5" t="n">
         <v>2.23</v>
       </c>
       <c r="BY5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="CA5" t="n">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="CC5" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="CD5" t="n">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="CE5" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="CF5" t="n">
         <v>1.4</v>
@@ -2952,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="I6" t="n">
         <v>6.17</v>
       </c>
       <c r="J6" t="n">
-        <v>9.83</v>
+        <v>9.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.67</v>
@@ -2985,25 +2987,25 @@
         <v>1.83</v>
       </c>
       <c r="S6" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="T6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="V6" t="n">
         <v>0.5</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.33</v>
-      </c>
       <c r="W6" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="Z6" t="n">
         <v>2.5</v>
@@ -3012,10 +3014,10 @@
         <v>3.67</v>
       </c>
       <c r="AB6" t="n">
-        <v>5.17</v>
+        <v>4.67</v>
       </c>
       <c r="AC6" t="n">
-        <v>4.67</v>
+        <v>5.08</v>
       </c>
       <c r="AD6" t="n">
         <v>0.83</v>
@@ -3039,7 +3041,7 @@
         <v>1.44</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AL6" t="n">
         <v>0.5</v>
@@ -3069,16 +3071,16 @@
         <v>6.33</v>
       </c>
       <c r="AU6" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AW6" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AX6" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
@@ -3087,92 +3089,92 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="BB6" t="n">
         <v>2.79</v>
       </c>
       <c r="BC6" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="BE6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="BF6" t="n">
-        <v>5.6</v>
+        <v>5.17</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BN6" t="n">
-        <v>3.54</v>
+        <v>3.47</v>
       </c>
       <c r="BO6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="BP6" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="BQ6" t="n">
         <v>2.88</v>
       </c>
       <c r="BR6" t="n">
-        <v>3.25</v>
+        <v>3.21</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BT6" t="n">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="n">
-        <v>2.33</v>
+        <v>2.24</v>
       </c>
       <c r="BW6" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BY6" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>1.68</v>
       </c>
-      <c r="BX6" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BY6" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="BZ6" t="n">
-        <v>1.73</v>
-      </c>
       <c r="CA6" t="n">
-        <v>2.18</v>
+        <v>2.11</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="CC6" t="n">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="CD6" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="CE6" t="n">
         <v>1.34</v>
@@ -3367,13 +3369,13 @@
         <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="I7" t="n">
         <v>3.67</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>7.58</v>
       </c>
       <c r="K7" t="n">
         <v>1.5</v>
@@ -3400,25 +3402,25 @@
         <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
       <c r="T7" t="n">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="U7" t="n">
         <v>0.33</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="W7" t="n">
-        <v>0.67</v>
+        <v>0.42</v>
       </c>
       <c r="X7" t="n">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="Z7" t="n">
         <v>2.5</v>
@@ -3427,10 +3429,10 @@
         <v>1.17</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.67</v>
+        <v>4.58</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.33</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
         <v>0.67</v>
@@ -3439,10 +3441,10 @@
         <v>0.83</v>
       </c>
       <c r="AF7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AG7" t="n">
         <v>2.33</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>2</v>
       </c>
       <c r="AH7" t="n">
         <v>55.5</v>
@@ -3454,7 +3456,7 @@
         <v>1.59</v>
       </c>
       <c r="AK7" t="n">
-        <v>2.58</v>
+        <v>2.61</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -3484,16 +3486,16 @@
         <v>6.67</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
@@ -3502,97 +3504,97 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="BB7" t="n">
         <v>2.74</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.26</v>
+        <v>3.68</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.07</v>
+        <v>2.17</v>
       </c>
       <c r="BF7" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="BL7" t="n">
         <v>2.06</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="BN7" t="n">
-        <v>2.9</v>
+        <v>3.04</v>
       </c>
       <c r="BO7" t="n">
-        <v>2.91</v>
+        <v>2.73</v>
       </c>
       <c r="BP7" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="BQ7" t="n">
         <v>3.01</v>
       </c>
       <c r="BR7" t="n">
-        <v>4.54</v>
+        <v>3.89</v>
       </c>
       <c r="BS7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BZ7" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="CB7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="CC7" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="CE7" t="n">
         <v>1.42</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="CA7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="CB7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="CC7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="CD7" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="CE7" t="n">
-        <v>1.49</v>
       </c>
       <c r="CF7" t="n">
         <v>1.83</v>
@@ -3784,13 +3786,13 @@
         <v>0.6</v>
       </c>
       <c r="H8" t="n">
-        <v>3.67</v>
+        <v>3.73</v>
       </c>
       <c r="I8" t="n">
         <v>7.4</v>
       </c>
       <c r="J8" t="n">
-        <v>12.83</v>
+        <v>11.73</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -3817,22 +3819,22 @@
         <v>0.8</v>
       </c>
       <c r="S8" t="n">
-        <v>3.67</v>
+        <v>3.73</v>
       </c>
       <c r="T8" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="U8" t="n">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>0.64</v>
       </c>
       <c r="X8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y8" t="n">
         <v>2</v>
@@ -3844,10 +3846,10 @@
         <v>2.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.67</v>
+        <v>6.55</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.17</v>
+        <v>5.18</v>
       </c>
       <c r="AD8" t="n">
         <v>0.2</v>
@@ -3856,10 +3858,10 @@
         <v>0.6</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.83</v>
+        <v>2.18</v>
       </c>
       <c r="AG8" t="n">
-        <v>3.67</v>
+        <v>2.64</v>
       </c>
       <c r="AH8" t="n">
         <v>60.4</v>
@@ -3871,7 +3873,7 @@
         <v>2.37</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.48</v>
+        <v>3.33</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -3907,99 +3909,99 @@
         <v>1</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.83</v>
+        <v>0.73</v>
       </c>
       <c r="BB8" t="n">
         <v>1.23</v>
       </c>
       <c r="BC8" t="n">
-        <v>5.47</v>
+        <v>5.8</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="BF8" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="BH8" t="n">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BI8" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="BK8" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BL8" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="BM8" t="n">
         <v>1.21</v>
       </c>
       <c r="BN8" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="BO8" t="n">
-        <v>4.06</v>
+        <v>4.15</v>
       </c>
       <c r="BP8" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="BQ8" t="n">
         <v>1.27</v>
       </c>
       <c r="BR8" t="n">
-        <v>5.86</v>
+        <v>6.17</v>
       </c>
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="n">
         <v>1.42</v>
       </c>
       <c r="BU8" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="BV8" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BW8" t="n">
-        <v>2.41</v>
+        <v>2.3</v>
       </c>
       <c r="BX8" t="inlineStr"/>
       <c r="BY8" t="n">
-        <v>2.16</v>
+        <v>2.19</v>
       </c>
       <c r="BZ8" t="inlineStr"/>
       <c r="CA8" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="CB8" t="inlineStr"/>
       <c r="CC8" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="CD8" t="inlineStr"/>
       <c r="CE8" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="CF8" t="n">
         <v>1.67</v>
@@ -4191,13 +4193,13 @@
         <v>0.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="I9" t="n">
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>8.67</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
@@ -4224,25 +4226,25 @@
         <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="T9" t="n">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="U9" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="V9" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="W9" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="X9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="Z9" t="n">
         <v>0.8</v>
@@ -4251,10 +4253,10 @@
         <v>2.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.67</v>
+        <v>3.18</v>
       </c>
       <c r="AC9" t="n">
-        <v>5</v>
+        <v>4.36</v>
       </c>
       <c r="AD9" t="n">
         <v>0.8</v>
@@ -4263,10 +4265,10 @@
         <v>2</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AG9" t="n">
-        <v>3</v>
+        <v>3.64</v>
       </c>
       <c r="AH9" t="n">
         <v>40.2</v>
@@ -4278,7 +4280,7 @@
         <v>1.08</v>
       </c>
       <c r="AK9" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="AL9" t="n">
         <v>0</v>
@@ -4311,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="AX9" t="n">
         <v>0</v>
@@ -4326,67 +4328,67 @@
         <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="BB9" t="n">
         <v>3.1</v>
       </c>
       <c r="BC9" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BN9" t="n">
         <v>3.54</v>
       </c>
-      <c r="BD9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>3.53</v>
-      </c>
       <c r="BO9" t="n">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BQ9" t="n">
         <v>3.2</v>
       </c>
       <c r="BR9" t="n">
-        <v>3.8</v>
+        <v>3.58</v>
       </c>
       <c r="BS9" t="n">
         <v>1.64</v>
       </c>
       <c r="BT9" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.15</v>
+        <v>2.81</v>
       </c>
       <c r="BV9" t="n">
         <v>2.44</v>
@@ -4395,25 +4397,29 @@
         <v>1.62</v>
       </c>
       <c r="BX9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="BY9" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="CB9" t="n">
         <v>1.61</v>
       </c>
-      <c r="BZ9" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>2.39</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="CC9" t="inlineStr"/>
+      <c r="CC9" t="n">
+        <v>2.82</v>
+      </c>
       <c r="CD9" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="CE9" t="inlineStr"/>
+        <v>2.4</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>1.44</v>
+      </c>
       <c r="CF9" t="n">
         <v>1.5</v>
       </c>
@@ -4604,13 +4610,13 @@
         <v>1.86</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
         <v>6.14</v>
       </c>
       <c r="J10" t="n">
-        <v>11.6</v>
+        <v>10.67</v>
       </c>
       <c r="K10" t="n">
         <v>1.57</v>
@@ -4637,25 +4643,25 @@
         <v>2.71</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="U10" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="W10" t="n">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="X10" t="n">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="Z10" t="n">
         <v>3.14</v>
@@ -4664,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.8</v>
+        <v>4.58</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>6.08</v>
       </c>
       <c r="AD10" t="n">
         <v>0.86</v>
@@ -4676,10 +4682,10 @@
         <v>1.43</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AH10" t="n">
         <v>48.86</v>
@@ -4691,7 +4697,7 @@
         <v>1.2</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.16</v>
+        <v>2.96</v>
       </c>
       <c r="AL10" t="n">
         <v>0.29</v>
@@ -4721,115 +4727,115 @@
         <v>6.86</v>
       </c>
       <c r="AU10" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AV10" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.8</v>
+        <v>0.58</v>
       </c>
       <c r="BB10" t="n">
         <v>2.21</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.66</v>
+        <v>3.81</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="BF10" t="n">
-        <v>3.06</v>
+        <v>3.47</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="BL10" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="BO10" t="n">
-        <v>3.28</v>
+        <v>2.98</v>
       </c>
       <c r="BP10" t="n">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="BQ10" t="n">
         <v>2.28</v>
       </c>
       <c r="BR10" t="n">
-        <v>4.58</v>
+        <v>3.88</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="BU10" t="n">
-        <v>2.71</v>
+        <v>3.1</v>
       </c>
       <c r="BV10" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="BX10" t="n">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.06</v>
+        <v>2.01</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.73</v>
+        <v>2.99</v>
       </c>
       <c r="CD10" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="CF10" t="n">
         <v>2.2</v>
@@ -5021,13 +5027,13 @@
         <v>2.8</v>
       </c>
       <c r="H11" t="n">
-        <v>2.71</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>11.43</v>
+        <v>11.5</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -5054,25 +5060,25 @@
         <v>2.4</v>
       </c>
       <c r="S11" t="n">
-        <v>2.71</v>
+        <v>3.25</v>
       </c>
       <c r="T11" t="n">
-        <v>0.29</v>
+        <v>0.5</v>
       </c>
       <c r="U11" t="n">
-        <v>0.71</v>
+        <v>0.92</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="W11" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="Z11" t="n">
         <v>1.6</v>
@@ -5081,10 +5087,10 @@
         <v>2.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.57</v>
+        <v>5.67</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.86</v>
+        <v>5.83</v>
       </c>
       <c r="AD11" t="n">
         <v>0.4</v>
@@ -5093,10 +5099,10 @@
         <v>1.8</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.29</v>
+        <v>2.58</v>
       </c>
       <c r="AH11" t="n">
         <v>36</v>
@@ -5108,7 +5114,7 @@
         <v>1.12</v>
       </c>
       <c r="AK11" t="n">
-        <v>2.93</v>
+        <v>3.17</v>
       </c>
       <c r="AL11" t="n">
         <v>0.2</v>
@@ -5144,109 +5150,109 @@
         <v>1</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AZ11" t="n">
         <v>0</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="BB11" t="n">
         <v>5.37</v>
       </c>
       <c r="BC11" t="n">
-        <v>3.78</v>
+        <v>4.06</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.86</v>
+        <v>3.37</v>
       </c>
       <c r="BG11" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BJ11" t="n">
         <v>1.91</v>
       </c>
-      <c r="BH11" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1.84</v>
-      </c>
       <c r="BK11" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BL11" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="BN11" t="n">
-        <v>2.92</v>
+        <v>2.69</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.72</v>
+        <v>3.06</v>
       </c>
       <c r="BP11" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="BQ11" t="n">
         <v>5.78</v>
       </c>
       <c r="BR11" t="n">
-        <v>3.87</v>
+        <v>4.25</v>
       </c>
       <c r="BS11" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BT11" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="BU11" t="n">
-        <v>3.13</v>
+        <v>2.91</v>
       </c>
       <c r="BV11" t="n">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="BW11" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="BX11" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="BY11" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.89</v>
+        <v>2.64</v>
       </c>
       <c r="CD11" t="n">
-        <v>2.85</v>
+        <v>2.96</v>
       </c>
       <c r="CE11" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="CF11" t="n">
         <v>1.29</v>
@@ -5438,13 +5444,13 @@
         <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
         <v>4.57</v>
       </c>
       <c r="J12" t="n">
-        <v>8.4</v>
+        <v>8.42</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -5471,22 +5477,22 @@
         <v>2.29</v>
       </c>
       <c r="S12" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="W12" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="X12" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="Y12" t="n">
         <v>1</v>
@@ -5498,10 +5504,10 @@
         <v>1.43</v>
       </c>
       <c r="AB12" t="n">
-        <v>3.4</v>
+        <v>4.42</v>
       </c>
       <c r="AC12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -5510,10 +5516,10 @@
         <v>1.14</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AG12" t="n">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AH12" t="n">
         <v>53.14</v>
@@ -5525,7 +5531,7 @@
         <v>1.6</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="AL12" t="n">
         <v>0.14</v>
@@ -5555,115 +5561,115 @@
         <v>6.14</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AZ12" t="n">
         <v>0</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="BB12" t="n">
         <v>3.01</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.02</v>
+        <v>3.64</v>
       </c>
       <c r="BD12" t="n">
         <v>1.33</v>
       </c>
       <c r="BE12" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="BF12" t="n">
-        <v>3.77</v>
+        <v>3.71</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.96</v>
+        <v>1.87</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.51</v>
+        <v>2.41</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BL12" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="BM12" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BO12" t="n">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="BP12" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BQ12" t="n">
         <v>2.98</v>
       </c>
       <c r="BR12" t="n">
-        <v>4.05</v>
+        <v>3.64</v>
       </c>
       <c r="BS12" t="n">
         <v>1.38</v>
       </c>
       <c r="BT12" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="BU12" t="n">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="BV12" t="n">
         <v>1.92</v>
       </c>
       <c r="BW12" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BX12" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="BY12" t="n">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="CB12" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="CC12" t="n">
-        <v>3.16</v>
+        <v>3.12</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="CF12" t="n">
         <v>1.2</v>
@@ -5855,13 +5861,13 @@
         <v>1.2</v>
       </c>
       <c r="H13" t="n">
-        <v>3.17</v>
+        <v>2.64</v>
       </c>
       <c r="I13" t="n">
         <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>10.5</v>
+        <v>9.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
@@ -5888,25 +5894,25 @@
         <v>2.8</v>
       </c>
       <c r="S13" t="n">
-        <v>3.17</v>
+        <v>2.64</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>0.91</v>
       </c>
       <c r="U13" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="W13" t="n">
-        <v>0.83</v>
+        <v>0.64</v>
       </c>
       <c r="X13" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="Z13" t="n">
         <v>1.4</v>
@@ -5915,10 +5921,10 @@
         <v>2.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>4.67</v>
+        <v>4.09</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.83</v>
+        <v>5.82</v>
       </c>
       <c r="AD13" t="n">
         <v>2</v>
@@ -5927,10 +5933,10 @@
         <v>0.6</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AH13" t="n">
         <v>39.6</v>
@@ -5942,7 +5948,7 @@
         <v>1.21</v>
       </c>
       <c r="AK13" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="AL13" t="n">
         <v>0</v>
@@ -5975,64 +5981,64 @@
         <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.83</v>
+        <v>0.55</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AZ13" t="n">
         <v>0</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="BB13" t="n">
         <v>4.26</v>
       </c>
       <c r="BC13" t="n">
-        <v>4.1</v>
+        <v>3.94</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BE13" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="BF13" t="n">
-        <v>3.68</v>
+        <v>3.82</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="BI13" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BL13" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="BN13" t="n">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
       <c r="BO13" t="n">
-        <v>2.89</v>
+        <v>2.83</v>
       </c>
       <c r="BP13" t="n">
         <v>1.4</v>
@@ -6041,37 +6047,37 @@
         <v>4.4</v>
       </c>
       <c r="BR13" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BS13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="BT13" t="n">
-        <v>2.08</v>
+        <v>2.13</v>
       </c>
       <c r="BU13" t="n">
-        <v>2.54</v>
+        <v>2.72</v>
       </c>
       <c r="BV13" t="n">
-        <v>2.11</v>
+        <v>2.06</v>
       </c>
       <c r="BW13" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BX13" t="n">
-        <v>2.37</v>
+        <v>2.21</v>
       </c>
       <c r="BY13" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BZ13" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="CA13" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="CB13" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="CC13" t="n">
         <v>2.91</v>
@@ -6272,13 +6278,13 @@
         <v>0.6</v>
       </c>
       <c r="H14" t="n">
-        <v>2.86</v>
+        <v>2.17</v>
       </c>
       <c r="I14" t="n">
         <v>7.6</v>
       </c>
       <c r="J14" t="n">
-        <v>10.43</v>
+        <v>11.58</v>
       </c>
       <c r="K14" t="n">
         <v>2.4</v>
@@ -6305,25 +6311,25 @@
         <v>2.6</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.17</v>
       </c>
       <c r="T14" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="U14" t="n">
-        <v>0.86</v>
+        <v>0.58</v>
       </c>
       <c r="V14" t="n">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
       <c r="W14" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="X14" t="n">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="Z14" t="n">
         <v>3.6</v>
@@ -6332,10 +6338,10 @@
         <v>4</v>
       </c>
       <c r="AB14" t="n">
-        <v>6</v>
+        <v>5.83</v>
       </c>
       <c r="AC14" t="n">
-        <v>4.43</v>
+        <v>5.75</v>
       </c>
       <c r="AD14" t="n">
         <v>1.8</v>
@@ -6344,10 +6350,10 @@
         <v>0.8</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AH14" t="n">
         <v>54.8</v>
@@ -6359,7 +6365,7 @@
         <v>1.66</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="AL14" t="n">
         <v>0</v>
@@ -6389,46 +6395,46 @@
         <v>8.6</v>
       </c>
       <c r="AU14" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="AZ14" t="n">
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="BB14" t="n">
         <v>3.65</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.43</v>
+        <v>3.58</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="BF14" t="n">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="BI14" t="n">
         <v>2.52</v>
@@ -6437,64 +6443,64 @@
         <v>1.95</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BL14" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BN14" t="n">
-        <v>2.9</v>
+        <v>2.84</v>
       </c>
       <c r="BO14" t="n">
-        <v>2.78</v>
+        <v>2.92</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="BQ14" t="n">
         <v>3.91</v>
       </c>
       <c r="BR14" t="n">
-        <v>3.51</v>
+        <v>3.74</v>
       </c>
       <c r="BS14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="BU14" t="n">
-        <v>3.34</v>
+        <v>3.16</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="BW14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BY14" t="n">
         <v>1.97</v>
       </c>
-      <c r="BX14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>1.99</v>
-      </c>
       <c r="BZ14" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="CA14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="CB14" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="CD14" t="n">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="CE14" t="n">
         <v>1.4</v>
@@ -6689,13 +6695,13 @@
         <v>0.83</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="I15" t="n">
         <v>3.83</v>
       </c>
       <c r="J15" t="n">
-        <v>12</v>
+        <v>10.45</v>
       </c>
       <c r="K15" t="n">
         <v>1.17</v>
@@ -6722,25 +6728,25 @@
         <v>1.17</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="V15" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="X15" t="n">
-        <v>1.6</v>
+        <v>1.18</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Z15" t="n">
         <v>2</v>
@@ -6749,10 +6755,10 @@
         <v>1.83</v>
       </c>
       <c r="AB15" t="n">
-        <v>5.4</v>
+        <v>4.73</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.6</v>
+        <v>5.73</v>
       </c>
       <c r="AD15" t="n">
         <v>0.17</v>
@@ -6761,10 +6767,10 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AG15" t="n">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="AH15" t="n">
         <v>48</v>
@@ -6776,7 +6782,7 @@
         <v>1.67</v>
       </c>
       <c r="AK15" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -6809,13 +6815,13 @@
         <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
@@ -6824,94 +6830,94 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="BB15" t="n">
         <v>2.24</v>
       </c>
       <c r="BC15" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="BF15" t="n">
-        <v>3.09</v>
+        <v>3.28</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BH15" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="BI15" t="n">
         <v>2.39</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="BL15" t="n">
-        <v>1.89</v>
+        <v>2.01</v>
       </c>
       <c r="BM15" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BN15" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="BO15" t="n">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="BP15" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BQ15" t="n">
         <v>2.34</v>
       </c>
       <c r="BR15" t="n">
-        <v>3.45</v>
+        <v>3.56</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="BT15" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="BU15" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="BW15" t="n">
-        <v>2.34</v>
+        <v>2.19</v>
       </c>
       <c r="BX15" t="n">
         <v>2.4</v>
       </c>
       <c r="BY15" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="BZ15" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="CB15" t="n">
         <v>1.41</v>
       </c>
       <c r="CC15" t="n">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="CD15" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="CE15" t="n">
         <v>1.41</v>
@@ -7106,13 +7112,13 @@
         <v>0.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>6.5</v>
       </c>
       <c r="J16" t="n">
-        <v>10.17</v>
+        <v>9.42</v>
       </c>
       <c r="K16" t="n">
         <v>2.17</v>
@@ -7139,25 +7145,25 @@
         <v>2.5</v>
       </c>
       <c r="S16" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="U16" t="n">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="V16" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="W16" t="n">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="X16" t="n">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Z16" t="n">
         <v>3.17</v>
@@ -7166,10 +7172,10 @@
         <v>3.33</v>
       </c>
       <c r="AB16" t="n">
-        <v>5.67</v>
+        <v>4.83</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.5</v>
+        <v>4.58</v>
       </c>
       <c r="AD16" t="n">
         <v>0.83</v>
@@ -7178,10 +7184,10 @@
         <v>1.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.17</v>
+        <v>3</v>
       </c>
       <c r="AH16" t="n">
         <v>80.5</v>
@@ -7193,7 +7199,7 @@
         <v>2.38</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AL16" t="n">
         <v>0.5</v>
@@ -7223,10 +7229,10 @@
         <v>4.17</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AW16" t="n">
         <v>0.67</v>
@@ -7235,10 +7241,10 @@
         <v>0.33</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="BA16" t="n">
         <v>0.5</v>
@@ -7247,91 +7253,91 @@
         <v>1.28</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.58</v>
+        <v>5.4</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.67</v>
+        <v>2.36</v>
       </c>
       <c r="BG16" t="n">
         <v>1.8</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="BJ16" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BN16" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="BO16" t="n">
-        <v>3.34</v>
+        <v>3.7</v>
       </c>
       <c r="BP16" t="n">
-        <v>1.55</v>
+        <v>1.66</v>
       </c>
       <c r="BQ16" t="n">
         <v>1.34</v>
       </c>
       <c r="BR16" t="n">
-        <v>4.79</v>
+        <v>5.84</v>
       </c>
       <c r="BS16" t="n">
         <v>1.28</v>
       </c>
       <c r="BT16" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="BU16" t="n">
-        <v>2.8</v>
+        <v>2.41</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="BW16" t="n">
-        <v>2.04</v>
+        <v>2.13</v>
       </c>
       <c r="BX16" t="n">
         <v>2.38</v>
       </c>
       <c r="BY16" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="BZ16" t="n">
         <v>1.59</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.85</v>
+        <v>1.71</v>
       </c>
       <c r="CB16" t="n">
         <v>1.34</v>
       </c>
       <c r="CC16" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="CD16" t="n">
         <v>3.28</v>
       </c>
       <c r="CE16" t="n">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="CF16" t="n">
         <v>1.17</v>
@@ -7523,13 +7529,13 @@
         <v>1.67</v>
       </c>
       <c r="H17" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>9.83</v>
+        <v>10.08</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -7556,25 +7562,25 @@
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T17" t="n">
-        <v>1.17</v>
+        <v>0.75</v>
       </c>
       <c r="U17" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W17" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
         <v>1.5</v>
@@ -7583,10 +7589,10 @@
         <v>2.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>5.17</v>
+        <v>5.33</v>
       </c>
       <c r="AC17" t="n">
-        <v>3</v>
+        <v>3.92</v>
       </c>
       <c r="AD17" t="n">
         <v>0.5</v>
@@ -7595,10 +7601,10 @@
         <v>1.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AG17" t="n">
-        <v>3.67</v>
+        <v>2.83</v>
       </c>
       <c r="AH17" t="n">
         <v>35.5</v>
@@ -7610,7 +7616,7 @@
         <v>1.01</v>
       </c>
       <c r="AK17" t="n">
-        <v>2.78</v>
+        <v>2.96</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -7640,7 +7646,7 @@
         <v>7.17</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AV17" t="n">
         <v>0.67</v>
@@ -7652,82 +7658,82 @@
         <v>0.17</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.17</v>
+        <v>0.08</v>
       </c>
       <c r="BA17" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="BB17" t="n">
         <v>5.37</v>
       </c>
       <c r="BC17" t="n">
-        <v>3.55</v>
+        <v>3.78</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BE17" t="n">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.19</v>
+        <v>4.01</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="BI17" t="n">
-        <v>2.27</v>
+        <v>2.35</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BK17" t="n">
         <v>1.54</v>
       </c>
       <c r="BL17" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="BN17" t="n">
-        <v>3.14</v>
+        <v>3.04</v>
       </c>
       <c r="BO17" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="BP17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BQ17" t="n">
         <v>5.84</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.7</v>
+        <v>3.96</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="BT17" t="n">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="BU17" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="BV17" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="BW17" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BX17" t="n">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="BY17" t="n">
         <v>1.82</v>
@@ -7739,16 +7745,16 @@
         <v>2.04</v>
       </c>
       <c r="CB17" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="CC17" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="CD17" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="CE17" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="CF17" t="n">
         <v>1.67</v>
@@ -7940,13 +7946,13 @@
         <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>2.33</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>10.33</v>
+        <v>10.67</v>
       </c>
       <c r="K18" t="n">
         <v>1.67</v>
@@ -7973,25 +7979,25 @@
         <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>2.33</v>
+        <v>2.58</v>
       </c>
       <c r="T18" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U18" t="n">
         <v>0.67</v>
       </c>
-      <c r="U18" t="n">
-        <v>0.33</v>
-      </c>
       <c r="V18" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="W18" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="X18" t="n">
         <v>1.33</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="Z18" t="n">
         <v>3.33</v>
@@ -8000,7 +8006,7 @@
         <v>3.67</v>
       </c>
       <c r="AB18" t="n">
-        <v>5.17</v>
+        <v>5.5</v>
       </c>
       <c r="AC18" t="n">
         <v>5.17</v>
@@ -8012,10 +8018,10 @@
         <v>1.17</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.17</v>
+        <v>1.75</v>
       </c>
       <c r="AG18" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="AH18" t="n">
         <v>49.5</v>
@@ -8027,7 +8033,7 @@
         <v>1.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>3.04</v>
+        <v>2.82</v>
       </c>
       <c r="AL18" t="n">
         <v>0.33</v>
@@ -8060,112 +8066,112 @@
         <v>1</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AZ18" t="n">
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="BB18" t="n">
         <v>2.56</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="BE18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="BF18" t="n">
-        <v>3.63</v>
+        <v>3.71</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="BH18" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="BI18" t="n">
-        <v>2.41</v>
+        <v>2.49</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="BK18" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="BN18" t="n">
         <v>2.96</v>
       </c>
       <c r="BO18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="BP18" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="BQ18" t="n">
         <v>2.71</v>
       </c>
       <c r="BR18" t="n">
-        <v>3.61</v>
+        <v>3.58</v>
       </c>
       <c r="BS18" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="BT18" t="n">
         <v>2.1</v>
       </c>
       <c r="BU18" t="n">
-        <v>2.82</v>
+        <v>3.14</v>
       </c>
       <c r="BV18" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="BW18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="BX18" t="n">
         <v>2.3</v>
       </c>
       <c r="BY18" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BZ18" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="CA18" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="CB18" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="CC18" t="n">
-        <v>2.83</v>
+        <v>2.92</v>
       </c>
       <c r="CD18" t="n">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="CE18" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="CF18" t="n">
         <v>1.5</v>
@@ -8357,13 +8363,13 @@
         <v>1.67</v>
       </c>
       <c r="H19" t="n">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="I19" t="n">
         <v>5.17</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>10.42</v>
       </c>
       <c r="K19" t="n">
         <v>3.83</v>
@@ -8390,7 +8396,7 @@
         <v>3.83</v>
       </c>
       <c r="S19" t="n">
-        <v>2.83</v>
+        <v>3.08</v>
       </c>
       <c r="T19" t="n">
         <v>0.83</v>
@@ -8399,13 +8405,13 @@
         <v>0.5</v>
       </c>
       <c r="V19" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="W19" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="Y19" t="n">
         <v>1.33</v>
@@ -8417,10 +8423,10 @@
         <v>3.17</v>
       </c>
       <c r="AB19" t="n">
-        <v>6</v>
+        <v>5.17</v>
       </c>
       <c r="AC19" t="n">
-        <v>6</v>
+        <v>5.25</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
@@ -8429,10 +8435,10 @@
         <v>2.83</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>3</v>
+        <v>3.83</v>
       </c>
       <c r="AH19" t="n">
         <v>51.67</v>
@@ -8444,7 +8450,7 @@
         <v>1.37</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.55</v>
+        <v>2.58</v>
       </c>
       <c r="AL19" t="n">
         <v>0.33</v>
@@ -8480,10 +8486,10 @@
         <v>0.83</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="AY19" t="n">
         <v>0.17</v>
@@ -8492,97 +8498,97 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="BB19" t="n">
         <v>2.77</v>
       </c>
       <c r="BC19" t="n">
-        <v>3.54</v>
+        <v>3.52</v>
       </c>
       <c r="BD19" t="n">
         <v>1.35</v>
       </c>
       <c r="BE19" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="BF19" t="n">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="BH19" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BI19" t="n">
-        <v>2.39</v>
+        <v>2.33</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="BK19" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="BL19" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="BM19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BP19" t="n">
         <v>1.4</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>1.39</v>
       </c>
       <c r="BQ19" t="n">
         <v>2.96</v>
       </c>
       <c r="BR19" t="n">
-        <v>3.71</v>
+        <v>3.66</v>
       </c>
       <c r="BS19" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="BT19" t="n">
         <v>2.18</v>
       </c>
       <c r="BU19" t="n">
-        <v>3.36</v>
+        <v>3.19</v>
       </c>
       <c r="BV19" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="BW19" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="BX19" t="n">
-        <v>2.39</v>
+        <v>2.28</v>
       </c>
       <c r="BY19" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="BZ19" t="n">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="CA19" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="CB19" t="n">
         <v>1.48</v>
       </c>
       <c r="CC19" t="n">
-        <v>3.26</v>
+        <v>3.07</v>
       </c>
       <c r="CD19" t="n">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="CE19" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="CF19" t="n">
         <v>1.5</v>
@@ -8774,13 +8780,13 @@
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="I20" t="n">
         <v>6.6</v>
       </c>
       <c r="J20" t="n">
-        <v>8.17</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
         <v>1.4</v>
@@ -8807,25 +8813,25 @@
         <v>1.4</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2.73</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="U20" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="W20" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="X20" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.17</v>
+        <v>0.91</v>
       </c>
       <c r="Z20" t="n">
         <v>2.4</v>
@@ -8834,10 +8840,10 @@
         <v>4</v>
       </c>
       <c r="AB20" t="n">
-        <v>4</v>
+        <v>4.45</v>
       </c>
       <c r="AC20" t="n">
-        <v>4.17</v>
+        <v>5.45</v>
       </c>
       <c r="AD20" t="n">
         <v>0.6</v>
@@ -8846,10 +8852,10 @@
         <v>0.8</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AH20" t="n">
         <v>44</v>
@@ -8861,7 +8867,7 @@
         <v>1.46</v>
       </c>
       <c r="AK20" t="n">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
@@ -8891,115 +8897,115 @@
         <v>7.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.67</v>
+        <v>0.55</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="AY20" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="AZ20" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="BB20" t="n">
         <v>2.57</v>
       </c>
       <c r="BC20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BE20" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BL20" t="n">
         <v>1.94</v>
       </c>
-      <c r="BF20" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>1.86</v>
-      </c>
       <c r="BM20" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="BN20" t="n">
-        <v>2.74</v>
+        <v>3.04</v>
       </c>
       <c r="BO20" t="n">
-        <v>3.17</v>
+        <v>2.89</v>
       </c>
       <c r="BP20" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BQ20" t="n">
         <v>2.82</v>
       </c>
       <c r="BR20" t="n">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="BS20" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="BT20" t="n">
-        <v>1.99</v>
+        <v>2.21</v>
       </c>
       <c r="BU20" t="n">
-        <v>2.55</v>
+        <v>2.83</v>
       </c>
       <c r="BV20" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BW20" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="BX20" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="BY20" t="n">
-        <v>2.09</v>
+        <v>1.95</v>
       </c>
       <c r="BZ20" t="n">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="CA20" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="CB20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="CE20" t="n">
         <v>1.48</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>1.55</v>
       </c>
       <c r="CF20" t="n">
         <v>2.5</v>
@@ -9191,13 +9197,13 @@
         <v>0.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.5</v>
+        <v>2.83</v>
       </c>
       <c r="I21" t="n">
         <v>6.5</v>
       </c>
       <c r="J21" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K21" t="n">
         <v>1.33</v>
@@ -9224,25 +9230,25 @@
         <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>2.5</v>
+        <v>2.83</v>
       </c>
       <c r="T21" t="n">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="W21" t="n">
-        <v>0.83</v>
+        <v>0.58</v>
       </c>
       <c r="X21" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="Z21" t="n">
         <v>3.67</v>
@@ -9251,10 +9257,10 @@
         <v>2.83</v>
       </c>
       <c r="AB21" t="n">
-        <v>3.17</v>
+        <v>4.08</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.33</v>
+        <v>4.42</v>
       </c>
       <c r="AD21" t="n">
         <v>0.5</v>
@@ -9263,10 +9269,10 @@
         <v>0.83</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AG21" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AH21" t="n">
         <v>58</v>
@@ -9278,7 +9284,7 @@
         <v>2.01</v>
       </c>
       <c r="AK21" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="AL21" t="n">
         <v>0</v>
@@ -9311,112 +9317,112 @@
         <v>1</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AW21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AX21" t="n">
         <v>0.33</v>
       </c>
-      <c r="AX21" t="n">
-        <v>0.17</v>
-      </c>
       <c r="AY21" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="AZ21" t="n">
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.5</v>
+        <v>0.42</v>
       </c>
       <c r="BB21" t="n">
         <v>1.68</v>
       </c>
       <c r="BC21" t="n">
-        <v>3.7</v>
+        <v>3.81</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="BF21" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="BH21" t="n">
-        <v>2.21</v>
+        <v>2.11</v>
       </c>
       <c r="BI21" t="n">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="BJ21" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BK21" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="BL21" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM21" t="n">
         <v>1.34</v>
       </c>
       <c r="BN21" t="n">
-        <v>2.55</v>
+        <v>2.59</v>
       </c>
       <c r="BO21" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="BP21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BQ21" t="n">
         <v>1.77</v>
       </c>
       <c r="BR21" t="n">
-        <v>3.81</v>
+        <v>3.9</v>
       </c>
       <c r="BS21" t="n">
         <v>1.28</v>
       </c>
       <c r="BT21" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="BU21" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="BV21" t="n">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BW21" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="BX21" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="BY21" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="BZ21" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="CA21" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="CB21" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="CC21" t="n">
-        <v>2.67</v>
+        <v>2.73</v>
       </c>
       <c r="CD21" t="n">
-        <v>3.16</v>
+        <v>3.14</v>
       </c>
       <c r="CE21" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="CF21" t="n">
         <v>1.17</v>
